--- a/localOutput.xlsx
+++ b/localOutput.xlsx
@@ -428,10 +428,10 @@
         <v>650.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.2400000000000002</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0</v>
+        <v>-0.6200000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>650.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.2400000000000002</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="O6" t="n">
         <v>-0.6200000000000001</v>
@@ -522,7 +522,7 @@
         <v>650.0</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.2400000000000002</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>-0.6200000000000001</v>
@@ -569,7 +569,7 @@
         <v>650.0</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.2400000000000002</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="O8" t="n">
         <v>-0.6200000000000001</v>
@@ -1133,10 +1133,10 @@
         <v>945.0</v>
       </c>
       <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>-0.34999999999999964</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1180,10 +1180,10 @@
         <v>945.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.14000000000000057</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0699999999999994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1368,10 +1368,10 @@
         <v>725.0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3300000000000005</v>
+        <v>-0.31000000000000005</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>-0.020000000000000462</v>
       </c>
     </row>
     <row r="26">
@@ -1415,10 +1415,10 @@
         <v>765.0</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.5699999999999998</v>
+        <v>-0.2599999999999998</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.020000000000000462</v>
+        <v>-0.31000000000000005</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1462,7 @@
         <v>765.0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.21999999999999975</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -1697,10 +1697,10 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.9700000000000002</v>
+        <v>-0.17999999999999994</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>-0.7900000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1744,10 +1744,10 @@
         <v>610.0</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.69</v>
+        <v>-2.51</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.7900000000000001</v>
+        <v>-0.17999999999999994</v>
       </c>
     </row>
     <row r="34">
@@ -1791,10 +1791,10 @@
         <v>810.0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.84</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.04000000000000026</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="35">
@@ -1838,10 +1838,10 @@
         <v>810.0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.33000000000000007</v>
+        <v>0.0</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.5399999999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -2543,10 +2543,10 @@
         <v>945.0</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.3500000000000006</v>
+        <v>-0.21999999999999975</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0</v>
+        <v>-0.13000000000000078</v>
       </c>
     </row>
     <row r="51">
@@ -2778,10 +2778,10 @@
         <v>0.0</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.98</v>
+        <v>-1.23</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="56">
@@ -2825,10 +2825,10 @@
         <v>0.0</v>
       </c>
       <c r="N56" t="n">
-        <v>-2.23</v>
+        <v>-1.0</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.75</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="57">
@@ -2872,10 +2872,10 @@
         <v>870.0</v>
       </c>
       <c r="N57" t="n">
-        <v>-3.94</v>
+        <v>-2.94</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.8199999999999998</v>
+        <v>-0.5899999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2919,10 +2919,10 @@
         <v>1070.0</v>
       </c>
       <c r="N58" t="n">
-        <v>-2.94</v>
+        <v>0.0</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.75</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="59">
@@ -2969,7 +2969,7 @@
         <v>0.0</v>
       </c>
       <c r="O59" t="n">
-        <v>-2.76</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -3342,10 +3342,10 @@
         <v>1385.0</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.040000000000000036</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0</v>
+        <v>-0.08999999999999986</v>
       </c>
     </row>
     <row r="68">
@@ -3906,10 +3906,10 @@
         <v>0.0</v>
       </c>
       <c r="N79" t="n">
-        <v>-1.33</v>
+        <v>-1.0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0</v>
+        <v>-0.33000000000000007</v>
       </c>
     </row>
     <row r="80">
@@ -3953,10 +3953,10 @@
         <v>0.0</v>
       </c>
       <c r="N80" t="n">
-        <v>-1.87</v>
+        <v>-0.8700000000000003</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.33000000000000007</v>
+        <v>-0.9999999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4000,7 +4000,7 @@
         <v>870.0</v>
       </c>
       <c r="N81" t="n">
-        <v>-3.43</v>
+        <v>-2.43</v>
       </c>
       <c r="O81" t="n">
         <v>0.0</v>
@@ -4047,10 +4047,10 @@
         <v>870.0</v>
       </c>
       <c r="N82" t="n">
-        <v>-2.5699999999999994</v>
+        <v>0.0</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.8600000000000001</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="83">
@@ -4094,10 +4094,10 @@
         <v>870.0</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.10999999999999988</v>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="O83" t="n">
-        <v>-2.57</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -4141,10 +4141,10 @@
         <v>1070.0</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.14000000000000012</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0</v>
+        <v>-0.11000000000000032</v>
       </c>
     </row>
     <row r="85">
@@ -4188,10 +4188,10 @@
         <v>1260.0</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.3900000000000001</v>
+        <v>-0.36000000000000026</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.11000000000000032</v>
+        <v>-0.03000000000000025</v>
       </c>
     </row>
     <row r="86">
@@ -4752,10 +4752,10 @@
         <v>810.0</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.40000000000000036</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0</v>
+        <v>-0.08000000000000007</v>
       </c>
     </row>
     <row r="98">
@@ -4799,10 +4799,10 @@
         <v>810.0</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.40000000000000036</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.3200000000000003</v>
       </c>
     </row>
     <row r="99">
@@ -5081,10 +5081,10 @@
         <v>0.0</v>
       </c>
       <c r="N104" t="n">
-        <v>-1.8299999999999996</v>
+        <v>-0.86</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0</v>
+        <v>-0.9699999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -5128,10 +5128,10 @@
         <v>850.0</v>
       </c>
       <c r="N105" t="n">
-        <v>-3.4</v>
+        <v>-2.48</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.049999999999999926</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -5175,10 +5175,10 @@
         <v>850.0</v>
       </c>
       <c r="N106" t="n">
-        <v>-2.54</v>
+        <v>0.0</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.86</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="107">
@@ -5222,10 +5222,10 @@
         <v>1050.0</v>
       </c>
       <c r="N107" t="n">
-        <v>-0.17999999999999972</v>
+        <v>0.0</v>
       </c>
       <c r="O107" t="n">
-        <v>-1.6399999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -5269,7 +5269,7 @@
         <v>1070.0</v>
       </c>
       <c r="N108" t="n">
-        <v>-0.17999999999999972</v>
+        <v>0.0</v>
       </c>
       <c r="O108" t="n">
         <v>0.0</v>
@@ -5316,10 +5316,10 @@
         <v>1500.0</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.4299999999999997</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -5880,10 +5880,10 @@
         <v>830.0</v>
       </c>
       <c r="N121" t="n">
-        <v>-0.39000000000000057</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0</v>
+        <v>-0.08000000000000007</v>
       </c>
     </row>
     <row r="122">
@@ -6209,10 +6209,10 @@
         <v>0.0</v>
       </c>
       <c r="N128" t="n">
-        <v>-0.82</v>
+        <v>-0.51</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0</v>
+        <v>-0.30999999999999994</v>
       </c>
     </row>
     <row r="129">
@@ -6256,7 +6256,7 @@
         <v>525.0</v>
       </c>
       <c r="N129" t="n">
-        <v>-1.7400000000000002</v>
+        <v>-1.4300000000000004</v>
       </c>
       <c r="O129" t="n">
         <v>0.0</v>
@@ -6303,10 +6303,10 @@
         <v>525.0</v>
       </c>
       <c r="N130" t="n">
-        <v>-1.5</v>
+        <v>0.0</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.24000000000000032</v>
+        <v>-1.4300000000000004</v>
       </c>
     </row>
     <row r="131">
@@ -6353,7 +6353,7 @@
         <v>-0.06999999999999984</v>
       </c>
       <c r="O131" t="n">
-        <v>-1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -6867,10 +6867,10 @@
         <v>640.0</v>
       </c>
       <c r="N142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O142" t="n">
         <v>-0.1499999999999999</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -6917,7 +6917,7 @@
         <v>-0.22000000000000022</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.1499999999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -6961,10 +6961,10 @@
         <v>600.0</v>
       </c>
       <c r="N144" t="n">
-        <v>-0.37999999999999984</v>
+        <v>-0.1599999999999997</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0</v>
+        <v>-0.22000000000000022</v>
       </c>
     </row>
     <row r="145">
@@ -7008,7 +7008,7 @@
         <v>600.0</v>
       </c>
       <c r="N145" t="n">
-        <v>-0.31999999999999984</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="O145" t="n">
         <v>0.0</v>
@@ -7290,10 +7290,10 @@
         <v>0.0</v>
       </c>
       <c r="N151" t="n">
-        <v>-0.4800000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="152">
@@ -7337,10 +7337,10 @@
         <v>0.0</v>
       </c>
       <c r="N152" t="n">
-        <v>-0.30000000000000004</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.28</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="153">
@@ -7384,7 +7384,7 @@
         <v>200.0</v>
       </c>
       <c r="N153" t="n">
-        <v>-0.12000000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="O153" t="n">
         <v>0.0</v>
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="n">
-        <v>57.07999999999999</v>
+        <v>29.879999999999992</v>
       </c>
     </row>
     <row r="175">
@@ -8176,7 +8176,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="n">
-        <v>17.14</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="176">

--- a/localOutput.xlsx
+++ b/localOutput.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -257,10 +257,10 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
         <v>7.0</v>
@@ -272,19 +272,19 @@
         <v>4.0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="K2" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.65</v>
+        <v>0.5857142857142856</v>
       </c>
       <c r="M2" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -304,10 +304,10 @@
         <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
         <v>7.0</v>
@@ -319,19 +319,19 @@
         <v>4.0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M3" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -351,10 +351,10 @@
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.0</v>
@@ -366,22 +366,22 @@
         <v>4.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M4" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
@@ -398,10 +398,10 @@
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
         <v>7.0</v>
@@ -413,25 +413,25 @@
         <v>4.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M5" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -445,10 +445,10 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -460,25 +460,25 @@
         <v>4.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M6" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
         <v>7.0</v>
@@ -507,25 +507,25 @@
         <v>4.0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n">
         <v>7.0</v>
@@ -554,25 +554,25 @@
         <v>4.0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="M8" t="n">
-        <v>545.0</v>
+        <v>590.0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -586,40 +586,40 @@
         <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" t="n">
         <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.04</v>
+        <v>4.49</v>
       </c>
       <c r="J9" t="n">
-        <v>0.040000000000000036</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0.505</v>
+        <v>0.449</v>
       </c>
       <c r="M9" t="n">
-        <v>745.0</v>
+        <v>875.0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.18000000000000013</v>
+        <v>-0.10999999999999988</v>
       </c>
     </row>
     <row r="10">
@@ -633,40 +633,40 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="n">
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.63</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="M10" t="n">
-        <v>525.0</v>
+        <v>590.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.22000000000000022</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -677,40 +677,40 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.28</v>
+        <v>4.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28000000000000025</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6114285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>725.0</v>
+        <v>610.0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
@@ -724,43 +724,43 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>0.11000000000000032</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.4875</v>
       </c>
       <c r="M12" t="n">
-        <v>725.0</v>
+        <v>610.0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="13">
@@ -774,34 +774,34 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.11</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.11000000000000032</v>
+        <v>0.9000000000000002</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.5444444444444445</v>
       </c>
       <c r="M13" t="n">
-        <v>725.0</v>
+        <v>810.0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -821,34 +821,34 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.11</v>
+        <v>4.63</v>
       </c>
       <c r="J14" t="n">
-        <v>0.11000000000000032</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.5144444444444445</v>
       </c>
       <c r="M14" t="n">
-        <v>725.0</v>
+        <v>810.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -868,34 +868,34 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" t="n">
         <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="J15" t="n">
-        <v>0.11000000000000032</v>
+        <v>0.23000000000000043</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.52875</v>
       </c>
       <c r="M15" t="n">
-        <v>725.0</v>
+        <v>790.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -915,16 +915,16 @@
         <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" t="n">
         <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
@@ -936,13 +936,13 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L16" t="n">
-        <v>0.61875</v>
+        <v>0.55</v>
       </c>
       <c r="M16" t="n">
-        <v>925.0</v>
+        <v>990.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -965,31 +965,31 @@
         <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H17" t="n">
         <v>4.0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.63</v>
+        <v>4.23</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.23000000000000043</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
-        <v>0.57875</v>
+        <v>0.6042857142857143</v>
       </c>
       <c r="M17" t="n">
-        <v>925.0</v>
+        <v>905.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1024,16 +1024,16 @@
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.68</v>
+        <v>4.84</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="K18" t="n">
         <v>0.6785714285714286</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6685714285714285</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="M18" t="n">
         <v>905.0</v>
@@ -1053,40 +1053,40 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H19" t="n">
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.21</v>
+        <v>4.44</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="K19" t="n">
         <v>0.6142857142857142</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6014285714285714</v>
+        <v>0.6342857142857143</v>
       </c>
       <c r="M19" t="n">
-        <v>725.0</v>
+        <v>905.0</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.0</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
@@ -1100,43 +1100,43 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F20" t="n">
         <v>7.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H20" t="n">
         <v>4.44</v>
       </c>
       <c r="I20" t="n">
-        <v>4.11</v>
+        <v>4.28</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.33000000000000007</v>
+        <v>-0.16000000000000014</v>
       </c>
       <c r="K20" t="n">
         <v>0.6342857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="M20" t="n">
-        <v>725.0</v>
+        <v>905.0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1153,34 +1153,34 @@
         <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.92</v>
       </c>
       <c r="I21" t="n">
-        <v>4.11</v>
+        <v>3.61</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1900000000000004</v>
+        <v>-0.31000000000000005</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.6016666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>725.0</v>
+        <v>705.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.22999999999999954</v>
+        <v>-0.16000000000000014</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -1200,31 +1200,31 @@
         <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H22" t="n">
         <v>4.12</v>
       </c>
       <c r="I22" t="n">
-        <v>5.11</v>
+        <v>4.61</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9900000000000003</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K22" t="n">
-        <v>0.515</v>
+        <v>0.5885714285714286</v>
       </c>
       <c r="L22" t="n">
-        <v>0.63875</v>
+        <v>0.6585714285714286</v>
       </c>
       <c r="M22" t="n">
-        <v>925.0</v>
+        <v>905.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1247,31 +1247,31 @@
         <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H23" t="n">
         <v>4.11</v>
       </c>
       <c r="I23" t="n">
-        <v>4.78</v>
+        <v>4.28</v>
       </c>
       <c r="J23" t="n">
-        <v>0.67</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>0.51375</v>
+        <v>0.5871428571428572</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5975</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="M23" t="n">
-        <v>925.0</v>
+        <v>905.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -1294,31 +1294,31 @@
         <v>1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H24" t="n">
         <v>3.99</v>
       </c>
       <c r="I24" t="n">
-        <v>4.95</v>
+        <v>4.45</v>
       </c>
       <c r="J24" t="n">
-        <v>0.96</v>
+        <v>0.46</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49875</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>0.61875</v>
+        <v>0.6357142857142858</v>
       </c>
       <c r="M24" t="n">
-        <v>925.0</v>
+        <v>905.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1338,10 +1338,10 @@
         <v>3.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F25" t="n">
         <v>7.0</v>
@@ -1353,19 +1353,19 @@
         <v>3.61</v>
       </c>
       <c r="I25" t="n">
-        <v>3.73</v>
+        <v>3.38</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1200000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="K25" t="n">
         <v>0.5157142857142857</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5328571428571428</v>
+        <v>0.4828571428571429</v>
       </c>
       <c r="M25" t="n">
-        <v>725.0</v>
+        <v>770.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -1382,40 +1382,40 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>4.16</v>
+        <v>3.53</v>
       </c>
       <c r="J26" t="n">
-        <v>0.31000000000000005</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="K26" t="n">
-        <v>0.77</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.5883333333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>820.0</v>
+        <v>750.0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0</v>
+        <v>-0.23</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
@@ -1429,40 +1429,40 @@
         <v>1.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
       </c>
       <c r="F27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.82</v>
+        <v>3.23</v>
       </c>
       <c r="J27" t="n">
-        <v>0.92</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="K27" t="n">
-        <v>0.58</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="L27" t="n">
-        <v>0.764</v>
+        <v>0.5383333333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>820.0</v>
+        <v>750.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>-0.22000000000000022</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -1476,37 +1476,37 @@
         <v>2.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>3.82</v>
+        <v>3.21</v>
       </c>
       <c r="J28" t="n">
-        <v>1.48</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46799999999999997</v>
+        <v>0.3899999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.764</v>
+        <v>0.535</v>
       </c>
       <c r="M28" t="n">
-        <v>820.0</v>
+        <v>750.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -1523,10 +1523,10 @@
         <v>3.0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -1535,25 +1535,25 @@
         <v>5.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>3.66</v>
+        <v>2.83</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3200000000000003</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K29" t="n">
         <v>0.46799999999999997</v>
       </c>
       <c r="L29" t="n">
-        <v>0.732</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>820.0</v>
+        <v>685.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -1570,37 +1570,37 @@
         <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="H30" t="n">
         <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>2.89</v>
+        <v>1.66</v>
       </c>
       <c r="J30" t="n">
-        <v>1.27</v>
+        <v>0.039999999999999813</v>
       </c>
       <c r="K30" t="n">
-        <v>0.405</v>
+        <v>0.81</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7225</v>
+        <v>0.83</v>
       </c>
       <c r="M30" t="n">
-        <v>620.0</v>
+        <v>400.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -1617,7 +1617,7 @@
         <v>5.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
@@ -1626,7 +1626,7 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" t="n">
         <v>1.0</v>
@@ -1635,19 +1635,19 @@
         <v>0.85</v>
       </c>
       <c r="I31" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.48</v>
+        <v>0.65</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="M31" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -1664,7 +1664,7 @@
         <v>6.0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -1673,7 +1673,7 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>1.0</v>
@@ -1682,19 +1682,19 @@
         <v>2.51</v>
       </c>
       <c r="I32" t="n">
-        <v>1.66</v>
+        <v>0.83</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.8499999999999999</v>
+        <v>-1.6799999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>1.255</v>
+        <v>2.51</v>
       </c>
       <c r="L32" t="n">
         <v>0.83</v>
       </c>
       <c r="M32" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -1717,34 +1717,34 @@
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>4.13</v>
       </c>
       <c r="I33" t="n">
-        <v>4.45</v>
+        <v>4.02</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3200000000000003</v>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="K33" t="n">
-        <v>0.59</v>
+        <v>0.6883333333333332</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6357142857142858</v>
+        <v>0.67</v>
       </c>
       <c r="M33" t="n">
-        <v>725.0</v>
+        <v>705.0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.5299999999999996</v>
+        <v>-1.6799999999999997</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
@@ -1761,40 +1761,40 @@
         <v>2.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E34" t="n">
         <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.88</v>
+        <v>4.13</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5542857142857143</v>
+        <v>0.51625</v>
       </c>
       <c r="M34" t="n">
-        <v>545.0</v>
+        <v>610.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.5299999999999996</v>
+        <v>-1.5499999999999998</v>
       </c>
     </row>
     <row r="35">
@@ -1808,34 +1808,34 @@
         <v>2.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" t="n">
         <v>4.0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="H35" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.7799999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="M35" t="n">
-        <v>545.0</v>
+        <v>610.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -1852,10 +1852,10 @@
         <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" t="n">
         <v>4.0</v>
@@ -1864,25 +1864,25 @@
         <v>8.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.78</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.7800000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K36" t="n">
         <v>0.375</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5975</v>
+        <v>0.4875</v>
       </c>
       <c r="M36" t="n">
-        <v>745.0</v>
+        <v>610.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -1902,34 +1902,34 @@
         <v>3.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E37" t="n">
         <v>4.0</v>
       </c>
       <c r="F37" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.45</v>
+        <v>4.68</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4500000000000002</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>0.375</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="L37" t="n">
-        <v>0.55625</v>
+        <v>0.52</v>
       </c>
       <c r="M37" t="n">
-        <v>745.0</v>
+        <v>810.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -1946,37 +1946,37 @@
         <v>12.0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D38" t="n">
         <v>2.0</v>
       </c>
       <c r="E38" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H38" t="n">
         <v>5.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.53</v>
+        <v>5.36</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L38" t="n">
-        <v>0.553</v>
+        <v>0.5955555555555556</v>
       </c>
       <c r="M38" t="n">
-        <v>830.0</v>
+        <v>990.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -1999,31 +1999,31 @@
         <v>2.0</v>
       </c>
       <c r="E39" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H39" t="n">
         <v>5.06</v>
       </c>
       <c r="I39" t="n">
-        <v>6.23</v>
+        <v>5.06</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1700000000000008</v>
+        <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.46</v>
+        <v>0.5622222222222222</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5663636363636364</v>
+        <v>0.5622222222222222</v>
       </c>
       <c r="M39" t="n">
-        <v>1030.0</v>
+        <v>990.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -2046,31 +2046,31 @@
         <v>3.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="H40" t="n">
         <v>6.99</v>
       </c>
       <c r="I40" t="n">
-        <v>7.93</v>
+        <v>6.87</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9399999999999994</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>0.466</v>
+        <v>0.5376923076923077</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5286666666666666</v>
+        <v>0.5284615384615384</v>
       </c>
       <c r="M40" t="n">
-        <v>1335.0</v>
+        <v>1295.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -2093,34 +2093,34 @@
         <v>2.0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F41" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>6.39</v>
       </c>
       <c r="I41" t="n">
-        <v>6.16</v>
+        <v>5.83</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.22999999999999954</v>
+        <v>-0.5599999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5809090909090909</v>
+        <v>0.639</v>
       </c>
       <c r="L41" t="n">
-        <v>0.56</v>
+        <v>0.583</v>
       </c>
       <c r="M41" t="n">
-        <v>1030.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="O41" t="n">
         <v>0.0</v>
@@ -2140,34 +2140,34 @@
         <v>2.0</v>
       </c>
       <c r="E42" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>5.33</v>
       </c>
       <c r="I42" t="n">
-        <v>6.06</v>
+        <v>5.56</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7299999999999995</v>
+        <v>0.22999999999999954</v>
       </c>
       <c r="K42" t="n">
-        <v>0.48454545454545456</v>
+        <v>0.533</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5509090909090909</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>1030.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0</v>
+        <v>-0.4500000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>0.0</v>
@@ -2187,31 +2187,31 @@
         <v>2.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F43" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>4.83</v>
       </c>
       <c r="I43" t="n">
-        <v>5.9</v>
+        <v>5.56</v>
       </c>
       <c r="J43" t="n">
-        <v>1.0700000000000003</v>
+        <v>0.7299999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4390909090909091</v>
+        <v>0.483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5363636363636364</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>1030.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -2234,31 +2234,31 @@
         <v>2.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F44" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>4.99</v>
       </c>
       <c r="I44" t="n">
-        <v>6.23</v>
+        <v>5.3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.2400000000000002</v>
+        <v>0.3099999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>0.45363636363636367</v>
+        <v>0.499</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5663636363636364</v>
+        <v>0.53</v>
       </c>
       <c r="M44" t="n">
-        <v>1030.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -2281,31 +2281,31 @@
         <v>2.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F45" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H45" t="n">
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.68</v>
+        <v>4.95</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2799999999999994</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4</v>
+        <v>0.48888888888888893</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5163636363636364</v>
+        <v>0.55</v>
       </c>
       <c r="M45" t="n">
-        <v>1030.0</v>
+        <v>990.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -2325,34 +2325,34 @@
         <v>4.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>4.63</v>
       </c>
       <c r="I46" t="n">
-        <v>5.55</v>
+        <v>4.76</v>
       </c>
       <c r="J46" t="n">
-        <v>0.92</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5144444444444445</v>
+        <v>0.57875</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.595</v>
       </c>
       <c r="M46" t="n">
-        <v>945.0</v>
+        <v>970.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -2369,37 +2369,37 @@
         <v>21.0</v>
       </c>
       <c r="C47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F47" t="n">
         <v>9.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H47" t="n">
         <v>4.61</v>
       </c>
       <c r="I47" t="n">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.5699999999999994</v>
       </c>
       <c r="K47" t="n">
         <v>0.5122222222222222</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5811111111111111</v>
+        <v>0.5755555555555555</v>
       </c>
       <c r="M47" t="n">
-        <v>945.0</v>
+        <v>1170.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -2416,37 +2416,37 @@
         <v>22.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>6.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>4.48</v>
       </c>
       <c r="I48" t="n">
-        <v>4.49</v>
+        <v>4.28</v>
       </c>
       <c r="J48" t="n">
-        <v>0.009999999999999787</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="K48" t="n">
         <v>0.7466666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.7133333333333334</v>
       </c>
       <c r="M48" t="n">
-        <v>840.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -2466,10 +2466,10 @@
         <v>4.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n">
         <v>6.0</v>
@@ -2481,22 +2481,22 @@
         <v>4.05</v>
       </c>
       <c r="I49" t="n">
-        <v>4.32</v>
+        <v>4.04</v>
       </c>
       <c r="J49" t="n">
-        <v>0.27000000000000046</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="K49" t="n">
         <v>0.675</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="M49" t="n">
-        <v>840.0</v>
+        <v>885.0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O49" t="n">
         <v>0.0</v>
@@ -2513,40 +2513,40 @@
         <v>4.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" t="n">
         <v>2.0</v>
       </c>
       <c r="F50" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H50" t="n">
         <v>4.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.6357142857142858</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.6485714285714286</v>
       </c>
       <c r="M50" t="n">
-        <v>840.0</v>
+        <v>905.0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0</v>
+        <v>-0.11000000000000032</v>
       </c>
     </row>
     <row r="51">
@@ -2560,34 +2560,34 @@
         <v>4.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" t="n">
         <v>2.0</v>
       </c>
       <c r="F51" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.16</v>
+        <v>4.44</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7600000000000002</v>
+        <v>1.0400000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6933333333333335</v>
+        <v>0.6342857142857143</v>
       </c>
       <c r="M51" t="n">
-        <v>840.0</v>
+        <v>905.0</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -2604,37 +2604,37 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
       </c>
       <c r="F52" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H52" t="n">
         <v>2.8</v>
       </c>
       <c r="I52" t="n">
-        <v>3.39</v>
+        <v>4.18</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5900000000000003</v>
+        <v>1.38</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6780000000000002</v>
+        <v>0.5971428571428571</v>
       </c>
       <c r="M52" t="n">
-        <v>640.0</v>
+        <v>905.0</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -2654,34 +2654,34 @@
         <v>3.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
       </c>
       <c r="F53" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.020000000000000018</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6875</v>
+        <v>0.55</v>
       </c>
       <c r="L53" t="n">
-        <v>0.6825</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>620.0</v>
+        <v>685.0</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -2731,7 +2731,7 @@
         <v>400.0</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.020000000000000018</v>
+        <v>0.0</v>
       </c>
       <c r="O54" t="n">
         <v>0.0</v>
@@ -2781,7 +2781,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.020000000000000018</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -2839,40 +2839,40 @@
         <v>7.0</v>
       </c>
       <c r="C57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D57" t="n">
         <v>2.0</v>
       </c>
       <c r="E57" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F57" t="n">
         <v>9.0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>4.84</v>
       </c>
       <c r="I57" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J57" t="n">
-        <v>0.46</v>
+        <v>0.8600000000000003</v>
       </c>
       <c r="K57" t="n">
         <v>0.5377777777777778</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5888888888888889</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M57" t="n">
-        <v>630.0</v>
+        <v>810.0</v>
       </c>
       <c r="N57" t="n">
-        <v>-2.81</v>
+        <v>-2.4099999999999997</v>
       </c>
       <c r="O57" t="n">
         <v>0.0</v>
@@ -2892,37 +2892,37 @@
         <v>2.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F58" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>5.08</v>
       </c>
       <c r="I58" t="n">
-        <v>5.4</v>
+        <v>4.73</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3200000000000003</v>
+        <v>-0.34999999999999964</v>
       </c>
       <c r="K58" t="n">
-        <v>0.508</v>
+        <v>0.5644444444444444</v>
       </c>
       <c r="L58" t="n">
-        <v>0.54</v>
+        <v>0.5255555555555556</v>
       </c>
       <c r="M58" t="n">
-        <v>830.0</v>
+        <v>810.0</v>
       </c>
       <c r="N58" t="n">
         <v>0.0</v>
       </c>
       <c r="O58" t="n">
-        <v>-2.4899999999999998</v>
+        <v>-2.4099999999999997</v>
       </c>
     </row>
     <row r="59">
@@ -2933,37 +2933,37 @@
         <v>9.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D59" t="n">
         <v>2.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F59" t="n">
         <v>10.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>4.98</v>
       </c>
       <c r="I59" t="n">
-        <v>5.23</v>
+        <v>5.73</v>
       </c>
       <c r="J59" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K59" t="n">
         <v>0.49800000000000005</v>
       </c>
       <c r="L59" t="n">
-        <v>0.523</v>
+        <v>0.5730000000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>830.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N59" t="n">
         <v>0.0</v>
@@ -2983,34 +2983,34 @@
         <v>4.0</v>
       </c>
       <c r="D60" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E60" t="n">
         <v>5.0</v>
       </c>
       <c r="F60" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>6.51</v>
       </c>
       <c r="I60" t="n">
-        <v>6.23</v>
+        <v>6.31</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.27999999999999936</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5918181818181818</v>
+        <v>0.5425</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5663636363636364</v>
+        <v>0.5258333333333333</v>
       </c>
       <c r="M60" t="n">
-        <v>1030.0</v>
+        <v>1095.0</v>
       </c>
       <c r="N60" t="n">
         <v>0.0</v>
@@ -3030,37 +3030,37 @@
         <v>4.0</v>
       </c>
       <c r="D61" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E61" t="n">
         <v>5.0</v>
       </c>
       <c r="F61" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>6.0</v>
       </c>
       <c r="I61" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="J61" t="n">
-        <v>0.05999999999999961</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5509090909090909</v>
+        <v>0.515</v>
       </c>
       <c r="M61" t="n">
-        <v>1030.0</v>
+        <v>1095.0</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.21999999999999975</v>
+        <v>-0.020000000000000462</v>
       </c>
       <c r="O61" t="n">
         <v>0.0</v>
@@ -3077,34 +3077,34 @@
         <v>4.0</v>
       </c>
       <c r="D62" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E62" t="n">
         <v>5.0</v>
       </c>
       <c r="F62" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>5.64</v>
       </c>
       <c r="I62" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="J62" t="n">
-        <v>0.41999999999999993</v>
+        <v>0.54</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5127272727272727</v>
+        <v>0.47</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5509090909090909</v>
+        <v>0.515</v>
       </c>
       <c r="M62" t="n">
-        <v>1030.0</v>
+        <v>1095.0</v>
       </c>
       <c r="N62" t="n">
         <v>0.0</v>
@@ -3121,37 +3121,37 @@
         <v>13.0</v>
       </c>
       <c r="C63" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D63" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E63" t="n">
         <v>5.0</v>
       </c>
       <c r="F63" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="H63" t="n">
         <v>5.92</v>
       </c>
       <c r="I63" t="n">
-        <v>6.06</v>
+        <v>7.06</v>
       </c>
       <c r="J63" t="n">
-        <v>0.13999999999999968</v>
+        <v>1.1399999999999997</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5381818181818182</v>
+        <v>0.4553846153846154</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5509090909090909</v>
+        <v>0.543076923076923</v>
       </c>
       <c r="M63" t="n">
-        <v>1030.0</v>
+        <v>1295.0</v>
       </c>
       <c r="N63" t="n">
         <v>0.0</v>
@@ -3168,37 +3168,37 @@
         <v>14.0</v>
       </c>
       <c r="C64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E64" t="n">
         <v>6.0</v>
       </c>
-      <c r="D64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8.0</v>
-      </c>
       <c r="F64" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.35294117647058826</v>
+        <v>0.4375</v>
       </c>
       <c r="H64" t="n">
         <v>8.18</v>
       </c>
       <c r="I64" t="n">
-        <v>9.15</v>
+        <v>8.82</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9700000000000005</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4811764705882353</v>
+        <v>0.51125</v>
       </c>
       <c r="L64" t="n">
-        <v>0.538235294117647</v>
+        <v>0.55125</v>
       </c>
       <c r="M64" t="n">
-        <v>1555.0</v>
+        <v>1715.0</v>
       </c>
       <c r="N64" t="n">
         <v>0.0</v>
@@ -3218,10 +3218,10 @@
         <v>5.0</v>
       </c>
       <c r="D65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E65" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F65" t="n">
         <v>12.0</v>
@@ -3233,19 +3233,19 @@
         <v>7.47</v>
       </c>
       <c r="I65" t="n">
-        <v>7.13</v>
+        <v>6.94</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.33999999999999986</v>
+        <v>-0.5299999999999994</v>
       </c>
       <c r="K65" t="n">
         <v>0.6224999999999999</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5941666666666666</v>
+        <v>0.5783333333333334</v>
       </c>
       <c r="M65" t="n">
-        <v>1230.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N65" t="n">
         <v>0.0</v>
@@ -3262,40 +3262,40 @@
         <v>16.0</v>
       </c>
       <c r="C66" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D66" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F66" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>6.24</v>
       </c>
       <c r="I66" t="n">
-        <v>6.06</v>
+        <v>6.35</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.1800000000000006</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5672727272727273</v>
+        <v>0.52</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5509090909090909</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="M66" t="n">
-        <v>1030.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.33999999999999986</v>
+        <v>-0.41999999999999993</v>
       </c>
       <c r="O66" t="n">
         <v>0.0</v>
@@ -3312,10 +3312,10 @@
         <v>4.0</v>
       </c>
       <c r="D67" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E67" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F67" t="n">
         <v>11.0</v>
@@ -3327,25 +3327,25 @@
         <v>5.66</v>
       </c>
       <c r="I67" t="n">
-        <v>5.9</v>
+        <v>5.68</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.019999999999999574</v>
       </c>
       <c r="K67" t="n">
         <v>0.5145454545454545</v>
       </c>
       <c r="L67" t="n">
-        <v>0.5363636363636364</v>
+        <v>0.5163636363636364</v>
       </c>
       <c r="M67" t="n">
-        <v>1030.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.1800000000000006</v>
+        <v>0.0</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.09999999999999964</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="68">
@@ -3356,43 +3356,43 @@
         <v>18.0</v>
       </c>
       <c r="C68" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D68" t="n">
         <v>3.0</v>
       </c>
       <c r="E68" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F68" t="n">
         <v>11.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H68" t="n">
         <v>5.84</v>
       </c>
       <c r="I68" t="n">
-        <v>5.38</v>
+        <v>5.66</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.46</v>
+        <v>-0.17999999999999972</v>
       </c>
       <c r="K68" t="n">
         <v>0.5309090909090909</v>
       </c>
       <c r="L68" t="n">
-        <v>0.4890909090909091</v>
+        <v>0.5145454545454545</v>
       </c>
       <c r="M68" t="n">
-        <v>895.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N68" t="n">
         <v>0.0</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.1800000000000006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -3403,40 +3403,40 @@
         <v>19.0</v>
       </c>
       <c r="C69" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D69" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E69" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F69" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>5.15</v>
       </c>
       <c r="I69" t="n">
-        <v>5.35</v>
+        <v>5.56</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.4099999999999993</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4681818181818182</v>
+        <v>0.515</v>
       </c>
       <c r="L69" t="n">
-        <v>0.48636363636363633</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>895.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.2600000000000007</v>
+        <v>0.0</v>
       </c>
       <c r="O69" t="n">
         <v>0.0</v>
@@ -3450,37 +3450,37 @@
         <v>20.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D70" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E70" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F70" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H70" t="n">
         <v>5.42</v>
       </c>
       <c r="I70" t="n">
-        <v>6.35</v>
+        <v>6.4</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9299999999999997</v>
+        <v>0.9800000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>0.45166666666666666</v>
+        <v>0.49272727272727274</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5291666666666667</v>
+        <v>0.5818181818181819</v>
       </c>
       <c r="M70" t="n">
-        <v>1095.0</v>
+        <v>1210.0</v>
       </c>
       <c r="N70" t="n">
         <v>0.0</v>
@@ -3497,37 +3497,37 @@
         <v>21.0</v>
       </c>
       <c r="C71" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D71" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E71" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F71" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H71" t="n">
         <v>5.41</v>
       </c>
       <c r="I71" t="n">
-        <v>5.54</v>
+        <v>6.02</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="K71" t="n">
-        <v>0.45083333333333336</v>
+        <v>0.4918181818181818</v>
       </c>
       <c r="L71" t="n">
-        <v>0.46166666666666667</v>
+        <v>0.5472727272727272</v>
       </c>
       <c r="M71" t="n">
-        <v>1095.0</v>
+        <v>1210.0</v>
       </c>
       <c r="N71" t="n">
         <v>0.0</v>
@@ -3544,37 +3544,37 @@
         <v>22.0</v>
       </c>
       <c r="C72" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D72" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F72" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
       </c>
       <c r="I72" t="n">
-        <v>5.47</v>
+        <v>4.98</v>
       </c>
       <c r="J72" t="n">
-        <v>0.21999999999999975</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L72" t="n">
-        <v>0.49727272727272726</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="M72" t="n">
-        <v>895.0</v>
+        <v>990.0</v>
       </c>
       <c r="N72" t="n">
         <v>0.0</v>
@@ -3609,22 +3609,22 @@
         <v>4.75</v>
       </c>
       <c r="I73" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.34999999999999964</v>
+        <v>-0.29000000000000004</v>
       </c>
       <c r="K73" t="n">
         <v>0.59375</v>
       </c>
       <c r="L73" t="n">
-        <v>0.55</v>
+        <v>0.5575</v>
       </c>
       <c r="M73" t="n">
         <v>790.0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="O73" t="n">
         <v>0.0</v>
@@ -3671,10 +3671,10 @@
         <v>790.0</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.34999999999999964</v>
+        <v>-0.29000000000000004</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0</v>
+        <v>-0.2699999999999996</v>
       </c>
     </row>
     <row r="75">
@@ -3750,16 +3750,16 @@
         <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="J76" t="n">
-        <v>1.21</v>
+        <v>0.9900000000000003</v>
       </c>
       <c r="K76" t="n">
         <v>0.4</v>
       </c>
       <c r="L76" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="M76" t="n">
         <v>705.0</v>
@@ -3782,34 +3782,34 @@
         <v>3.0</v>
       </c>
       <c r="D77" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E77" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F77" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H77" t="n">
         <v>2.7</v>
       </c>
       <c r="I77" t="n">
-        <v>3.35</v>
+        <v>2.33</v>
       </c>
       <c r="J77" t="n">
-        <v>0.6499999999999999</v>
+        <v>-0.37000000000000016</v>
       </c>
       <c r="K77" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="M77" t="n">
-        <v>705.0</v>
+        <v>600.0</v>
       </c>
       <c r="N77" t="n">
         <v>0.0</v>
@@ -3829,37 +3829,37 @@
         <v>2.0</v>
       </c>
       <c r="D78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H78" t="n">
         <v>1.67</v>
       </c>
       <c r="I78" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="J78" t="n">
-        <v>0.6099999999999999</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="K78" t="n">
-        <v>0.4175</v>
+        <v>0.835</v>
       </c>
       <c r="L78" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="M78" t="n">
-        <v>485.0</v>
+        <v>400.0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0</v>
+        <v>-0.37000000000000016</v>
       </c>
       <c r="O78" t="n">
         <v>0.0</v>
@@ -3873,43 +3873,43 @@
         <v>5.0</v>
       </c>
       <c r="C79" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H79" t="n">
         <v>0.87</v>
       </c>
       <c r="I79" t="n">
-        <v>2.0</v>
+        <v>0.67</v>
       </c>
       <c r="J79" t="n">
-        <v>1.13</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2175</v>
+        <v>0.87</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="M79" t="n">
-        <v>485.0</v>
+        <v>200.0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0</v>
+        <v>-0.37000000000000016</v>
       </c>
     </row>
     <row r="80">
@@ -3920,7 +3920,7 @@
         <v>6.0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
         <v>0.0</v>
@@ -3929,34 +3929,34 @@
         <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
         <v>2.57</v>
       </c>
       <c r="I80" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>-1.7399999999999998</v>
+        <v>-2.57</v>
       </c>
       <c r="K80" t="n">
-        <v>2.57</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M80" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0</v>
+        <v>-0.16999999999999993</v>
       </c>
     </row>
     <row r="81">
@@ -3967,10 +3967,10 @@
         <v>7.0</v>
       </c>
       <c r="C81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E81" t="n">
         <v>4.0</v>
@@ -3979,28 +3979,28 @@
         <v>8.0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H81" t="n">
         <v>4.24</v>
       </c>
       <c r="I81" t="n">
-        <v>5.38</v>
+        <v>4.7</v>
       </c>
       <c r="J81" t="n">
-        <v>1.1399999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="K81" t="n">
         <v>0.53</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6725</v>
+        <v>0.5875</v>
       </c>
       <c r="M81" t="n">
-        <v>745.0</v>
+        <v>610.0</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-2.3099999999999996</v>
       </c>
       <c r="O81" t="n">
         <v>0.0</v>
@@ -4014,10 +4014,10 @@
         <v>8.0</v>
       </c>
       <c r="C82" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E82" t="n">
         <v>4.0</v>
@@ -4026,31 +4026,31 @@
         <v>9.0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>4.44</v>
       </c>
       <c r="I82" t="n">
-        <v>5.61</v>
+        <v>4.9</v>
       </c>
       <c r="J82" t="n">
-        <v>1.17</v>
+        <v>0.46</v>
       </c>
       <c r="K82" t="n">
         <v>0.4933333333333334</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6233333333333334</v>
+        <v>0.5444444444444445</v>
       </c>
       <c r="M82" t="n">
-        <v>945.0</v>
+        <v>810.0</v>
       </c>
       <c r="N82" t="n">
         <v>0.0</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0</v>
+        <v>-1.8499999999999996</v>
       </c>
     </row>
     <row r="83">
@@ -4061,10 +4061,10 @@
         <v>9.0</v>
       </c>
       <c r="C83" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E83" t="n">
         <v>4.0</v>
@@ -4073,25 +4073,25 @@
         <v>9.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>4.36</v>
       </c>
       <c r="I83" t="n">
-        <v>5.44</v>
+        <v>4.73</v>
       </c>
       <c r="J83" t="n">
-        <v>1.08</v>
+        <v>0.37000000000000016</v>
       </c>
       <c r="K83" t="n">
         <v>0.48444444444444446</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6044444444444445</v>
+        <v>0.5255555555555556</v>
       </c>
       <c r="M83" t="n">
-        <v>945.0</v>
+        <v>810.0</v>
       </c>
       <c r="N83" t="n">
         <v>0.0</v>
@@ -4108,37 +4108,37 @@
         <v>10.0</v>
       </c>
       <c r="C84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E84" t="n">
         <v>5.0</v>
       </c>
-      <c r="D84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F84" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H84" t="n">
         <v>5.69</v>
       </c>
       <c r="I84" t="n">
-        <v>6.28</v>
+        <v>5.48</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5899999999999999</v>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5690000000000001</v>
+        <v>0.5172727272727273</v>
       </c>
       <c r="L84" t="n">
-        <v>0.628</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="M84" t="n">
-        <v>1145.0</v>
+        <v>895.0</v>
       </c>
       <c r="N84" t="n">
         <v>0.0</v>
@@ -4155,40 +4155,40 @@
         <v>11.0</v>
       </c>
       <c r="C85" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E85" t="n">
         <v>5.0</v>
       </c>
       <c r="F85" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H85" t="n">
         <v>7.0</v>
       </c>
       <c r="I85" t="n">
-        <v>7.04</v>
+        <v>6.5</v>
       </c>
       <c r="J85" t="n">
-        <v>0.040000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L85" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="M85" t="n">
-        <v>1165.0</v>
+        <v>1160.0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0</v>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="O85" t="n">
         <v>0.0</v>
@@ -4202,37 +4202,37 @@
         <v>12.0</v>
       </c>
       <c r="C86" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D86" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E86" t="n">
         <v>5.0</v>
       </c>
       <c r="F86" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H86" t="n">
         <v>4.93</v>
       </c>
       <c r="I86" t="n">
-        <v>6.77</v>
+        <v>6.3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4481818181818182</v>
+        <v>0.3792307692307692</v>
       </c>
       <c r="L86" t="n">
-        <v>0.6154545454545454</v>
+        <v>0.4846153846153846</v>
       </c>
       <c r="M86" t="n">
-        <v>1165.0</v>
+        <v>1160.0</v>
       </c>
       <c r="N86" t="n">
         <v>0.0</v>
@@ -4249,37 +4249,37 @@
         <v>13.0</v>
       </c>
       <c r="C87" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D87" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E87" t="n">
         <v>5.0</v>
       </c>
       <c r="F87" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H87" t="n">
         <v>5.19</v>
       </c>
       <c r="I87" t="n">
-        <v>6.77</v>
+        <v>6.18</v>
       </c>
       <c r="J87" t="n">
-        <v>1.5799999999999992</v>
+        <v>0.9899999999999993</v>
       </c>
       <c r="K87" t="n">
-        <v>0.47181818181818186</v>
+        <v>0.3992307692307693</v>
       </c>
       <c r="L87" t="n">
-        <v>0.6154545454545454</v>
+        <v>0.47538461538461535</v>
       </c>
       <c r="M87" t="n">
-        <v>1165.0</v>
+        <v>1160.0</v>
       </c>
       <c r="N87" t="n">
         <v>0.0</v>
@@ -4299,10 +4299,10 @@
         <v>6.0</v>
       </c>
       <c r="D88" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E88" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F88" t="n">
         <v>16.0</v>
@@ -4314,19 +4314,19 @@
         <v>7.16</v>
       </c>
       <c r="I88" t="n">
-        <v>8.98</v>
+        <v>8.25</v>
       </c>
       <c r="J88" t="n">
-        <v>1.8200000000000003</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="K88" t="n">
         <v>0.4475</v>
       </c>
       <c r="L88" t="n">
-        <v>0.56125</v>
+        <v>0.515625</v>
       </c>
       <c r="M88" t="n">
-        <v>1490.0</v>
+        <v>1580.0</v>
       </c>
       <c r="N88" t="n">
         <v>0.0</v>
@@ -4349,31 +4349,31 @@
         <v>2.0</v>
       </c>
       <c r="E89" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F89" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>6.54</v>
       </c>
       <c r="I89" t="n">
-        <v>7.63</v>
+        <v>6.03</v>
       </c>
       <c r="J89" t="n">
-        <v>1.0899999999999999</v>
+        <v>-0.5099999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5030769230769231</v>
+        <v>0.654</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5869230769230769</v>
+        <v>0.603</v>
       </c>
       <c r="M89" t="n">
-        <v>1250.0</v>
+        <v>1190.0</v>
       </c>
       <c r="N89" t="n">
         <v>0.0</v>
@@ -4396,34 +4396,34 @@
         <v>2.0</v>
       </c>
       <c r="E90" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F90" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H90" t="n">
         <v>5.46</v>
       </c>
       <c r="I90" t="n">
-        <v>6.56</v>
+        <v>5.06</v>
       </c>
       <c r="J90" t="n">
-        <v>1.0999999999999996</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="K90" t="n">
-        <v>0.455</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5466666666666666</v>
+        <v>0.5622222222222222</v>
       </c>
       <c r="M90" t="n">
-        <v>1050.0</v>
+        <v>990.0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0</v>
+        <v>-0.5099999999999998</v>
       </c>
       <c r="O90" t="n">
         <v>0.0</v>
@@ -4443,37 +4443,37 @@
         <v>2.0</v>
       </c>
       <c r="E91" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F91" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H91" t="n">
         <v>4.96</v>
       </c>
       <c r="I91" t="n">
-        <v>6.4</v>
+        <v>5.06</v>
       </c>
       <c r="J91" t="n">
-        <v>1.4400000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="K91" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.5511111111111111</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5622222222222222</v>
       </c>
       <c r="M91" t="n">
-        <v>1050.0</v>
+        <v>990.0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0</v>
+        <v>-0.41000000000000014</v>
       </c>
     </row>
     <row r="92">
@@ -4484,43 +4484,43 @@
         <v>18.0</v>
       </c>
       <c r="C92" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D92" t="n">
         <v>2.0</v>
       </c>
       <c r="E92" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F92" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H92" t="n">
         <v>5.1</v>
       </c>
       <c r="I92" t="n">
-        <v>5.73</v>
+        <v>4.9</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6300000000000008</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4636363636363636</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L92" t="n">
-        <v>0.520909090909091</v>
+        <v>0.5444444444444445</v>
       </c>
       <c r="M92" t="n">
-        <v>850.0</v>
+        <v>990.0</v>
       </c>
       <c r="N92" t="n">
         <v>0.0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="93">
@@ -4537,34 +4537,34 @@
         <v>2.0</v>
       </c>
       <c r="E93" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F93" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.375</v>
       </c>
       <c r="H93" t="n">
         <v>4.51</v>
       </c>
       <c r="I93" t="n">
-        <v>5.73</v>
+        <v>4.23</v>
       </c>
       <c r="J93" t="n">
-        <v>1.2200000000000006</v>
+        <v>-0.27999999999999936</v>
       </c>
       <c r="K93" t="n">
-        <v>0.41</v>
+        <v>0.56375</v>
       </c>
       <c r="L93" t="n">
-        <v>0.520909090909091</v>
+        <v>0.52875</v>
       </c>
       <c r="M93" t="n">
-        <v>850.0</v>
+        <v>790.0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="O93" t="n">
         <v>0.0</v>
@@ -4584,31 +4584,31 @@
         <v>2.0</v>
       </c>
       <c r="E94" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F94" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H94" t="n">
         <v>4.74</v>
       </c>
       <c r="I94" t="n">
-        <v>6.73</v>
+        <v>5.23</v>
       </c>
       <c r="J94" t="n">
-        <v>1.9900000000000002</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>0.395</v>
+        <v>0.5266666666666667</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5811111111111111</v>
       </c>
       <c r="M94" t="n">
-        <v>1050.0</v>
+        <v>990.0</v>
       </c>
       <c r="N94" t="n">
         <v>0.0</v>
@@ -4625,37 +4625,37 @@
         <v>21.0</v>
       </c>
       <c r="C95" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D95" t="n">
         <v>2.0</v>
       </c>
       <c r="E95" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F95" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>4.73</v>
       </c>
       <c r="I95" t="n">
-        <v>6.08</v>
+        <v>5.52</v>
       </c>
       <c r="J95" t="n">
-        <v>1.3499999999999996</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3941666666666667</v>
+        <v>0.47300000000000003</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.5519999999999999</v>
       </c>
       <c r="M95" t="n">
-        <v>1050.0</v>
+        <v>1190.0</v>
       </c>
       <c r="N95" t="n">
         <v>0.0</v>
@@ -4675,34 +4675,34 @@
         <v>4.0</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E96" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F96" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>4.59</v>
       </c>
       <c r="I96" t="n">
-        <v>5.67</v>
+        <v>4.58</v>
       </c>
       <c r="J96" t="n">
-        <v>1.08</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="K96" t="n">
-        <v>0.45899999999999996</v>
+        <v>0.57375</v>
       </c>
       <c r="L96" t="n">
-        <v>0.567</v>
+        <v>0.5725</v>
       </c>
       <c r="M96" t="n">
-        <v>965.0</v>
+        <v>970.0</v>
       </c>
       <c r="N96" t="n">
         <v>0.0</v>
@@ -4722,37 +4722,37 @@
         <v>3.0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E97" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F97" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H97" t="n">
         <v>4.15</v>
       </c>
       <c r="I97" t="n">
-        <v>4.26</v>
+        <v>3.86</v>
       </c>
       <c r="J97" t="n">
-        <v>0.10999999999999943</v>
+        <v>-0.2900000000000005</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6916666666666668</v>
+        <v>0.5928571428571429</v>
       </c>
       <c r="L97" t="n">
-        <v>0.71</v>
+        <v>0.5514285714285714</v>
       </c>
       <c r="M97" t="n">
-        <v>660.0</v>
+        <v>770.0</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="O97" t="n">
         <v>0.0</v>
@@ -4769,40 +4769,40 @@
         <v>3.0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F98" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H98" t="n">
         <v>4.05</v>
       </c>
       <c r="I98" t="n">
-        <v>3.99</v>
+        <v>3.73</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.05999999999999961</v>
+        <v>-0.31999999999999984</v>
       </c>
       <c r="K98" t="n">
-        <v>0.675</v>
+        <v>0.5785714285714285</v>
       </c>
       <c r="L98" t="n">
-        <v>0.665</v>
+        <v>0.5328571428571428</v>
       </c>
       <c r="M98" t="n">
-        <v>660.0</v>
+        <v>770.0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0</v>
+        <v>-0.2900000000000005</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0</v>
+        <v>-0.009999999999999787</v>
       </c>
     </row>
     <row r="99">
@@ -4816,34 +4816,34 @@
         <v>3.0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E99" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F99" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H99" t="n">
         <v>2.93</v>
       </c>
       <c r="I99" t="n">
-        <v>3.99</v>
+        <v>3.61</v>
       </c>
       <c r="J99" t="n">
-        <v>1.06</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>0.48833333333333334</v>
+        <v>0.4185714285714286</v>
       </c>
       <c r="L99" t="n">
-        <v>0.665</v>
+        <v>0.5157142857142857</v>
       </c>
       <c r="M99" t="n">
-        <v>660.0</v>
+        <v>770.0</v>
       </c>
       <c r="N99" t="n">
         <v>0.0</v>
@@ -4863,34 +4863,34 @@
         <v>3.0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E100" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F100" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>2.37</v>
       </c>
       <c r="I100" t="n">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="J100" t="n">
-        <v>1.62</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>0.395</v>
+        <v>0.47400000000000003</v>
       </c>
       <c r="L100" t="n">
-        <v>0.665</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M100" t="n">
-        <v>660.0</v>
+        <v>685.0</v>
       </c>
       <c r="N100" t="n">
         <v>0.0</v>
@@ -4913,31 +4913,31 @@
         <v>0.0</v>
       </c>
       <c r="E101" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F101" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H101" t="n">
         <v>2.37</v>
       </c>
       <c r="I101" t="n">
-        <v>3.73</v>
+        <v>2.33</v>
       </c>
       <c r="J101" t="n">
-        <v>1.36</v>
+        <v>-0.040000000000000036</v>
       </c>
       <c r="K101" t="n">
-        <v>0.395</v>
+        <v>0.79</v>
       </c>
       <c r="L101" t="n">
-        <v>0.6216666666666667</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="M101" t="n">
-        <v>660.0</v>
+        <v>600.0</v>
       </c>
       <c r="N101" t="n">
         <v>0.0</v>
@@ -4960,34 +4960,34 @@
         <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H102" t="n">
         <v>1.64</v>
       </c>
       <c r="I102" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.0200000000000002</v>
+        <v>-0.1399999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="L102" t="n">
-        <v>0.665</v>
+        <v>0.75</v>
       </c>
       <c r="M102" t="n">
-        <v>440.0</v>
+        <v>400.0</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0</v>
+        <v>-0.040000000000000036</v>
       </c>
       <c r="O102" t="n">
         <v>0.0</v>
@@ -5001,43 +5001,43 @@
         <v>5.0</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D103" t="n">
         <v>0.0</v>
       </c>
       <c r="E103" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F103" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H103" t="n">
         <v>0.86</v>
       </c>
       <c r="I103" t="n">
-        <v>2.4</v>
+        <v>0.67</v>
       </c>
       <c r="J103" t="n">
-        <v>1.54</v>
+        <v>-0.18999999999999992</v>
       </c>
       <c r="K103" t="n">
-        <v>0.215</v>
+        <v>0.86</v>
       </c>
       <c r="L103" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="M103" t="n">
-        <v>440.0</v>
+        <v>200.0</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0</v>
+        <v>-0.1399999999999999</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0</v>
+        <v>-0.040000000000000036</v>
       </c>
     </row>
     <row r="104">
@@ -5048,43 +5048,43 @@
         <v>6.0</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
         <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
         <v>2.54</v>
       </c>
       <c r="I104" t="n">
-        <v>1.33</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>-1.21</v>
+        <v>-2.54</v>
       </c>
       <c r="K104" t="n">
-        <v>1.27</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.665</v>
+        <v>0.0</v>
       </c>
       <c r="M104" t="n">
-        <v>220.0</v>
+        <v>0.0</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0</v>
+        <v>-0.18999999999999992</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0</v>
+        <v>-0.1399999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -5095,40 +5095,40 @@
         <v>7.0</v>
       </c>
       <c r="C105" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F105" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H105" t="n">
         <v>4.18</v>
       </c>
       <c r="I105" t="n">
-        <v>5.88</v>
+        <v>4.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.7000000000000002</v>
+        <v>0.5200000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>0.46444444444444444</v>
+        <v>0.5225</v>
       </c>
       <c r="L105" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.5875</v>
       </c>
       <c r="M105" t="n">
-        <v>765.0</v>
+        <v>610.0</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0</v>
+        <v>-2.2099999999999995</v>
       </c>
       <c r="O105" t="n">
         <v>0.0</v>
@@ -5142,43 +5142,43 @@
         <v>8.0</v>
       </c>
       <c r="C106" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D106" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E106" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F106" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>4.39</v>
       </c>
       <c r="I106" t="n">
-        <v>6.11</v>
+        <v>4.9</v>
       </c>
       <c r="J106" t="n">
-        <v>1.7200000000000006</v>
+        <v>0.5100000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4389999999999999</v>
+        <v>0.4877777777777778</v>
       </c>
       <c r="L106" t="n">
-        <v>0.611</v>
+        <v>0.5444444444444445</v>
       </c>
       <c r="M106" t="n">
-        <v>965.0</v>
+        <v>810.0</v>
       </c>
       <c r="N106" t="n">
         <v>0.0</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0</v>
+        <v>-1.6999999999999988</v>
       </c>
     </row>
     <row r="107">
@@ -5189,37 +5189,37 @@
         <v>9.0</v>
       </c>
       <c r="C107" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E107" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F107" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>4.31</v>
       </c>
       <c r="I107" t="n">
-        <v>5.94</v>
+        <v>4.73</v>
       </c>
       <c r="J107" t="n">
-        <v>1.6300000000000008</v>
+        <v>0.4200000000000009</v>
       </c>
       <c r="K107" t="n">
-        <v>0.43099999999999994</v>
+        <v>0.47888888888888886</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5940000000000001</v>
+        <v>0.5255555555555556</v>
       </c>
       <c r="M107" t="n">
-        <v>965.0</v>
+        <v>810.0</v>
       </c>
       <c r="N107" t="n">
         <v>0.0</v>
@@ -5236,10 +5236,10 @@
         <v>10.0</v>
       </c>
       <c r="C108" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E108" t="n">
         <v>5.0</v>
@@ -5248,25 +5248,25 @@
         <v>11.0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H108" t="n">
         <v>5.62</v>
       </c>
       <c r="I108" t="n">
-        <v>6.68</v>
+        <v>5.48</v>
       </c>
       <c r="J108" t="n">
-        <v>1.0599999999999996</v>
+        <v>-0.13999999999999968</v>
       </c>
       <c r="K108" t="n">
         <v>0.5109090909090909</v>
       </c>
       <c r="L108" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="M108" t="n">
-        <v>1165.0</v>
+        <v>895.0</v>
       </c>
       <c r="N108" t="n">
         <v>0.0</v>
@@ -5283,40 +5283,40 @@
         <v>11.0</v>
       </c>
       <c r="C109" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F109" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>8.0</v>
       </c>
       <c r="I109" t="n">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.36000000000000026</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L109" t="n">
-        <v>0.6366666666666666</v>
+        <v>0.5133333333333333</v>
       </c>
       <c r="M109" t="n">
-        <v>1185.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0</v>
+        <v>-0.13999999999999968</v>
       </c>
       <c r="O109" t="n">
         <v>0.0</v>
@@ -5330,37 +5330,37 @@
         <v>12.0</v>
       </c>
       <c r="C110" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E110" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F110" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>5.0</v>
       </c>
       <c r="I110" t="n">
-        <v>7.27</v>
+        <v>7.3</v>
       </c>
       <c r="J110" t="n">
-        <v>2.2699999999999996</v>
+        <v>2.3</v>
       </c>
       <c r="K110" t="n">
-        <v>0.41666666666666674</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="L110" t="n">
-        <v>0.6058333333333333</v>
+        <v>0.48666666666666664</v>
       </c>
       <c r="M110" t="n">
-        <v>1185.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N110" t="n">
         <v>0.0</v>
@@ -5377,37 +5377,37 @@
         <v>13.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E111" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F111" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>5.12</v>
       </c>
       <c r="I111" t="n">
-        <v>7.27</v>
+        <v>7.18</v>
       </c>
       <c r="J111" t="n">
-        <v>2.1499999999999995</v>
+        <v>2.0599999999999996</v>
       </c>
       <c r="K111" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.3413333333333333</v>
       </c>
       <c r="L111" t="n">
-        <v>0.6058333333333333</v>
+        <v>0.4786666666666666</v>
       </c>
       <c r="M111" t="n">
-        <v>1185.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N111" t="n">
         <v>0.0</v>
@@ -5424,37 +5424,37 @@
         <v>14.0</v>
       </c>
       <c r="C112" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E112" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="F112" t="n">
         <v>17.0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.35294117647058826</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="H112" t="n">
         <v>7.07</v>
       </c>
       <c r="I112" t="n">
-        <v>9.48</v>
+        <v>8.05</v>
       </c>
       <c r="J112" t="n">
-        <v>2.41</v>
+        <v>0.9800000000000004</v>
       </c>
       <c r="K112" t="n">
         <v>0.4158823529411764</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5576470588235294</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="M112" t="n">
-        <v>1510.0</v>
+        <v>1420.0</v>
       </c>
       <c r="N112" t="n">
         <v>0.0</v>
@@ -5471,37 +5471,37 @@
         <v>15.0</v>
       </c>
       <c r="C113" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E113" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F113" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H113" t="n">
         <v>6.47</v>
       </c>
       <c r="I113" t="n">
-        <v>8.13</v>
+        <v>5.95</v>
       </c>
       <c r="J113" t="n">
-        <v>1.660000000000001</v>
+        <v>-0.5199999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>0.46214285714285713</v>
+        <v>0.5881818181818181</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5807142857142857</v>
+        <v>0.5409090909090909</v>
       </c>
       <c r="M113" t="n">
-        <v>1270.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N113" t="n">
         <v>0.0</v>
@@ -5521,37 +5521,37 @@
         <v>4.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E114" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F114" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H114" t="n">
         <v>5.4</v>
       </c>
       <c r="I114" t="n">
-        <v>7.06</v>
+        <v>5.85</v>
       </c>
       <c r="J114" t="n">
-        <v>1.6599999999999993</v>
+        <v>0.4499999999999993</v>
       </c>
       <c r="K114" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.49090909090909096</v>
       </c>
       <c r="L114" t="n">
-        <v>0.543076923076923</v>
+        <v>0.5318181818181817</v>
       </c>
       <c r="M114" t="n">
-        <v>1070.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="O114" t="n">
         <v>0.0</v>
@@ -5568,34 +5568,34 @@
         <v>4.0</v>
       </c>
       <c r="D115" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E115" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F115" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H115" t="n">
         <v>4.89</v>
       </c>
       <c r="I115" t="n">
-        <v>6.9</v>
+        <v>5.68</v>
       </c>
       <c r="J115" t="n">
-        <v>2.0100000000000007</v>
+        <v>0.79</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3761538461538461</v>
+        <v>0.4445454545454545</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5307692307692308</v>
+        <v>0.5163636363636364</v>
       </c>
       <c r="M115" t="n">
-        <v>1070.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N115" t="n">
         <v>0.0</v>
@@ -5612,37 +5612,37 @@
         <v>18.0</v>
       </c>
       <c r="C116" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D116" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E116" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F116" t="n">
         <v>12.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>5.04</v>
       </c>
       <c r="I116" t="n">
-        <v>6.23</v>
+        <v>6.5</v>
       </c>
       <c r="J116" t="n">
-        <v>1.1900000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="K116" t="n">
         <v>0.42</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5191666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="M116" t="n">
-        <v>870.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N116" t="n">
         <v>0.0</v>
@@ -5659,37 +5659,37 @@
         <v>19.0</v>
       </c>
       <c r="C117" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D117" t="n">
         <v>2.0</v>
       </c>
       <c r="E117" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F117" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>4.45</v>
       </c>
       <c r="I117" t="n">
-        <v>6.23</v>
+        <v>5.4</v>
       </c>
       <c r="J117" t="n">
-        <v>1.7800000000000002</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>0.37083333333333335</v>
+        <v>0.445</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5191666666666667</v>
+        <v>0.54</v>
       </c>
       <c r="M117" t="n">
-        <v>870.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N117" t="n">
         <v>0.0</v>
@@ -5706,37 +5706,37 @@
         <v>20.0</v>
       </c>
       <c r="C118" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D118" t="n">
         <v>2.0</v>
       </c>
       <c r="E118" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F118" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>4.68</v>
       </c>
       <c r="I118" t="n">
-        <v>7.23</v>
+        <v>4.73</v>
       </c>
       <c r="J118" t="n">
-        <v>2.5500000000000007</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="K118" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5561538461538462</v>
+        <v>0.5255555555555556</v>
       </c>
       <c r="M118" t="n">
-        <v>1070.0</v>
+        <v>810.0</v>
       </c>
       <c r="N118" t="n">
         <v>0.0</v>
@@ -5759,31 +5759,31 @@
         <v>2.0</v>
       </c>
       <c r="E119" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F119" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>4.67</v>
       </c>
       <c r="I119" t="n">
-        <v>6.58</v>
+        <v>5.35</v>
       </c>
       <c r="J119" t="n">
-        <v>1.91</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="K119" t="n">
-        <v>0.35923076923076924</v>
+        <v>0.46699999999999997</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5061538461538462</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="M119" t="n">
-        <v>1070.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N119" t="n">
         <v>0.0</v>
@@ -5800,10 +5800,10 @@
         <v>22.0</v>
       </c>
       <c r="C120" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E120" t="n">
         <v>4.0</v>
@@ -5812,25 +5812,25 @@
         <v>9.0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>4.53</v>
       </c>
       <c r="I120" t="n">
-        <v>4.87</v>
+        <v>4.58</v>
       </c>
       <c r="J120" t="n">
-        <v>0.33999999999999986</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="K120" t="n">
         <v>0.5033333333333334</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5411111111111111</v>
+        <v>0.508888888888889</v>
       </c>
       <c r="M120" t="n">
-        <v>945.0</v>
+        <v>810.0</v>
       </c>
       <c r="N120" t="n">
         <v>0.0</v>
@@ -5865,16 +5865,16 @@
         <v>4.09</v>
       </c>
       <c r="I121" t="n">
-        <v>4.01</v>
+        <v>3.78</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.31000000000000005</v>
       </c>
       <c r="K121" t="n">
         <v>0.6816666666666665</v>
       </c>
       <c r="L121" t="n">
-        <v>0.6683333333333333</v>
+        <v>0.63</v>
       </c>
       <c r="M121" t="n">
         <v>705.0</v>
@@ -5959,16 +5959,16 @@
         <v>1.74</v>
       </c>
       <c r="I123" t="n">
-        <v>3.61</v>
+        <v>3.35</v>
       </c>
       <c r="J123" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K123" t="n">
         <v>0.29</v>
       </c>
       <c r="L123" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="M123" t="n">
         <v>705.0</v>
@@ -5988,16 +5988,16 @@
         <v>2.0</v>
       </c>
       <c r="C124" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D124" t="n">
         <v>1.0</v>
       </c>
       <c r="E124" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F124" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G124" t="n">
         <v>0.5</v>
@@ -6006,19 +6006,19 @@
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>3.61</v>
+        <v>2.12</v>
       </c>
       <c r="J124" t="n">
-        <v>2.2</v>
+        <v>0.7100000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>0.235</v>
+        <v>0.3525</v>
       </c>
       <c r="L124" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.53</v>
       </c>
       <c r="M124" t="n">
-        <v>705.0</v>
+        <v>485.0</v>
       </c>
       <c r="N124" t="n">
         <v>0.0</v>
@@ -6035,37 +6035,37 @@
         <v>3.0</v>
       </c>
       <c r="C125" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D125" t="n">
         <v>1.0</v>
       </c>
       <c r="E125" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F125" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>1.41</v>
       </c>
       <c r="I125" t="n">
-        <v>3.45</v>
+        <v>1.33</v>
       </c>
       <c r="J125" t="n">
-        <v>2.04</v>
+        <v>-0.07999999999999985</v>
       </c>
       <c r="K125" t="n">
-        <v>0.235</v>
+        <v>0.47</v>
       </c>
       <c r="L125" t="n">
-        <v>0.5750000000000001</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="M125" t="n">
-        <v>705.0</v>
+        <v>285.0</v>
       </c>
       <c r="N125" t="n">
         <v>0.0</v>
@@ -6082,40 +6082,40 @@
         <v>4.0</v>
       </c>
       <c r="C126" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E126" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F126" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="H126" t="n">
         <v>0.98</v>
       </c>
       <c r="I126" t="n">
-        <v>2.78</v>
+        <v>0.67</v>
       </c>
       <c r="J126" t="n">
-        <v>1.7999999999999998</v>
+        <v>-0.30999999999999994</v>
       </c>
       <c r="K126" t="n">
-        <v>0.196</v>
+        <v>0.98</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="M126" t="n">
-        <v>505.0</v>
+        <v>200.0</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0</v>
+        <v>-0.07999999999999985</v>
       </c>
       <c r="O126" t="n">
         <v>0.0</v>
@@ -6129,43 +6129,43 @@
         <v>5.0</v>
       </c>
       <c r="C127" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
         <v>0.51</v>
       </c>
       <c r="I127" t="n">
-        <v>2.62</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.1100000000000003</v>
+        <v>-0.51</v>
       </c>
       <c r="K127" t="n">
-        <v>0.10200000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.524</v>
+        <v>0.0</v>
       </c>
       <c r="M127" t="n">
-        <v>505.0</v>
+        <v>0.0</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0</v>
+        <v>-0.30999999999999994</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0</v>
+        <v>-0.07999999999999985</v>
       </c>
     </row>
     <row r="128">
@@ -6176,43 +6176,43 @@
         <v>6.0</v>
       </c>
       <c r="C128" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D128" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F128" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H128" t="n">
         <v>1.5</v>
       </c>
       <c r="I128" t="n">
-        <v>1.95</v>
+        <v>0.0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.44999999999999996</v>
+        <v>-1.5</v>
       </c>
       <c r="K128" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4875</v>
+        <v>0.0</v>
       </c>
       <c r="M128" t="n">
-        <v>305.0</v>
+        <v>0.0</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0</v>
+        <v>-0.51</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0</v>
+        <v>-0.30999999999999994</v>
       </c>
     </row>
     <row r="129">
@@ -6223,43 +6223,43 @@
         <v>7.0</v>
       </c>
       <c r="C129" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D129" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F129" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="H129" t="n">
         <v>2.47</v>
       </c>
       <c r="I129" t="n">
-        <v>4.9</v>
+        <v>2.35</v>
       </c>
       <c r="J129" t="n">
-        <v>2.43</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>0.2744444444444445</v>
+        <v>0.6175</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.5875</v>
       </c>
       <c r="M129" t="n">
-        <v>630.0</v>
+        <v>305.0</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0</v>
+        <v>-1.4999999999999998</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="130">
@@ -6273,40 +6273,40 @@
         <v>2.0</v>
       </c>
       <c r="D130" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F130" t="n">
         <v>5.0</v>
       </c>
-      <c r="F130" t="n">
-        <v>9.0</v>
-      </c>
       <c r="G130" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>2.59</v>
       </c>
       <c r="I130" t="n">
-        <v>4.4</v>
+        <v>2.95</v>
       </c>
       <c r="J130" t="n">
-        <v>1.8100000000000005</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K130" t="n">
-        <v>0.28777777777777774</v>
+        <v>0.518</v>
       </c>
       <c r="L130" t="n">
-        <v>0.48888888888888893</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="M130" t="n">
-        <v>630.0</v>
+        <v>505.0</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0</v>
+        <v>-1.1399999999999997</v>
       </c>
     </row>
     <row r="131">
@@ -6320,34 +6320,34 @@
         <v>2.0</v>
       </c>
       <c r="D131" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F131" t="n">
         <v>5.0</v>
       </c>
-      <c r="F131" t="n">
-        <v>9.0</v>
-      </c>
       <c r="G131" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>2.54</v>
       </c>
       <c r="I131" t="n">
-        <v>4.4</v>
+        <v>2.78</v>
       </c>
       <c r="J131" t="n">
-        <v>1.8600000000000003</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2822222222222222</v>
+        <v>0.508</v>
       </c>
       <c r="L131" t="n">
-        <v>0.48888888888888893</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="M131" t="n">
-        <v>630.0</v>
+        <v>505.0</v>
       </c>
       <c r="N131" t="n">
         <v>0.0</v>
@@ -6364,37 +6364,37 @@
         <v>10.0</v>
       </c>
       <c r="C132" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D132" t="n">
         <v>2.0</v>
       </c>
       <c r="E132" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F132" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="n">
         <v>3.32</v>
       </c>
       <c r="I132" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="J132" t="n">
-        <v>1.6999999999999997</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>0.33199999999999996</v>
+        <v>0.47428571428571425</v>
       </c>
       <c r="L132" t="n">
-        <v>0.502</v>
+        <v>0.5042857142857142</v>
       </c>
       <c r="M132" t="n">
-        <v>830.0</v>
+        <v>590.0</v>
       </c>
       <c r="N132" t="n">
         <v>0.0</v>
@@ -6411,37 +6411,37 @@
         <v>11.0</v>
       </c>
       <c r="C133" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E133" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F133" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="H133" t="n">
         <v>3.78</v>
       </c>
       <c r="I133" t="n">
-        <v>3.88</v>
+        <v>4.4</v>
       </c>
       <c r="J133" t="n">
-        <v>0.10000000000000009</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.4725</v>
       </c>
       <c r="L133" t="n">
-        <v>0.5542857142857143</v>
+        <v>0.55</v>
       </c>
       <c r="M133" t="n">
-        <v>545.0</v>
+        <v>790.0</v>
       </c>
       <c r="N133" t="n">
         <v>0.0</v>
@@ -6458,37 +6458,37 @@
         <v>12.0</v>
       </c>
       <c r="C134" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E134" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F134" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="H134" t="n">
         <v>2.88</v>
       </c>
       <c r="I134" t="n">
-        <v>3.78</v>
+        <v>4.23</v>
       </c>
       <c r="J134" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.3500000000000005</v>
       </c>
       <c r="K134" t="n">
-        <v>0.41142857142857137</v>
+        <v>0.36</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.52875</v>
       </c>
       <c r="M134" t="n">
-        <v>545.0</v>
+        <v>790.0</v>
       </c>
       <c r="N134" t="n">
         <v>0.0</v>
@@ -6505,37 +6505,37 @@
         <v>13.0</v>
       </c>
       <c r="C135" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D135" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E135" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F135" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H135" t="n">
         <v>3.03</v>
       </c>
       <c r="I135" t="n">
-        <v>3.78</v>
+        <v>5.11</v>
       </c>
       <c r="J135" t="n">
-        <v>0.75</v>
+        <v>2.0800000000000005</v>
       </c>
       <c r="K135" t="n">
-        <v>0.43285714285714283</v>
+        <v>0.33666666666666667</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.5677777777777778</v>
       </c>
       <c r="M135" t="n">
-        <v>545.0</v>
+        <v>990.0</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -6552,19 +6552,19 @@
         <v>14.0</v>
       </c>
       <c r="C136" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D136" t="n">
         <v>1.0</v>
       </c>
       <c r="E136" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F136" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="H136" t="n">
         <v>4.18</v>
@@ -6576,13 +6576,13 @@
         <v>0.7200000000000005</v>
       </c>
       <c r="K136" t="n">
-        <v>0.46444444444444444</v>
+        <v>0.5225</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.6125</v>
       </c>
       <c r="M136" t="n">
-        <v>765.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -6599,37 +6599,37 @@
         <v>15.0</v>
       </c>
       <c r="C137" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E137" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F137" t="n">
         <v>5.0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>3.81</v>
       </c>
       <c r="I137" t="n">
-        <v>3.66</v>
+        <v>3.48</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.1499999999999999</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="K137" t="n">
         <v>0.762</v>
       </c>
       <c r="L137" t="n">
-        <v>0.732</v>
+        <v>0.696</v>
       </c>
       <c r="M137" t="n">
-        <v>640.0</v>
+        <v>865.0</v>
       </c>
       <c r="N137" t="n">
         <v>0.0</v>
@@ -6649,37 +6649,37 @@
         <v>3.0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E138" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>3.19</v>
       </c>
       <c r="I138" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="J138" t="n">
-        <v>0.30000000000000027</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="K138" t="n">
-        <v>0.638</v>
+        <v>0.5316666666666666</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6980000000000001</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="M138" t="n">
-        <v>640.0</v>
+        <v>750.0</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0</v>
+        <v>-0.16000000000000014</v>
       </c>
       <c r="O138" t="n">
         <v>0.0</v>
@@ -6696,34 +6696,34 @@
         <v>3.0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E139" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F139" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="J139" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>0.576</v>
+        <v>0.48</v>
       </c>
       <c r="L139" t="n">
-        <v>0.666</v>
+        <v>0.5383333333333333</v>
       </c>
       <c r="M139" t="n">
-        <v>640.0</v>
+        <v>750.0</v>
       </c>
       <c r="N139" t="n">
         <v>0.0</v>
@@ -6743,34 +6743,34 @@
         <v>3.0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E140" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F140" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>2.98</v>
       </c>
       <c r="I140" t="n">
-        <v>3.66</v>
+        <v>3.21</v>
       </c>
       <c r="J140" t="n">
-        <v>0.6800000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="K140" t="n">
-        <v>0.596</v>
+        <v>0.49666666666666665</v>
       </c>
       <c r="L140" t="n">
-        <v>0.732</v>
+        <v>0.535</v>
       </c>
       <c r="M140" t="n">
-        <v>640.0</v>
+        <v>750.0</v>
       </c>
       <c r="N140" t="n">
         <v>0.0</v>
@@ -6787,37 +6787,37 @@
         <v>19.0</v>
       </c>
       <c r="C141" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E141" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F141" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>2.63</v>
       </c>
       <c r="I141" t="n">
-        <v>4.49</v>
+        <v>2.99</v>
       </c>
       <c r="J141" t="n">
-        <v>1.8600000000000003</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K141" t="n">
-        <v>0.4383333333333333</v>
+        <v>0.526</v>
       </c>
       <c r="L141" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M141" t="n">
-        <v>840.0</v>
+        <v>685.0</v>
       </c>
       <c r="N141" t="n">
         <v>0.0</v>
@@ -6840,31 +6840,31 @@
         <v>0.0</v>
       </c>
       <c r="E142" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F142" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="H142" t="n">
         <v>2.77</v>
       </c>
       <c r="I142" t="n">
-        <v>4.32</v>
+        <v>3.33</v>
       </c>
       <c r="J142" t="n">
-        <v>1.5500000000000003</v>
+        <v>0.56</v>
       </c>
       <c r="K142" t="n">
-        <v>0.46166666666666667</v>
+        <v>0.6925</v>
       </c>
       <c r="L142" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.8325</v>
       </c>
       <c r="M142" t="n">
-        <v>840.0</v>
+        <v>800.0</v>
       </c>
       <c r="N142" t="n">
         <v>0.0</v>
@@ -6887,31 +6887,31 @@
         <v>0.0</v>
       </c>
       <c r="E143" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F143" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="H143" t="n">
         <v>2.76</v>
       </c>
       <c r="I143" t="n">
-        <v>4.06</v>
+        <v>3.33</v>
       </c>
       <c r="J143" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="K143" t="n">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="L143" t="n">
-        <v>0.6766666666666665</v>
+        <v>0.8325</v>
       </c>
       <c r="M143" t="n">
-        <v>840.0</v>
+        <v>800.0</v>
       </c>
       <c r="N143" t="n">
         <v>0.0</v>
@@ -6928,37 +6928,37 @@
         <v>22.0</v>
       </c>
       <c r="C144" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D144" t="n">
         <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F144" t="n">
         <v>4.0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="H144" t="n">
         <v>2.68</v>
       </c>
       <c r="I144" t="n">
-        <v>2.73</v>
+        <v>3.33</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K144" t="n">
         <v>0.67</v>
       </c>
       <c r="L144" t="n">
-        <v>0.6825</v>
+        <v>0.8325</v>
       </c>
       <c r="M144" t="n">
-        <v>620.0</v>
+        <v>800.0</v>
       </c>
       <c r="N144" t="n">
         <v>0.0</v>
@@ -6993,16 +6993,16 @@
         <v>2.42</v>
       </c>
       <c r="I145" t="n">
-        <v>2.66</v>
+        <v>2.33</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2400000000000002</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="K145" t="n">
         <v>0.8066666666666665</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="M145" t="n">
         <v>600.0</v>
@@ -7022,7 +7022,7 @@
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
@@ -7031,7 +7031,7 @@
         <v>0.0</v>
       </c>
       <c r="F146" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G146" t="n">
         <v>1.0</v>
@@ -7040,19 +7040,19 @@
         <v>1.08</v>
       </c>
       <c r="I146" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="J146" t="n">
-        <v>1.25</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="L146" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="M146" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="N146" t="n">
         <v>0.0</v>
@@ -7069,7 +7069,7 @@
         <v>1.0</v>
       </c>
       <c r="C147" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D147" t="n">
         <v>0.0</v>
@@ -7078,7 +7078,7 @@
         <v>0.0</v>
       </c>
       <c r="F147" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G147" t="n">
         <v>1.0</v>
@@ -7087,19 +7087,19 @@
         <v>0.35</v>
       </c>
       <c r="I147" t="n">
-        <v>1.66</v>
+        <v>0.67</v>
       </c>
       <c r="J147" t="n">
-        <v>1.31</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L147" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="M147" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N147" t="n">
         <v>0.0</v>
@@ -7116,7 +7116,7 @@
         <v>2.0</v>
       </c>
       <c r="C148" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D148" t="n">
         <v>0.0</v>
@@ -7125,28 +7125,28 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G148" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H148" t="n">
         <v>0.28</v>
       </c>
       <c r="I148" t="n">
-        <v>1.66</v>
+        <v>0.0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.38</v>
+        <v>-0.28</v>
       </c>
       <c r="K148" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M148" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N148" t="n">
         <v>0.0</v>
@@ -7163,7 +7163,7 @@
         <v>3.0</v>
       </c>
       <c r="C149" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D149" t="n">
         <v>0.0</v>
@@ -7172,31 +7172,31 @@
         <v>0.0</v>
       </c>
       <c r="F149" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G149" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H149" t="n">
         <v>0.28</v>
       </c>
       <c r="I149" t="n">
-        <v>1.66</v>
+        <v>0.0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.38</v>
+        <v>-0.28</v>
       </c>
       <c r="K149" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M149" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0</v>
+        <v>-0.28</v>
       </c>
       <c r="O149" t="n">
         <v>0.0</v>
@@ -7210,7 +7210,7 @@
         <v>4.0</v>
       </c>
       <c r="C150" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D150" t="n">
         <v>0.0</v>
@@ -7219,34 +7219,34 @@
         <v>0.0</v>
       </c>
       <c r="F150" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G150" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H150" t="n">
         <v>0.2</v>
       </c>
       <c r="I150" t="n">
-        <v>1.66</v>
+        <v>0.0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.46</v>
+        <v>-0.2</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M150" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0</v>
+        <v>-0.28</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="151">
@@ -7257,7 +7257,7 @@
         <v>5.0</v>
       </c>
       <c r="C151" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D151" t="n">
         <v>0.0</v>
@@ -7266,34 +7266,34 @@
         <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H151" t="n">
         <v>0.1</v>
       </c>
       <c r="I151" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.4</v>
+        <v>-0.1</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="M151" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="152">
@@ -7304,7 +7304,7 @@
         <v>6.0</v>
       </c>
       <c r="C152" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D152" t="n">
         <v>0.0</v>
@@ -7313,34 +7313,34 @@
         <v>0.0</v>
       </c>
       <c r="F152" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G152" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H152" t="n">
         <v>0.31</v>
       </c>
       <c r="I152" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.52</v>
+        <v>-0.31</v>
       </c>
       <c r="K152" t="n">
-        <v>0.31</v>
+        <v>0.0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M152" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="153">
@@ -7369,16 +7369,16 @@
         <v>0.51</v>
       </c>
       <c r="I153" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.31999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="K153" t="n">
         <v>0.51</v>
       </c>
       <c r="L153" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M153" t="n">
         <v>200.0</v>
@@ -7633,7 +7633,7 @@
         <v>13.0</v>
       </c>
       <c r="C159" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D159" t="n">
         <v>0.0</v>
@@ -7642,7 +7642,7 @@
         <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G159" t="n">
         <v>1.0</v>
@@ -7651,19 +7651,19 @@
         <v>0.62</v>
       </c>
       <c r="I159" t="n">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="J159" t="n">
-        <v>1.21</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="L159" t="n">
-        <v>0.915</v>
+        <v>0.83</v>
       </c>
       <c r="M159" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N159" t="n">
         <v>0.0</v>
@@ -7698,16 +7698,16 @@
         <v>0.85</v>
       </c>
       <c r="I160" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J160" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K160" t="n">
         <v>0.425</v>
       </c>
       <c r="L160" t="n">
-        <v>0.83</v>
+        <v>0.835</v>
       </c>
       <c r="M160" t="n">
         <v>400.0</v>
@@ -7727,7 +7727,7 @@
         <v>15.0</v>
       </c>
       <c r="C161" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D161" t="n">
         <v>0.0</v>
@@ -7736,7 +7736,7 @@
         <v>0.0</v>
       </c>
       <c r="F161" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G161" t="n">
         <v>1.0</v>
@@ -7745,19 +7745,19 @@
         <v>0.77</v>
       </c>
       <c r="I161" t="n">
-        <v>1.66</v>
+        <v>0.83</v>
       </c>
       <c r="J161" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.05999999999999995</v>
       </c>
       <c r="K161" t="n">
-        <v>0.385</v>
+        <v>0.77</v>
       </c>
       <c r="L161" t="n">
         <v>0.83</v>
       </c>
       <c r="M161" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N161" t="n">
         <v>0.0</v>
@@ -7774,7 +7774,7 @@
         <v>16.0</v>
       </c>
       <c r="C162" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D162" t="n">
         <v>0.0</v>
@@ -7783,7 +7783,7 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G162" t="n">
         <v>1.0</v>
@@ -7792,19 +7792,19 @@
         <v>0.65</v>
       </c>
       <c r="I162" t="n">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="J162" t="n">
-        <v>0.85</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="K162" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L162" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="M162" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N162" t="n">
         <v>0.0</v>
@@ -7839,16 +7839,16 @@
         <v>0.59</v>
       </c>
       <c r="I163" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="J163" t="n">
-        <v>0.24</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="K163" t="n">
         <v>0.59</v>
       </c>
       <c r="L163" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="M163" t="n">
         <v>200.0</v>
@@ -7886,16 +7886,16 @@
         <v>0.61</v>
       </c>
       <c r="I164" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.21999999999999997</v>
+        <v>0.39</v>
       </c>
       <c r="K164" t="n">
         <v>0.61</v>
       </c>
       <c r="L164" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M164" t="n">
         <v>200.0</v>
@@ -8027,16 +8027,16 @@
         <v>0.56</v>
       </c>
       <c r="I167" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2699999999999999</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="K167" t="n">
         <v>0.56</v>
       </c>
       <c r="L167" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="M167" t="n">
         <v>200.0</v>
@@ -8074,16 +8074,16 @@
         <v>0.55</v>
       </c>
       <c r="I168" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J168" t="n">
-        <v>0.12</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K168" t="n">
         <v>0.55</v>
       </c>
       <c r="L168" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M168" t="n">
         <v>200.0</v>
@@ -8121,16 +8121,16 @@
         <v>0.5</v>
       </c>
       <c r="I169" t="n">
-        <v>1.0</v>
+        <v>0.67</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="K169" t="n">
         <v>0.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.0</v>
+        <v>0.67</v>
       </c>
       <c r="M169" t="n">
         <v>200.0</v>
@@ -8160,7 +8160,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="n">
-        <v>712.7800000000002</v>
+        <v>626.1200000000005</v>
       </c>
     </row>
     <row r="174">
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="n">
-        <v>7.750000000000002</v>
+        <v>22.12000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -8176,7 +8176,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="n">
-        <v>5.070000000000001</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="176">
@@ -8184,7 +8184,7 @@
         <v>27</v>
       </c>
       <c r="B176" t="n">
-        <v>123580.0</v>
+        <v>120450.0</v>
       </c>
     </row>
   </sheetData>
@@ -8258,10 +8258,10 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -8281,10 +8281,10 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -8307,7 +8307,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -8318,19 +8318,19 @@
         <v>9.0</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -8338,10 +8338,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" t="n">
         <v>8.0</v>
@@ -8361,10 +8361,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="D7" t="n">
         <v>8.0</v>
@@ -8384,10 +8384,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n">
         <v>8.0</v>
@@ -8396,10 +8396,10 @@
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -8407,22 +8407,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -8473,22 +8473,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -8502,19 +8502,19 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -8522,10 +8522,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="D14" t="n">
         <v>8.0</v>
@@ -8534,10 +8534,10 @@
         <v>1.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -8545,22 +8545,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D15" t="n">
         <v>8.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.0</v>
-      </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -8568,22 +8568,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -8591,10 +8591,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="D17" t="n">
         <v>8.0</v>
@@ -8603,10 +8603,10 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -8614,10 +8614,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n">
         <v>8.0</v>
@@ -8626,10 +8626,10 @@
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -8663,10 +8663,10 @@
         <v>15.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="D20" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -8683,10 +8683,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="D21" t="n">
         <v>8.0</v>
@@ -8706,10 +8706,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
         <v>8.0</v>
@@ -8721,7 +8721,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -8729,10 +8729,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" t="n">
         <v>8.0</v>
@@ -8741,7 +8741,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -8752,10 +8752,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" t="n">
         <v>8.0</v>
@@ -8772,48 +8772,48 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="D25" t="n">
         <v>8.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -8821,22 +8821,22 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -8844,22 +8844,22 @@
         <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D28" t="n">
         <v>8.0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -8867,10 +8867,10 @@
         <v>17</v>
       </c>
       <c r="B29" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="C29" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="D29" t="n">
         <v>8.0</v>
@@ -8879,10 +8879,10 @@
         <v>1.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -8890,13 +8890,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="D30" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
@@ -8905,7 +8905,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -8913,10 +8913,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="D31" t="n">
         <v>8.0</v>
@@ -8936,22 +8936,22 @@
         <v>17</v>
       </c>
       <c r="B32" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C32" t="n">
         <v>22.0</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.0</v>
-      </c>
       <c r="D32" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -8959,22 +8959,22 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -8982,10 +8982,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="D34" t="n">
         <v>8.0</v>
@@ -8994,10 +8994,10 @@
         <v>1.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -9005,13 +9005,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C35" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -9025,59 +9025,59 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="C36" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="D36" t="n">
         <v>8.0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C38" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="D38" t="n">
         <v>8.0</v>
@@ -9094,25 +9094,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -9120,22 +9120,22 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D40" t="n">
         <v>8.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -9143,10 +9143,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="C41" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="D41" t="n">
         <v>8.0</v>
@@ -9155,10 +9155,10 @@
         <v>1.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -9166,22 +9166,22 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="D42" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -9189,22 +9189,22 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E43" t="n">
         <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -9212,10 +9212,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="D44" t="n">
         <v>8.0</v>
@@ -9227,7 +9227,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -9235,56 +9235,56 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="D45" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C46" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="D46" t="n">
         <v>8.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F46" t="n">
         <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C47" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="D47" t="n">
         <v>8.0</v>
@@ -9301,13 +9301,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="C48" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="D48" t="n">
         <v>8.0</v>
@@ -9324,36 +9324,36 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="C49" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="D49" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C50" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="D50" t="n">
         <v>8.0</v>
@@ -9362,33 +9362,33 @@
         <v>1.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G50" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C51" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="D51" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -9396,22 +9396,22 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="C52" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="D52" t="n">
         <v>8.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -9419,10 +9419,10 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="C53" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="D53" t="n">
         <v>8.0</v>
@@ -9442,56 +9442,56 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C54" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="D54" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="n">
         <v>1.0</v>
       </c>
       <c r="G54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C55" t="n">
         <v>15.0</v>
       </c>
       <c r="D55" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
       </c>
       <c r="G55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C56" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="D56" t="n">
         <v>8.0</v>
@@ -9508,53 +9508,53 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C57" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="D57" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C58" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D58" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" t="n">
         <v>15.0</v>
@@ -9569,24 +9569,24 @@
         <v>1.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C60" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="D60" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -9600,16 +9600,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D61" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -9623,16 +9623,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C62" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D62" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -9646,82 +9646,473 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="C63" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="D63" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="D64" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" t="n">
         <v>23.0</v>
       </c>
       <c r="C65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B69" t="n">
         <v>11.0</v>
       </c>
-      <c r="D65" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="C69" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B80" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A78:A82"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/localOutput.xlsx
+++ b/localOutput.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -254,37 +254,37 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>4.0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5857142857142856</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -301,37 +301,37 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>4.0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M3" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -348,40 +348,40 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
         <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>4.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
@@ -395,43 +395,43 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>4.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M5" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
     </row>
     <row r="6">
@@ -442,43 +442,43 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>4.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M6" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
     </row>
     <row r="7">
@@ -489,43 +489,43 @@
         <v>5.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>4.0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M7" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
     </row>
     <row r="8">
@@ -536,43 +536,43 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
         <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M8" t="n">
-        <v>590.0</v>
+        <v>810.0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.029999999999999805</v>
       </c>
     </row>
     <row r="9">
@@ -583,43 +583,43 @@
         <v>7.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
         <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.49</v>
+        <v>7.21</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4900000000000002</v>
+        <v>3.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L9" t="n">
-        <v>0.449</v>
+        <v>0.5546153846153846</v>
       </c>
       <c r="M9" t="n">
-        <v>875.0</v>
+        <v>1610.0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.10999999999999988</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -630,43 +630,43 @@
         <v>8.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.784</v>
       </c>
       <c r="M10" t="n">
-        <v>590.0</v>
+        <v>865.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -677,40 +677,40 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.0</v>
+        <v>4.82</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.8033333333333332</v>
       </c>
       <c r="M11" t="n">
-        <v>610.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.20000000000000018</v>
+        <v>0.0</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
@@ -724,43 +724,43 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4.65</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.10000000000000009</v>
+        <v>0.6500000000000002</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4875</v>
+        <v>0.775</v>
       </c>
       <c r="M12" t="n">
-        <v>610.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.20000000000000018</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -771,37 +771,37 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9000000000000002</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>810.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -818,37 +818,37 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.63</v>
+        <v>4.15</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.15000000000000036</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5144444444444445</v>
+        <v>0.83</v>
       </c>
       <c r="M14" t="n">
-        <v>810.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -865,37 +865,37 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.23</v>
+        <v>4.15</v>
       </c>
       <c r="J15" t="n">
-        <v>0.23000000000000043</v>
+        <v>0.15000000000000036</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0.52875</v>
+        <v>0.83</v>
       </c>
       <c r="M15" t="n">
-        <v>790.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -912,37 +912,37 @@
         <v>14.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4444444444444444</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.95</v>
+        <v>6.51</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9500000000000002</v>
+        <v>2.51</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.55</v>
+        <v>0.81375</v>
       </c>
       <c r="M16" t="n">
-        <v>990.0</v>
+        <v>1600.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -959,37 +959,37 @@
         <v>15.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>4.0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23000000000000043</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6042857142857143</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>905.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1006,37 +1006,37 @@
         <v>16.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.84</v>
+        <v>4.99</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6914285714285714</v>
+        <v>0.8316666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>905.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1053,37 +1053,37 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.44</v>
+        <v>4.15</v>
       </c>
       <c r="J19" t="n">
-        <v>0.14000000000000057</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6142857142857142</v>
+        <v>0.86</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6342857142857143</v>
+        <v>0.83</v>
       </c>
       <c r="M19" t="n">
-        <v>905.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -1100,40 +1100,40 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
         <v>4.44</v>
       </c>
       <c r="I20" t="n">
-        <v>4.28</v>
+        <v>4.15</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.16000000000000014</v>
+        <v>-0.29000000000000004</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6342857142857143</v>
+        <v>0.8880000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6114285714285714</v>
+        <v>0.83</v>
       </c>
       <c r="M20" t="n">
-        <v>905.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
@@ -1147,40 +1147,40 @@
         <v>19.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>3.92</v>
       </c>
       <c r="I21" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.31000000000000005</v>
+        <v>0.23000000000000043</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.784</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="M21" t="n">
-        <v>705.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.16000000000000014</v>
+        <v>-0.20999999999999908</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -1194,43 +1194,43 @@
         <v>20.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
         <v>4.12</v>
       </c>
       <c r="I22" t="n">
-        <v>4.61</v>
+        <v>4.15</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5885714285714286</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6585714285714286</v>
+        <v>0.83</v>
       </c>
       <c r="M22" t="n">
-        <v>905.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>-0.17999999999999883</v>
       </c>
     </row>
     <row r="23">
@@ -1241,37 +1241,37 @@
         <v>21.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
         <v>7.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n">
         <v>4.11</v>
       </c>
       <c r="I23" t="n">
-        <v>4.28</v>
+        <v>5.67</v>
       </c>
       <c r="J23" t="n">
-        <v>0.16999999999999993</v>
+        <v>1.5599999999999996</v>
       </c>
       <c r="K23" t="n">
         <v>0.5871428571428572</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6114285714285714</v>
+        <v>0.81</v>
       </c>
       <c r="M23" t="n">
-        <v>905.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -1294,31 +1294,31 @@
         <v>1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.99</v>
       </c>
       <c r="I24" t="n">
-        <v>4.45</v>
+        <v>3.76</v>
       </c>
       <c r="J24" t="n">
-        <v>0.46</v>
+        <v>-0.23000000000000043</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.7980000000000002</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6357142857142858</v>
+        <v>0.752</v>
       </c>
       <c r="M24" t="n">
-        <v>905.0</v>
+        <v>865.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1335,40 +1335,40 @@
         <v>23.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.61</v>
       </c>
       <c r="I25" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.23</v>
+        <v>0.22000000000000022</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5157142857142857</v>
+        <v>0.722</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4828571428571429</v>
+        <v>0.7659999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0</v>
+        <v>865.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>-0.010000000000000231</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
@@ -1388,37 +1388,37 @@
         <v>2.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3200000000000003</v>
+        <v>-0.26000000000000023</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.77</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5883333333333333</v>
+        <v>0.718</v>
       </c>
       <c r="M26" t="n">
-        <v>750.0</v>
+        <v>730.0</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.23</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>-0.010000000000000231</v>
       </c>
     </row>
     <row r="27">
@@ -1435,34 +1435,34 @@
         <v>2.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.23</v>
+        <v>3.39</v>
       </c>
       <c r="J27" t="n">
-        <v>0.33000000000000007</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>0.48333333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5383333333333333</v>
+        <v>0.6780000000000002</v>
       </c>
       <c r="M27" t="n">
-        <v>750.0</v>
+        <v>730.0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.22000000000000022</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -1479,34 +1479,34 @@
         <v>3.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>3.21</v>
+        <v>2.99</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.6500000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="L28" t="n">
-        <v>0.535</v>
+        <v>0.7475</v>
       </c>
       <c r="M28" t="n">
-        <v>750.0</v>
+        <v>665.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -1529,31 +1529,31 @@
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
         <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46799999999999997</v>
+        <v>0.585</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.7225</v>
       </c>
       <c r="M29" t="n">
-        <v>685.0</v>
+        <v>665.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -1570,7 +1570,7 @@
         <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
@@ -1579,7 +1579,7 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G30" t="n">
         <v>1.0</v>
@@ -1588,19 +1588,19 @@
         <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>1.66</v>
+        <v>2.17</v>
       </c>
       <c r="J30" t="n">
-        <v>0.039999999999999813</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>0.81</v>
+        <v>0.54</v>
       </c>
       <c r="L30" t="n">
-        <v>0.83</v>
+        <v>0.7233333333333333</v>
       </c>
       <c r="M30" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -1617,7 +1617,7 @@
         <v>5.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
@@ -1626,7 +1626,7 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>1.0</v>
@@ -1635,19 +1635,19 @@
         <v>0.85</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="J31" t="n">
-        <v>0.65</v>
+        <v>-0.020000000000000018</v>
       </c>
       <c r="K31" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="L31" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="M31" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -1682,22 +1682,22 @@
         <v>2.51</v>
       </c>
       <c r="I32" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.6799999999999997</v>
+        <v>-1.84</v>
       </c>
       <c r="K32" t="n">
         <v>2.51</v>
       </c>
       <c r="L32" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="M32" t="n">
         <v>200.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>-0.020000000000000018</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -1711,43 +1711,43 @@
         <v>7.0</v>
       </c>
       <c r="C33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H33" t="n">
         <v>4.13</v>
       </c>
       <c r="I33" t="n">
-        <v>4.02</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.11000000000000032</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6883333333333332</v>
+        <v>0.51625</v>
       </c>
       <c r="L33" t="n">
-        <v>0.67</v>
+        <v>0.475</v>
       </c>
       <c r="M33" t="n">
-        <v>705.0</v>
+        <v>610.0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.6799999999999997</v>
+        <v>-1.84</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>-0.020000000000000018</v>
       </c>
     </row>
     <row r="34">
@@ -1758,7 +1758,7 @@
         <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n">
         <v>2.0</v>
@@ -1767,34 +1767,34 @@
         <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13999999999999968</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L34" t="n">
-        <v>0.51625</v>
+        <v>0.46</v>
       </c>
       <c r="M34" t="n">
-        <v>610.0</v>
+        <v>810.0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.11000000000000032</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.5499999999999998</v>
+        <v>-1.7000000000000002</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>9.0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D35" t="n">
         <v>2.0</v>
@@ -1814,28 +1814,28 @@
         <v>4.0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>3.97</v>
       </c>
       <c r="J35" t="n">
-        <v>1.9</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4875</v>
+        <v>0.4411111111111111</v>
       </c>
       <c r="M35" t="n">
-        <v>610.0</v>
+        <v>810.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -1852,7 +1852,7 @@
         <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D36" t="n">
         <v>2.0</v>
@@ -1861,28 +1861,28 @@
         <v>4.0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9300000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>0.375</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4875</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="M36" t="n">
-        <v>610.0</v>
+        <v>810.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -1899,37 +1899,37 @@
         <v>11.0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D37" t="n">
         <v>2.0</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F37" t="n">
         <v>9.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H37" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.68</v>
+        <v>5.57</v>
       </c>
       <c r="J37" t="n">
-        <v>1.6799999999999997</v>
+        <v>2.57</v>
       </c>
       <c r="K37" t="n">
         <v>0.33333333333333326</v>
       </c>
       <c r="L37" t="n">
-        <v>0.52</v>
+        <v>0.6188888888888889</v>
       </c>
       <c r="M37" t="n">
-        <v>810.0</v>
+        <v>1170.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -1946,37 +1946,37 @@
         <v>12.0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D38" t="n">
         <v>2.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" t="n">
         <v>9.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H38" t="n">
         <v>5.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.36</v>
+        <v>5.56</v>
       </c>
       <c r="J38" t="n">
-        <v>0.36000000000000026</v>
+        <v>0.5599999999999996</v>
       </c>
       <c r="K38" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5955555555555556</v>
+        <v>0.6177777777777778</v>
       </c>
       <c r="M38" t="n">
-        <v>990.0</v>
+        <v>1170.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -1993,37 +1993,37 @@
         <v>13.0</v>
       </c>
       <c r="C39" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D39" t="n">
         <v>2.0</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H39" t="n">
         <v>5.06</v>
       </c>
       <c r="I39" t="n">
-        <v>5.06</v>
+        <v>7.39</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>2.33</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.46</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.6718181818181818</v>
       </c>
       <c r="M39" t="n">
-        <v>990.0</v>
+        <v>1570.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -2040,37 +2040,37 @@
         <v>14.0</v>
       </c>
       <c r="C40" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>6.99</v>
       </c>
       <c r="I40" t="n">
-        <v>6.87</v>
+        <v>7.49</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5376923076923077</v>
+        <v>0.5825</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5284615384615384</v>
+        <v>0.6241666666666666</v>
       </c>
       <c r="M40" t="n">
-        <v>1295.0</v>
+        <v>1770.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -2087,40 +2087,40 @@
         <v>15.0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>6.39</v>
       </c>
       <c r="I41" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.5599999999999996</v>
+        <v>-0.5099999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>0.639</v>
+        <v>0.71</v>
       </c>
       <c r="L41" t="n">
-        <v>0.583</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="M41" t="n">
-        <v>1010.0</v>
+        <v>1305.0</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O41" t="n">
         <v>0.0</v>
@@ -2134,40 +2134,40 @@
         <v>16.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F42" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>5.33</v>
       </c>
       <c r="I42" t="n">
-        <v>5.56</v>
+        <v>5.72</v>
       </c>
       <c r="J42" t="n">
-        <v>0.22999999999999954</v>
+        <v>0.38999999999999974</v>
       </c>
       <c r="K42" t="n">
-        <v>0.533</v>
+        <v>0.5922222222222222</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.6355555555555555</v>
       </c>
       <c r="M42" t="n">
-        <v>1010.0</v>
+        <v>1305.0</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.4500000000000001</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>0.0</v>
@@ -2181,37 +2181,37 @@
         <v>17.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>4.83</v>
       </c>
       <c r="I43" t="n">
-        <v>5.56</v>
+        <v>5.72</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7299999999999995</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>0.483</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.6355555555555555</v>
       </c>
       <c r="M43" t="n">
-        <v>1010.0</v>
+        <v>1305.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -2228,37 +2228,37 @@
         <v>18.0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" t="n">
         <v>10.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>4.99</v>
       </c>
       <c r="I44" t="n">
-        <v>5.3</v>
+        <v>6.26</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3099999999999996</v>
+        <v>1.2699999999999996</v>
       </c>
       <c r="K44" t="n">
         <v>0.499</v>
       </c>
       <c r="L44" t="n">
-        <v>0.53</v>
+        <v>0.626</v>
       </c>
       <c r="M44" t="n">
-        <v>1010.0</v>
+        <v>1505.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -2275,37 +2275,37 @@
         <v>19.0</v>
       </c>
       <c r="C45" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4444444444444444</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.95</v>
+        <v>4.99</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.48888888888888893</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="L45" t="n">
-        <v>0.55</v>
+        <v>0.8316666666666667</v>
       </c>
       <c r="M45" t="n">
-        <v>990.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -2322,37 +2322,37 @@
         <v>20.0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="n">
         <v>4.63</v>
       </c>
       <c r="I46" t="n">
-        <v>4.76</v>
+        <v>5.83</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1299999999999999</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>0.57875</v>
+        <v>0.6614285714285714</v>
       </c>
       <c r="L46" t="n">
-        <v>0.595</v>
+        <v>0.832857142857143</v>
       </c>
       <c r="M46" t="n">
-        <v>970.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -2372,34 +2372,34 @@
         <v>5.0</v>
       </c>
       <c r="D47" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>4.61</v>
       </c>
       <c r="I47" t="n">
-        <v>5.18</v>
+        <v>4.59</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5699999999999994</v>
+        <v>-0.020000000000000462</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5122222222222222</v>
+        <v>0.7683333333333334</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5755555555555555</v>
+        <v>0.765</v>
       </c>
       <c r="M47" t="n">
-        <v>1170.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -2416,10 +2416,10 @@
         <v>22.0</v>
       </c>
       <c r="C48" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
@@ -2428,28 +2428,28 @@
         <v>6.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>4.48</v>
       </c>
       <c r="I48" t="n">
-        <v>4.28</v>
+        <v>4.42</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.0600000000000005</v>
       </c>
       <c r="K48" t="n">
         <v>0.7466666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7133333333333334</v>
+        <v>0.7366666666666667</v>
       </c>
       <c r="M48" t="n">
-        <v>1065.0</v>
+        <v>930.0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0</v>
+        <v>-0.020000000000000462</v>
       </c>
       <c r="O48" t="n">
         <v>0.0</v>
@@ -2466,10 +2466,10 @@
         <v>4.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
         <v>6.0</v>
@@ -2481,22 +2481,22 @@
         <v>4.05</v>
       </c>
       <c r="I49" t="n">
-        <v>4.04</v>
+        <v>4.32</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.27000000000000046</v>
       </c>
       <c r="K49" t="n">
         <v>0.675</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6733333333333333</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="M49" t="n">
-        <v>885.0</v>
+        <v>930.0</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.20000000000000018</v>
+        <v>0.0</v>
       </c>
       <c r="O49" t="n">
         <v>0.0</v>
@@ -2510,43 +2510,43 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
         <v>7.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
         <v>4.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.54</v>
+        <v>5.22</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="K50" t="n">
         <v>0.6357142857142858</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6485714285714286</v>
+        <v>0.7457142857142857</v>
       </c>
       <c r="M50" t="n">
-        <v>905.0</v>
+        <v>1130.0</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.0</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.11000000000000032</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -2557,37 +2557,37 @@
         <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D51" t="n">
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.44</v>
+        <v>4.39</v>
       </c>
       <c r="J51" t="n">
-        <v>1.0400000000000005</v>
+        <v>0.9899999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6342857142857143</v>
+        <v>0.7316666666666666</v>
       </c>
       <c r="M51" t="n">
-        <v>905.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -2607,34 +2607,34 @@
         <v>4.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.0</v>
       </c>
       <c r="H52" t="n">
         <v>2.8</v>
       </c>
       <c r="I52" t="n">
-        <v>4.18</v>
+        <v>3.16</v>
       </c>
       <c r="J52" t="n">
-        <v>1.38</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5971428571428571</v>
+        <v>0.79</v>
       </c>
       <c r="M52" t="n">
-        <v>905.0</v>
+        <v>800.0</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -2654,34 +2654,34 @@
         <v>3.0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="n">
         <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.83</v>
+        <v>2.17</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08000000000000007</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0.55</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.7233333333333333</v>
       </c>
       <c r="M53" t="n">
-        <v>685.0</v>
+        <v>600.0</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -2698,7 +2698,7 @@
         <v>4.0</v>
       </c>
       <c r="C54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D54" t="n">
         <v>0.0</v>
@@ -2707,7 +2707,7 @@
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
@@ -2716,22 +2716,22 @@
         <v>1.9</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.0699999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="L54" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="M54" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="O54" t="n">
         <v>0.0</v>
@@ -2763,25 +2763,25 @@
         <v>1.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.3299999999999999</v>
+        <v>-0.17000000000000004</v>
       </c>
       <c r="K55" t="n">
         <v>1.0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="M55" t="n">
         <v>200.0</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.0699999999999998</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0</v>
+        <v>-0.5800000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2792,7 +2792,7 @@
         <v>6.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D56" t="n">
         <v>0.0</v>
@@ -2801,34 +2801,34 @@
         <v>0.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H56" t="n">
         <v>2.94</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="J56" t="n">
-        <v>-2.94</v>
+        <v>-2.11</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0</v>
+        <v>2.94</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.3299999999999999</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.0699999999999998</v>
       </c>
     </row>
     <row r="57">
@@ -2839,7 +2839,7 @@
         <v>7.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D57" t="n">
         <v>2.0</v>
@@ -2848,31 +2848,31 @@
         <v>4.0</v>
       </c>
       <c r="F57" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H57" t="n">
         <v>4.84</v>
       </c>
       <c r="I57" t="n">
-        <v>5.7</v>
+        <v>6.47</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8600000000000003</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5377777777777778</v>
+        <v>0.44</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5881818181818181</v>
       </c>
       <c r="M57" t="n">
-        <v>810.0</v>
+        <v>1210.0</v>
       </c>
       <c r="N57" t="n">
-        <v>-2.4099999999999997</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="O57" t="n">
         <v>0.0</v>
@@ -2886,7 +2886,7 @@
         <v>8.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D58" t="n">
         <v>2.0</v>
@@ -2895,34 +2895,34 @@
         <v>4.0</v>
       </c>
       <c r="F58" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>5.08</v>
       </c>
       <c r="I58" t="n">
-        <v>4.73</v>
+        <v>4.8</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.34999999999999964</v>
+        <v>-0.28000000000000025</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5644444444444444</v>
+        <v>0.508</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.48</v>
       </c>
       <c r="M58" t="n">
-        <v>810.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N58" t="n">
         <v>0.0</v>
       </c>
       <c r="O58" t="n">
-        <v>-2.4099999999999997</v>
+        <v>-0.6499999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -2933,7 +2933,7 @@
         <v>9.0</v>
       </c>
       <c r="C59" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D59" t="n">
         <v>2.0</v>
@@ -2942,28 +2942,28 @@
         <v>4.0</v>
       </c>
       <c r="F59" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H59" t="n">
         <v>4.98</v>
       </c>
       <c r="I59" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>0.8199999999999994</v>
       </c>
       <c r="K59" t="n">
-        <v>0.49800000000000005</v>
+        <v>0.45272727272727276</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5730000000000001</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="M59" t="n">
-        <v>1010.0</v>
+        <v>1210.0</v>
       </c>
       <c r="N59" t="n">
         <v>0.0</v>
@@ -2980,37 +2980,37 @@
         <v>10.0</v>
       </c>
       <c r="C60" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D60" t="n">
         <v>3.0</v>
       </c>
       <c r="E60" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F60" t="n">
         <v>12.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>6.51</v>
       </c>
       <c r="I60" t="n">
-        <v>6.31</v>
+        <v>6.23</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.27999999999999936</v>
       </c>
       <c r="K60" t="n">
         <v>0.5425</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5258333333333333</v>
+        <v>0.5191666666666667</v>
       </c>
       <c r="M60" t="n">
-        <v>1095.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N60" t="n">
         <v>0.0</v>
@@ -3027,40 +3027,40 @@
         <v>11.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D61" t="n">
         <v>3.0</v>
       </c>
       <c r="E61" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F61" t="n">
         <v>12.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>6.0</v>
       </c>
       <c r="I61" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="J61" t="n">
-        <v>0.17999999999999972</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="K61" t="n">
         <v>0.5</v>
       </c>
       <c r="L61" t="n">
-        <v>0.515</v>
+        <v>0.5108333333333334</v>
       </c>
       <c r="M61" t="n">
-        <v>1095.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.020000000000000462</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="O61" t="n">
         <v>0.0</v>
@@ -3074,37 +3074,37 @@
         <v>12.0</v>
       </c>
       <c r="C62" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D62" t="n">
         <v>3.0</v>
       </c>
       <c r="E62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F62" t="n">
         <v>12.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>5.64</v>
       </c>
       <c r="I62" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="J62" t="n">
-        <v>0.54</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="K62" t="n">
         <v>0.47</v>
       </c>
       <c r="L62" t="n">
-        <v>0.515</v>
+        <v>0.5108333333333334</v>
       </c>
       <c r="M62" t="n">
-        <v>1095.0</v>
+        <v>1275.0</v>
       </c>
       <c r="N62" t="n">
         <v>0.0</v>
@@ -3121,37 +3121,37 @@
         <v>13.0</v>
       </c>
       <c r="C63" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D63" t="n">
         <v>3.0</v>
       </c>
       <c r="E63" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F63" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.5625</v>
       </c>
       <c r="H63" t="n">
         <v>5.92</v>
       </c>
       <c r="I63" t="n">
-        <v>7.06</v>
+        <v>10.03</v>
       </c>
       <c r="J63" t="n">
-        <v>1.1399999999999997</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4553846153846154</v>
+        <v>0.37</v>
       </c>
       <c r="L63" t="n">
-        <v>0.543076923076923</v>
+        <v>0.626875</v>
       </c>
       <c r="M63" t="n">
-        <v>1295.0</v>
+        <v>2075.0</v>
       </c>
       <c r="N63" t="n">
         <v>0.0</v>
@@ -3168,37 +3168,37 @@
         <v>14.0</v>
       </c>
       <c r="C64" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E64" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F64" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4375</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H64" t="n">
         <v>8.18</v>
       </c>
       <c r="I64" t="n">
-        <v>8.82</v>
+        <v>10.03</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6400000000000006</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>0.51125</v>
+        <v>0.4811764705882353</v>
       </c>
       <c r="L64" t="n">
-        <v>0.55125</v>
+        <v>0.59</v>
       </c>
       <c r="M64" t="n">
-        <v>1715.0</v>
+        <v>2410.0</v>
       </c>
       <c r="N64" t="n">
         <v>0.0</v>
@@ -3215,37 +3215,37 @@
         <v>15.0</v>
       </c>
       <c r="C65" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D65" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F65" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H65" t="n">
         <v>7.47</v>
       </c>
       <c r="I65" t="n">
-        <v>6.94</v>
+        <v>7.31</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.5299999999999994</v>
+        <v>-0.16000000000000014</v>
       </c>
       <c r="K65" t="n">
-        <v>0.6224999999999999</v>
+        <v>0.6790909090909091</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5783333333333334</v>
+        <v>0.6645454545454546</v>
       </c>
       <c r="M65" t="n">
-        <v>1275.0</v>
+        <v>1570.0</v>
       </c>
       <c r="N65" t="n">
         <v>0.0</v>
@@ -3262,40 +3262,40 @@
         <v>16.0</v>
       </c>
       <c r="C66" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E66" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F66" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H66" t="n">
         <v>6.24</v>
       </c>
       <c r="I66" t="n">
-        <v>6.35</v>
+        <v>6.89</v>
       </c>
       <c r="J66" t="n">
-        <v>0.10999999999999943</v>
+        <v>0.6499999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>0.52</v>
+        <v>0.5672727272727273</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5291666666666667</v>
+        <v>0.6263636363636363</v>
       </c>
       <c r="M66" t="n">
-        <v>1275.0</v>
+        <v>1570.0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.41999999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="O66" t="n">
         <v>0.0</v>
@@ -3309,43 +3309,43 @@
         <v>17.0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E67" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F67" t="n">
         <v>11.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H67" t="n">
         <v>5.66</v>
       </c>
       <c r="I67" t="n">
-        <v>5.68</v>
+        <v>7.22</v>
       </c>
       <c r="J67" t="n">
-        <v>0.019999999999999574</v>
+        <v>1.5599999999999996</v>
       </c>
       <c r="K67" t="n">
         <v>0.5145454545454545</v>
       </c>
       <c r="L67" t="n">
-        <v>0.5163636363636364</v>
+        <v>0.6563636363636364</v>
       </c>
       <c r="M67" t="n">
-        <v>1075.0</v>
+        <v>1570.0</v>
       </c>
       <c r="N67" t="n">
         <v>0.0</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -3356,37 +3356,37 @@
         <v>18.0</v>
       </c>
       <c r="C68" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E68" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F68" t="n">
         <v>11.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H68" t="n">
         <v>5.84</v>
       </c>
       <c r="I68" t="n">
-        <v>5.66</v>
+        <v>6.81</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.17999999999999972</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="K68" t="n">
         <v>0.5309090909090909</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5145454545454545</v>
+        <v>0.619090909090909</v>
       </c>
       <c r="M68" t="n">
-        <v>1075.0</v>
+        <v>1570.0</v>
       </c>
       <c r="N68" t="n">
         <v>0.0</v>
@@ -3403,37 +3403,37 @@
         <v>19.0</v>
       </c>
       <c r="C69" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D69" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="H69" t="n">
         <v>5.15</v>
       </c>
       <c r="I69" t="n">
-        <v>5.56</v>
+        <v>5.81</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4099999999999993</v>
+        <v>0.6599999999999993</v>
       </c>
       <c r="K69" t="n">
-        <v>0.515</v>
+        <v>0.7357142857142859</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="M69" t="n">
-        <v>1010.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N69" t="n">
         <v>0.0</v>
@@ -3450,37 +3450,37 @@
         <v>20.0</v>
       </c>
       <c r="C70" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D70" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E70" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.45454545454545453</v>
+        <v>1.0</v>
       </c>
       <c r="H70" t="n">
         <v>5.42</v>
       </c>
       <c r="I70" t="n">
-        <v>6.4</v>
+        <v>7.17</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9800000000000004</v>
+        <v>1.75</v>
       </c>
       <c r="K70" t="n">
-        <v>0.49272727272727274</v>
+        <v>0.6022222222222222</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5818181818181819</v>
+        <v>0.7966666666666665</v>
       </c>
       <c r="M70" t="n">
-        <v>1210.0</v>
+        <v>1800.0</v>
       </c>
       <c r="N70" t="n">
         <v>0.0</v>
@@ -3497,37 +3497,37 @@
         <v>21.0</v>
       </c>
       <c r="C71" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D71" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E71" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H71" t="n">
         <v>5.41</v>
       </c>
       <c r="I71" t="n">
-        <v>6.02</v>
+        <v>5.43</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.019999999999999574</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4918181818181818</v>
+        <v>0.7728571428571429</v>
       </c>
       <c r="L71" t="n">
-        <v>0.5472727272727272</v>
+        <v>0.7757142857142857</v>
       </c>
       <c r="M71" t="n">
-        <v>1210.0</v>
+        <v>1265.0</v>
       </c>
       <c r="N71" t="n">
         <v>0.0</v>
@@ -3562,16 +3562,16 @@
         <v>5.25</v>
       </c>
       <c r="I72" t="n">
-        <v>4.98</v>
+        <v>4.87</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.2699999999999996</v>
+        <v>-0.37999999999999984</v>
       </c>
       <c r="K72" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="L72" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.5411111111111111</v>
       </c>
       <c r="M72" t="n">
         <v>990.0</v>
@@ -3591,7 +3591,7 @@
         <v>23.0</v>
       </c>
       <c r="C73" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D73" t="n">
         <v>2.0</v>
@@ -3600,31 +3600,31 @@
         <v>3.0</v>
       </c>
       <c r="F73" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H73" t="n">
         <v>4.75</v>
       </c>
       <c r="I73" t="n">
-        <v>4.46</v>
+        <v>4.68</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.29000000000000004</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="K73" t="n">
-        <v>0.59375</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L73" t="n">
-        <v>0.5575</v>
+        <v>0.52</v>
       </c>
       <c r="M73" t="n">
-        <v>790.0</v>
+        <v>990.0</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.2699999999999996</v>
+        <v>-0.37999999999999984</v>
       </c>
       <c r="O73" t="n">
         <v>0.0</v>
@@ -3638,7 +3638,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D74" t="n">
         <v>2.0</v>
@@ -3647,34 +3647,34 @@
         <v>3.0</v>
       </c>
       <c r="F74" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H74" t="n">
         <v>4.26</v>
       </c>
       <c r="I74" t="n">
-        <v>4.23</v>
+        <v>4.52</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.02999999999999936</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5325</v>
+        <v>0.4733333333333334</v>
       </c>
       <c r="L74" t="n">
-        <v>0.52875</v>
+        <v>0.5022222222222221</v>
       </c>
       <c r="M74" t="n">
-        <v>790.0</v>
+        <v>990.0</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.29000000000000004</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.2699999999999996</v>
+        <v>-0.1200000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3703,16 +3703,16 @@
         <v>2.97</v>
       </c>
       <c r="I75" t="n">
-        <v>4.11</v>
+        <v>3.69</v>
       </c>
       <c r="J75" t="n">
-        <v>1.1400000000000001</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="K75" t="n">
         <v>0.37125</v>
       </c>
       <c r="L75" t="n">
-        <v>0.51375</v>
+        <v>0.46125</v>
       </c>
       <c r="M75" t="n">
         <v>790.0</v>
@@ -3738,31 +3738,31 @@
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H76" t="n">
         <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9900000000000003</v>
+        <v>0.5900000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.7475</v>
       </c>
       <c r="M76" t="n">
-        <v>705.0</v>
+        <v>665.0</v>
       </c>
       <c r="N76" t="n">
         <v>0.0</v>
@@ -3782,34 +3782,34 @@
         <v>3.0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="H77" t="n">
         <v>2.7</v>
       </c>
       <c r="I77" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9</v>
+        <v>0.675</v>
       </c>
       <c r="L77" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.6675</v>
       </c>
       <c r="M77" t="n">
-        <v>600.0</v>
+        <v>665.0</v>
       </c>
       <c r="N77" t="n">
         <v>0.0</v>
@@ -3826,10 +3826,10 @@
         <v>4.0</v>
       </c>
       <c r="C78" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E78" t="n">
         <v>0.0</v>
@@ -3838,28 +3838,28 @@
         <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>1.67</v>
       </c>
       <c r="I78" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="K78" t="n">
         <v>0.835</v>
       </c>
       <c r="L78" t="n">
-        <v>0.75</v>
+        <v>0.535</v>
       </c>
       <c r="M78" t="n">
-        <v>400.0</v>
+        <v>265.0</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="O78" t="n">
         <v>0.0</v>
@@ -3873,7 +3873,7 @@
         <v>5.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
         <v>0.0</v>
@@ -3882,34 +3882,34 @@
         <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
         <v>0.87</v>
       </c>
       <c r="I79" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.87</v>
       </c>
       <c r="K79" t="n">
-        <v>0.87</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M79" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.03000000000000025</v>
       </c>
     </row>
     <row r="80">
@@ -3953,10 +3953,10 @@
         <v>0.0</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.8699999999999999</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-0.5999999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3967,7 +3967,7 @@
         <v>7.0</v>
       </c>
       <c r="C81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D81" t="n">
         <v>2.0</v>
@@ -3976,34 +3976,34 @@
         <v>4.0</v>
       </c>
       <c r="F81" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>4.24</v>
       </c>
       <c r="I81" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J81" t="n">
-        <v>0.46</v>
+        <v>0.5599999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>0.53</v>
+        <v>0.47111111111111115</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5875</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M81" t="n">
-        <v>610.0</v>
+        <v>810.0</v>
       </c>
       <c r="N81" t="n">
-        <v>-2.3099999999999996</v>
+        <v>-2.57</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0</v>
+        <v>-0.3100000000000004</v>
       </c>
     </row>
     <row r="82">
@@ -4014,7 +4014,7 @@
         <v>8.0</v>
       </c>
       <c r="C82" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D82" t="n">
         <v>2.0</v>
@@ -4023,34 +4023,34 @@
         <v>4.0</v>
       </c>
       <c r="F82" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>4.44</v>
       </c>
       <c r="I82" t="n">
-        <v>4.9</v>
+        <v>4.97</v>
       </c>
       <c r="J82" t="n">
-        <v>0.46</v>
+        <v>0.5299999999999994</v>
       </c>
       <c r="K82" t="n">
-        <v>0.4933333333333334</v>
+        <v>0.44400000000000006</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.49700000000000005</v>
       </c>
       <c r="M82" t="n">
-        <v>810.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N82" t="n">
         <v>0.0</v>
       </c>
       <c r="O82" t="n">
-        <v>-1.8499999999999996</v>
+        <v>-2.0400000000000005</v>
       </c>
     </row>
     <row r="83">
@@ -4061,7 +4061,7 @@
         <v>9.0</v>
       </c>
       <c r="C83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D83" t="n">
         <v>2.0</v>
@@ -4070,28 +4070,28 @@
         <v>4.0</v>
       </c>
       <c r="F83" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>4.36</v>
       </c>
       <c r="I83" t="n">
-        <v>4.73</v>
+        <v>4.8</v>
       </c>
       <c r="J83" t="n">
-        <v>0.37000000000000016</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="K83" t="n">
-        <v>0.48444444444444446</v>
+        <v>0.4360000000000001</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.48</v>
       </c>
       <c r="M83" t="n">
-        <v>810.0</v>
+        <v>1010.0</v>
       </c>
       <c r="N83" t="n">
         <v>0.0</v>
@@ -4108,37 +4108,37 @@
         <v>10.0</v>
       </c>
       <c r="C84" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D84" t="n">
         <v>3.0</v>
       </c>
       <c r="E84" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F84" t="n">
         <v>11.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H84" t="n">
         <v>5.69</v>
       </c>
       <c r="I84" t="n">
-        <v>5.48</v>
+        <v>5.4</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.20999999999999996</v>
+        <v>-0.29000000000000004</v>
       </c>
       <c r="K84" t="n">
         <v>0.5172727272727273</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4981818181818182</v>
+        <v>0.49090909090909096</v>
       </c>
       <c r="M84" t="n">
-        <v>895.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N84" t="n">
         <v>0.0</v>
@@ -4155,40 +4155,40 @@
         <v>11.0</v>
       </c>
       <c r="C85" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D85" t="n">
         <v>4.0</v>
       </c>
       <c r="E85" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F85" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>7.0</v>
       </c>
       <c r="I85" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.5</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="M85" t="n">
-        <v>1160.0</v>
+        <v>1380.0</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.20999999999999996</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="O85" t="n">
         <v>0.0</v>
@@ -4202,37 +4202,37 @@
         <v>12.0</v>
       </c>
       <c r="C86" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D86" t="n">
         <v>4.0</v>
       </c>
       <c r="E86" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F86" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>4.93</v>
       </c>
       <c r="I86" t="n">
-        <v>6.3</v>
+        <v>6.87</v>
       </c>
       <c r="J86" t="n">
-        <v>1.37</v>
+        <v>1.9400000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3792307692307692</v>
+        <v>0.32866666666666666</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4846153846153846</v>
+        <v>0.458</v>
       </c>
       <c r="M86" t="n">
-        <v>1160.0</v>
+        <v>1380.0</v>
       </c>
       <c r="N86" t="n">
         <v>0.0</v>
@@ -4249,37 +4249,37 @@
         <v>13.0</v>
       </c>
       <c r="C87" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D87" t="n">
         <v>4.0</v>
       </c>
       <c r="E87" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F87" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H87" t="n">
         <v>5.19</v>
       </c>
       <c r="I87" t="n">
-        <v>6.18</v>
+        <v>9.77</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9899999999999993</v>
+        <v>4.579999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3992307692307693</v>
+        <v>0.28833333333333333</v>
       </c>
       <c r="L87" t="n">
-        <v>0.47538461538461535</v>
+        <v>0.5427777777777778</v>
       </c>
       <c r="M87" t="n">
-        <v>1160.0</v>
+        <v>1980.0</v>
       </c>
       <c r="N87" t="n">
         <v>0.0</v>
@@ -4296,37 +4296,37 @@
         <v>14.0</v>
       </c>
       <c r="C88" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D88" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E88" t="n">
         <v>6.0</v>
       </c>
       <c r="F88" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.375</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H88" t="n">
         <v>7.16</v>
       </c>
       <c r="I88" t="n">
-        <v>8.25</v>
+        <v>9.8</v>
       </c>
       <c r="J88" t="n">
-        <v>1.0899999999999999</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4475</v>
+        <v>0.3768421052631579</v>
       </c>
       <c r="L88" t="n">
-        <v>0.515625</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="M88" t="n">
-        <v>1580.0</v>
+        <v>2315.0</v>
       </c>
       <c r="N88" t="n">
         <v>0.0</v>
@@ -4343,37 +4343,37 @@
         <v>15.0</v>
       </c>
       <c r="C89" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D89" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F89" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="H89" t="n">
         <v>6.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6.03</v>
+        <v>6.42</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.5099999999999998</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>0.654</v>
+        <v>0.8175</v>
       </c>
       <c r="L89" t="n">
-        <v>0.603</v>
+        <v>0.8025</v>
       </c>
       <c r="M89" t="n">
-        <v>1190.0</v>
+        <v>1465.0</v>
       </c>
       <c r="N89" t="n">
         <v>0.0</v>
@@ -4390,40 +4390,40 @@
         <v>16.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D90" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F90" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H90" t="n">
         <v>5.46</v>
       </c>
       <c r="I90" t="n">
-        <v>5.06</v>
+        <v>5.48</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.020000000000000462</v>
       </c>
       <c r="K90" t="n">
-        <v>0.6066666666666667</v>
+        <v>0.78</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.7828571428571429</v>
       </c>
       <c r="M90" t="n">
-        <v>990.0</v>
+        <v>1265.0</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.5099999999999998</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="O90" t="n">
         <v>0.0</v>
@@ -4437,43 +4437,43 @@
         <v>17.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F91" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H91" t="n">
         <v>4.96</v>
       </c>
       <c r="I91" t="n">
-        <v>5.06</v>
+        <v>5.48</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.5200000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5511111111111111</v>
+        <v>0.7085714285714285</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.7828571428571429</v>
       </c>
       <c r="M91" t="n">
-        <v>990.0</v>
+        <v>1265.0</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.41000000000000014</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -4484,43 +4484,43 @@
         <v>18.0</v>
       </c>
       <c r="C92" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E92" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F92" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H92" t="n">
         <v>5.1</v>
       </c>
       <c r="I92" t="n">
-        <v>4.9</v>
+        <v>5.38</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7285714285714284</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.7685714285714286</v>
       </c>
       <c r="M92" t="n">
-        <v>990.0</v>
+        <v>1265.0</v>
       </c>
       <c r="N92" t="n">
         <v>0.0</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -4531,40 +4531,40 @@
         <v>19.0</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D93" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.375</v>
+        <v>1.0</v>
       </c>
       <c r="H93" t="n">
         <v>4.51</v>
       </c>
       <c r="I93" t="n">
-        <v>4.23</v>
+        <v>4.98</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.27999999999999936</v>
+        <v>0.47000000000000064</v>
       </c>
       <c r="K93" t="n">
-        <v>0.56375</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="L93" t="n">
-        <v>0.52875</v>
+        <v>0.83</v>
       </c>
       <c r="M93" t="n">
-        <v>790.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="O93" t="n">
         <v>0.0</v>
@@ -4578,37 +4578,37 @@
         <v>20.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4444444444444444</v>
+        <v>1.0</v>
       </c>
       <c r="H94" t="n">
         <v>4.74</v>
       </c>
       <c r="I94" t="n">
-        <v>5.23</v>
+        <v>6.5</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4900000000000002</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5266666666666667</v>
+        <v>0.5925</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5811111111111111</v>
+        <v>0.8125</v>
       </c>
       <c r="M94" t="n">
-        <v>990.0</v>
+        <v>1600.0</v>
       </c>
       <c r="N94" t="n">
         <v>0.0</v>
@@ -4625,37 +4625,37 @@
         <v>21.0</v>
       </c>
       <c r="C95" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D95" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F95" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H95" t="n">
         <v>4.73</v>
       </c>
       <c r="I95" t="n">
-        <v>5.52</v>
+        <v>4.83</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7899999999999991</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="K95" t="n">
-        <v>0.47300000000000003</v>
+        <v>0.7883333333333334</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5519999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="M95" t="n">
-        <v>1190.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N95" t="n">
         <v>0.0</v>
@@ -4690,16 +4690,16 @@
         <v>4.59</v>
       </c>
       <c r="I96" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K96" t="n">
         <v>0.57375</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5725</v>
+        <v>0.5825</v>
       </c>
       <c r="M96" t="n">
         <v>970.0</v>
@@ -4722,37 +4722,37 @@
         <v>3.0</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E97" t="n">
         <v>2.0</v>
       </c>
       <c r="F97" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="H97" t="n">
         <v>4.15</v>
       </c>
       <c r="I97" t="n">
-        <v>3.86</v>
+        <v>4.33</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.2900000000000005</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="K97" t="n">
-        <v>0.5928571428571429</v>
+        <v>0.51875</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5514285714285714</v>
+        <v>0.54125</v>
       </c>
       <c r="M97" t="n">
-        <v>770.0</v>
+        <v>835.0</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.0</v>
       </c>
       <c r="O97" t="n">
         <v>0.0</v>
@@ -4769,40 +4769,40 @@
         <v>3.0</v>
       </c>
       <c r="D98" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E98" t="n">
         <v>2.0</v>
       </c>
       <c r="F98" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="H98" t="n">
         <v>4.05</v>
       </c>
       <c r="I98" t="n">
-        <v>3.73</v>
+        <v>4.23</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.31999999999999984</v>
+        <v>0.1800000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5785714285714285</v>
+        <v>0.50625</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5328571428571428</v>
+        <v>0.52875</v>
       </c>
       <c r="M98" t="n">
-        <v>770.0</v>
+        <v>835.0</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.2900000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -4816,34 +4816,34 @@
         <v>3.0</v>
       </c>
       <c r="D99" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E99" t="n">
         <v>2.0</v>
       </c>
       <c r="F99" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="H99" t="n">
         <v>2.93</v>
       </c>
       <c r="I99" t="n">
-        <v>3.61</v>
+        <v>3.99</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6799999999999997</v>
+        <v>1.06</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4185714285714286</v>
+        <v>0.36625</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5157142857142857</v>
+        <v>0.49875</v>
       </c>
       <c r="M99" t="n">
-        <v>770.0</v>
+        <v>835.0</v>
       </c>
       <c r="N99" t="n">
         <v>0.0</v>
@@ -4866,31 +4866,31 @@
         <v>1.0</v>
       </c>
       <c r="E100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F100" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H100" t="n">
         <v>2.37</v>
       </c>
       <c r="I100" t="n">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="K100" t="n">
-        <v>0.47400000000000003</v>
+        <v>0.5925</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5980000000000001</v>
+        <v>0.7225</v>
       </c>
       <c r="M100" t="n">
-        <v>685.0</v>
+        <v>665.0</v>
       </c>
       <c r="N100" t="n">
         <v>0.0</v>
@@ -4925,16 +4925,16 @@
         <v>2.37</v>
       </c>
       <c r="I101" t="n">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="K101" t="n">
         <v>0.79</v>
       </c>
       <c r="L101" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.7233333333333333</v>
       </c>
       <c r="M101" t="n">
         <v>600.0</v>
@@ -4954,7 +4954,7 @@
         <v>4.0</v>
       </c>
       <c r="C102" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D102" t="n">
         <v>0.0</v>
@@ -4963,7 +4963,7 @@
         <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G102" t="n">
         <v>1.0</v>
@@ -4972,22 +4972,22 @@
         <v>1.64</v>
       </c>
       <c r="I102" t="n">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-0.9699999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>0.82</v>
+        <v>1.64</v>
       </c>
       <c r="L102" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="M102" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O102" t="n">
         <v>0.0</v>
@@ -5001,7 +5001,7 @@
         <v>5.0</v>
       </c>
       <c r="C103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D103" t="n">
         <v>0.0</v>
@@ -5010,34 +5010,34 @@
         <v>0.0</v>
       </c>
       <c r="F103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H103" t="n">
         <v>0.86</v>
       </c>
       <c r="I103" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.18999999999999992</v>
+        <v>-0.86</v>
       </c>
       <c r="K103" t="n">
-        <v>0.86</v>
+        <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M103" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-0.9699999999999998</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="104">
@@ -5081,10 +5081,10 @@
         <v>0.0</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.18999999999999992</v>
+        <v>-0.8599999999999998</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-0.9699999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -5095,7 +5095,7 @@
         <v>7.0</v>
       </c>
       <c r="C105" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D105" t="n">
         <v>2.0</v>
@@ -5104,34 +5104,34 @@
         <v>4.0</v>
       </c>
       <c r="F105" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>4.18</v>
       </c>
       <c r="I105" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5200000000000005</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5225</v>
+        <v>0.46444444444444444</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5875</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M105" t="n">
-        <v>610.0</v>
+        <v>810.0</v>
       </c>
       <c r="N105" t="n">
-        <v>-2.2099999999999995</v>
+        <v>-2.54</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0</v>
+        <v>-0.23999999999999988</v>
       </c>
     </row>
     <row r="106">
@@ -5145,40 +5145,40 @@
         <v>3.0</v>
       </c>
       <c r="D106" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E106" t="n">
         <v>4.0</v>
       </c>
       <c r="F106" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="H106" t="n">
         <v>4.39</v>
       </c>
       <c r="I106" t="n">
-        <v>4.9</v>
+        <v>4.57</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5100000000000007</v>
+        <v>0.1800000000000006</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4877777777777778</v>
+        <v>0.4389999999999999</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.457</v>
       </c>
       <c r="M106" t="n">
-        <v>810.0</v>
+        <v>875.0</v>
       </c>
       <c r="N106" t="n">
         <v>0.0</v>
       </c>
       <c r="O106" t="n">
-        <v>-1.6999999999999988</v>
+        <v>-2.3599999999999994</v>
       </c>
     </row>
     <row r="107">
@@ -5189,37 +5189,37 @@
         <v>9.0</v>
       </c>
       <c r="C107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D107" t="n">
         <v>3.0</v>
       </c>
-      <c r="D107" t="n">
-        <v>2.0</v>
-      </c>
       <c r="E107" t="n">
         <v>4.0</v>
       </c>
       <c r="F107" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H107" t="n">
         <v>4.31</v>
       </c>
       <c r="I107" t="n">
-        <v>4.73</v>
+        <v>5.47</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4200000000000009</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>0.47888888888888886</v>
+        <v>0.3918181818181818</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.49727272727272726</v>
       </c>
       <c r="M107" t="n">
-        <v>810.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N107" t="n">
         <v>0.0</v>
@@ -5236,37 +5236,37 @@
         <v>10.0</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D108" t="n">
         <v>3.0</v>
       </c>
       <c r="E108" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F108" t="n">
         <v>11.0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H108" t="n">
         <v>5.62</v>
       </c>
       <c r="I108" t="n">
-        <v>5.48</v>
+        <v>5.3</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.13999999999999968</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="K108" t="n">
         <v>0.5109090909090909</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4981818181818182</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="M108" t="n">
-        <v>895.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N108" t="n">
         <v>0.0</v>
@@ -5283,19 +5283,19 @@
         <v>11.0</v>
       </c>
       <c r="C109" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D109" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E109" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F109" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="H109" t="n">
         <v>8.0</v>
@@ -5307,16 +5307,16 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5133333333333333</v>
+        <v>0.48125</v>
       </c>
       <c r="M109" t="n">
-        <v>1200.0</v>
+        <v>1445.0</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.13999999999999968</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="O109" t="n">
         <v>0.0</v>
@@ -5330,37 +5330,37 @@
         <v>12.0</v>
       </c>
       <c r="C110" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D110" t="n">
         <v>4.0</v>
       </c>
       <c r="E110" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F110" t="n">
         <v>15.0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>5.0</v>
       </c>
       <c r="I110" t="n">
-        <v>7.3</v>
+        <v>6.87</v>
       </c>
       <c r="J110" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="K110" t="n">
         <v>0.33333333333333326</v>
       </c>
       <c r="L110" t="n">
-        <v>0.48666666666666664</v>
+        <v>0.458</v>
       </c>
       <c r="M110" t="n">
-        <v>1200.0</v>
+        <v>1380.0</v>
       </c>
       <c r="N110" t="n">
         <v>0.0</v>
@@ -5377,37 +5377,37 @@
         <v>13.0</v>
       </c>
       <c r="C111" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D111" t="n">
         <v>4.0</v>
       </c>
       <c r="E111" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F111" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H111" t="n">
         <v>5.12</v>
       </c>
       <c r="I111" t="n">
-        <v>7.18</v>
+        <v>9.87</v>
       </c>
       <c r="J111" t="n">
-        <v>2.0599999999999996</v>
+        <v>4.749999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3413333333333333</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4786666666666666</v>
+        <v>0.5483333333333333</v>
       </c>
       <c r="M111" t="n">
-        <v>1200.0</v>
+        <v>1980.0</v>
       </c>
       <c r="N111" t="n">
         <v>0.0</v>
@@ -5424,37 +5424,37 @@
         <v>14.0</v>
       </c>
       <c r="C112" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D112" t="n">
         <v>4.0</v>
       </c>
       <c r="E112" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F112" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.29411764705882354</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>7.07</v>
       </c>
       <c r="I112" t="n">
-        <v>8.05</v>
+        <v>10.2</v>
       </c>
       <c r="J112" t="n">
-        <v>0.9800000000000004</v>
+        <v>3.129999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>0.4158823529411764</v>
+        <v>0.35350000000000004</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4735294117647059</v>
+        <v>0.51</v>
       </c>
       <c r="M112" t="n">
-        <v>1420.0</v>
+        <v>2380.0</v>
       </c>
       <c r="N112" t="n">
         <v>0.0</v>
@@ -5471,37 +5471,37 @@
         <v>15.0</v>
       </c>
       <c r="C113" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D113" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E113" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F113" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.36363636363636365</v>
+        <v>1.0</v>
       </c>
       <c r="H113" t="n">
         <v>6.47</v>
       </c>
       <c r="I113" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.5199999999999996</v>
+        <v>-0.48999999999999927</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5881818181818181</v>
+        <v>0.9242857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5409090909090909</v>
+        <v>0.8542857142857143</v>
       </c>
       <c r="M113" t="n">
-        <v>1075.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N113" t="n">
         <v>0.0</v>
@@ -5518,40 +5518,40 @@
         <v>16.0</v>
       </c>
       <c r="C114" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D114" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E114" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F114" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.36363636363636365</v>
+        <v>1.0</v>
       </c>
       <c r="H114" t="n">
         <v>5.4</v>
       </c>
       <c r="I114" t="n">
-        <v>5.85</v>
+        <v>5.65</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="K114" t="n">
-        <v>0.49090909090909096</v>
+        <v>0.7714285714285716</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5318181818181817</v>
+        <v>0.8071428571428573</v>
       </c>
       <c r="M114" t="n">
-        <v>1075.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N114" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.23999999999999932</v>
       </c>
       <c r="O114" t="n">
         <v>0.0</v>
@@ -5565,43 +5565,43 @@
         <v>17.0</v>
       </c>
       <c r="C115" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D115" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E115" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F115" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.36363636363636365</v>
+        <v>1.0</v>
       </c>
       <c r="H115" t="n">
         <v>4.89</v>
       </c>
       <c r="I115" t="n">
-        <v>5.68</v>
+        <v>4.98</v>
       </c>
       <c r="J115" t="n">
-        <v>0.79</v>
+        <v>0.09000000000000075</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4445454545454545</v>
+        <v>0.815</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5163636363636364</v>
+        <v>0.83</v>
       </c>
       <c r="M115" t="n">
-        <v>1075.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N115" t="n">
         <v>0.0</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0</v>
+        <v>-0.14999999999999858</v>
       </c>
     </row>
     <row r="116">
@@ -5612,37 +5612,37 @@
         <v>18.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D116" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4166666666666667</v>
+        <v>1.0</v>
       </c>
       <c r="H116" t="n">
         <v>5.04</v>
       </c>
       <c r="I116" t="n">
-        <v>6.5</v>
+        <v>4.98</v>
       </c>
       <c r="J116" t="n">
-        <v>1.46</v>
+        <v>-0.05999999999999961</v>
       </c>
       <c r="K116" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="M116" t="n">
-        <v>1275.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N116" t="n">
         <v>0.0</v>
@@ -5659,37 +5659,37 @@
         <v>19.0</v>
       </c>
       <c r="C117" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F117" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="H117" t="n">
         <v>4.45</v>
       </c>
       <c r="I117" t="n">
-        <v>5.4</v>
+        <v>4.98</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>0.445</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L117" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="M117" t="n">
-        <v>1010.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N117" t="n">
         <v>0.0</v>
@@ -5706,37 +5706,37 @@
         <v>20.0</v>
       </c>
       <c r="C118" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E118" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F118" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="H118" t="n">
         <v>4.68</v>
       </c>
       <c r="I118" t="n">
-        <v>4.73</v>
+        <v>5.5</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05000000000000071</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>0.52</v>
+        <v>0.6685714285714285</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M118" t="n">
-        <v>810.0</v>
+        <v>1400.0</v>
       </c>
       <c r="N118" t="n">
         <v>0.0</v>
@@ -5753,37 +5753,37 @@
         <v>21.0</v>
       </c>
       <c r="C119" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D119" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E119" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>4.67</v>
       </c>
       <c r="I119" t="n">
-        <v>5.35</v>
+        <v>4.6</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6799999999999997</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="K119" t="n">
-        <v>0.46699999999999997</v>
+        <v>0.7783333333333333</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5349999999999999</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="M119" t="n">
-        <v>1010.0</v>
+        <v>1065.0</v>
       </c>
       <c r="N119" t="n">
         <v>0.0</v>
@@ -5800,37 +5800,37 @@
         <v>22.0</v>
       </c>
       <c r="C120" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D120" t="n">
         <v>2.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F120" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>4.53</v>
       </c>
       <c r="I120" t="n">
-        <v>4.58</v>
+        <v>4.73</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5033333333333334</v>
+        <v>0.56625</v>
       </c>
       <c r="L120" t="n">
-        <v>0.508888888888889</v>
+        <v>0.59125</v>
       </c>
       <c r="M120" t="n">
-        <v>810.0</v>
+        <v>970.0</v>
       </c>
       <c r="N120" t="n">
         <v>0.0</v>
@@ -5850,34 +5850,34 @@
         <v>3.0</v>
       </c>
       <c r="D121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E121" t="n">
         <v>2.0</v>
       </c>
       <c r="F121" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H121" t="n">
         <v>4.09</v>
       </c>
       <c r="I121" t="n">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.31000000000000005</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6816666666666665</v>
+        <v>0.5842857142857143</v>
       </c>
       <c r="L121" t="n">
-        <v>0.63</v>
+        <v>0.5328571428571428</v>
       </c>
       <c r="M121" t="n">
-        <v>705.0</v>
+        <v>770.0</v>
       </c>
       <c r="N121" t="n">
         <v>0.0</v>
@@ -5897,34 +5897,34 @@
         <v>3.0</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E122" t="n">
         <v>2.0</v>
       </c>
       <c r="F122" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H122" t="n">
         <v>2.9</v>
       </c>
       <c r="I122" t="n">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="J122" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="K122" t="n">
-        <v>0.48333333333333334</v>
+        <v>0.41428571428571426</v>
       </c>
       <c r="L122" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.5185714285714286</v>
       </c>
       <c r="M122" t="n">
-        <v>705.0</v>
+        <v>770.0</v>
       </c>
       <c r="N122" t="n">
         <v>0.0</v>
@@ -5959,16 +5959,16 @@
         <v>1.74</v>
       </c>
       <c r="I123" t="n">
-        <v>3.35</v>
+        <v>2.93</v>
       </c>
       <c r="J123" t="n">
-        <v>1.61</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="K123" t="n">
         <v>0.29</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.48833333333333334</v>
       </c>
       <c r="M123" t="n">
         <v>705.0</v>
@@ -5991,34 +5991,34 @@
         <v>2.0</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E124" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F124" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="J124" t="n">
-        <v>0.7100000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3525</v>
+        <v>0.705</v>
       </c>
       <c r="L124" t="n">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="M124" t="n">
-        <v>485.0</v>
+        <v>400.0</v>
       </c>
       <c r="N124" t="n">
         <v>0.0</v>
@@ -6035,37 +6035,37 @@
         <v>3.0</v>
       </c>
       <c r="C125" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F125" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="H125" t="n">
         <v>1.41</v>
       </c>
       <c r="I125" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.07999999999999985</v>
+        <v>0.09000000000000007</v>
       </c>
       <c r="K125" t="n">
-        <v>0.47</v>
+        <v>0.705</v>
       </c>
       <c r="L125" t="n">
-        <v>0.44333333333333336</v>
+        <v>0.75</v>
       </c>
       <c r="M125" t="n">
-        <v>285.0</v>
+        <v>400.0</v>
       </c>
       <c r="N125" t="n">
         <v>0.0</v>
@@ -6115,7 +6115,7 @@
         <v>200.0</v>
       </c>
       <c r="N126" t="n">
-        <v>-0.07999999999999985</v>
+        <v>0.0</v>
       </c>
       <c r="O126" t="n">
         <v>0.0</v>
@@ -6165,7 +6165,7 @@
         <v>-0.30999999999999994</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.07999999999999985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -6223,7 +6223,7 @@
         <v>7.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D129" t="n">
         <v>1.0</v>
@@ -6232,34 +6232,34 @@
         <v>2.0</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>2.47</v>
       </c>
       <c r="I129" t="n">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>0.6175</v>
+        <v>0.49400000000000005</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5875</v>
+        <v>0.58</v>
       </c>
       <c r="M129" t="n">
-        <v>305.0</v>
+        <v>505.0</v>
       </c>
       <c r="N129" t="n">
-        <v>-1.4999999999999998</v>
+        <v>-1.5</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.51</v>
+        <v>-0.08000000000000028</v>
       </c>
     </row>
     <row r="130">
@@ -6288,25 +6288,25 @@
         <v>2.59</v>
       </c>
       <c r="I130" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="J130" t="n">
-        <v>0.36000000000000026</v>
+        <v>-0.18999999999999992</v>
       </c>
       <c r="K130" t="n">
         <v>0.518</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="M130" t="n">
         <v>505.0</v>
       </c>
       <c r="N130" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O130" t="n">
-        <v>-1.1399999999999997</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="131">
@@ -6335,22 +6335,22 @@
         <v>2.54</v>
       </c>
       <c r="I131" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2399999999999998</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="K131" t="n">
         <v>0.508</v>
       </c>
       <c r="L131" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="M131" t="n">
         <v>505.0</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0</v>
+        <v>-0.18999999999999992</v>
       </c>
       <c r="O131" t="n">
         <v>0.0</v>
@@ -6364,43 +6364,43 @@
         <v>10.0</v>
       </c>
       <c r="C132" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D132" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E132" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F132" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>3.32</v>
       </c>
       <c r="I132" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="J132" t="n">
-        <v>0.20999999999999996</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="K132" t="n">
-        <v>0.47428571428571425</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5042857142857142</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="M132" t="n">
-        <v>590.0</v>
+        <v>705.0</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0</v>
+        <v>-0.10999999999999988</v>
       </c>
     </row>
     <row r="133">
@@ -6417,37 +6417,37 @@
         <v>2.0</v>
       </c>
       <c r="E133" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F133" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H133" t="n">
         <v>3.78</v>
       </c>
       <c r="I133" t="n">
-        <v>4.4</v>
+        <v>3.83</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6200000000000006</v>
+        <v>0.050000000000000266</v>
       </c>
       <c r="K133" t="n">
-        <v>0.4725</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="L133" t="n">
-        <v>0.55</v>
+        <v>0.5471428571428572</v>
       </c>
       <c r="M133" t="n">
-        <v>790.0</v>
+        <v>770.0</v>
       </c>
       <c r="N133" t="n">
         <v>0.0</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0</v>
+        <v>-0.08999999999999986</v>
       </c>
     </row>
     <row r="134">
@@ -6464,31 +6464,31 @@
         <v>2.0</v>
       </c>
       <c r="E134" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F134" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H134" t="n">
         <v>2.88</v>
       </c>
       <c r="I134" t="n">
-        <v>4.23</v>
+        <v>3.73</v>
       </c>
       <c r="J134" t="n">
-        <v>1.3500000000000005</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>0.36</v>
+        <v>0.41142857142857137</v>
       </c>
       <c r="L134" t="n">
-        <v>0.52875</v>
+        <v>0.5328571428571428</v>
       </c>
       <c r="M134" t="n">
-        <v>790.0</v>
+        <v>770.0</v>
       </c>
       <c r="N134" t="n">
         <v>0.0</v>
@@ -6511,31 +6511,31 @@
         <v>2.0</v>
       </c>
       <c r="E135" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F135" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>3.03</v>
       </c>
       <c r="I135" t="n">
-        <v>5.11</v>
+        <v>4.73</v>
       </c>
       <c r="J135" t="n">
-        <v>2.0800000000000005</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="K135" t="n">
-        <v>0.33666666666666667</v>
+        <v>0.37875</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5677777777777778</v>
+        <v>0.59125</v>
       </c>
       <c r="M135" t="n">
-        <v>990.0</v>
+        <v>970.0</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -6555,34 +6555,34 @@
         <v>5.0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E136" t="n">
         <v>2.0</v>
       </c>
       <c r="F136" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H136" t="n">
         <v>4.18</v>
       </c>
       <c r="I136" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="J136" t="n">
-        <v>0.7200000000000005</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5225</v>
+        <v>0.46444444444444444</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6125</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M136" t="n">
-        <v>1105.0</v>
+        <v>1170.0</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -6602,34 +6602,34 @@
         <v>4.0</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137" t="n">
         <v>0.0</v>
       </c>
       <c r="F137" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="H137" t="n">
         <v>3.81</v>
       </c>
       <c r="I137" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.33000000000000007</v>
+        <v>-0.31999999999999984</v>
       </c>
       <c r="K137" t="n">
-        <v>0.762</v>
+        <v>0.9525</v>
       </c>
       <c r="L137" t="n">
-        <v>0.696</v>
+        <v>0.8725</v>
       </c>
       <c r="M137" t="n">
-        <v>865.0</v>
+        <v>800.0</v>
       </c>
       <c r="N137" t="n">
         <v>0.0</v>
@@ -6646,40 +6646,40 @@
         <v>16.0</v>
       </c>
       <c r="C138" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E138" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F138" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H138" t="n">
         <v>3.19</v>
       </c>
       <c r="I138" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="J138" t="n">
-        <v>0.16999999999999993</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>0.5316666666666666</v>
+        <v>0.7975</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="M138" t="n">
-        <v>750.0</v>
+        <v>800.0</v>
       </c>
       <c r="N138" t="n">
-        <v>-0.16000000000000014</v>
+        <v>-0.18999999999999992</v>
       </c>
       <c r="O138" t="n">
         <v>0.0</v>
@@ -6693,37 +6693,37 @@
         <v>17.0</v>
       </c>
       <c r="C139" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F139" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H139" t="n">
         <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="K139" t="n">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5383333333333333</v>
+        <v>0.79</v>
       </c>
       <c r="M139" t="n">
-        <v>750.0</v>
+        <v>800.0</v>
       </c>
       <c r="N139" t="n">
         <v>0.0</v>
@@ -6743,34 +6743,34 @@
         <v>3.0</v>
       </c>
       <c r="D140" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F140" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H140" t="n">
         <v>2.98</v>
       </c>
       <c r="I140" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="J140" t="n">
-        <v>0.23</v>
+        <v>0.10999999999999988</v>
       </c>
       <c r="K140" t="n">
-        <v>0.49666666666666665</v>
+        <v>0.745</v>
       </c>
       <c r="L140" t="n">
-        <v>0.535</v>
+        <v>0.7725</v>
       </c>
       <c r="M140" t="n">
-        <v>750.0</v>
+        <v>665.0</v>
       </c>
       <c r="N140" t="n">
         <v>0.0</v>
@@ -6793,13 +6793,13 @@
         <v>1.0</v>
       </c>
       <c r="E141" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F141" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H141" t="n">
         <v>2.63</v>
@@ -6811,13 +6811,13 @@
         <v>0.36000000000000026</v>
       </c>
       <c r="K141" t="n">
-        <v>0.526</v>
+        <v>0.6575</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5980000000000001</v>
+        <v>0.7475</v>
       </c>
       <c r="M141" t="n">
-        <v>685.0</v>
+        <v>665.0</v>
       </c>
       <c r="N141" t="n">
         <v>0.0</v>
@@ -6834,10 +6834,10 @@
         <v>20.0</v>
       </c>
       <c r="C142" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E142" t="n">
         <v>0.0</v>
@@ -6846,25 +6846,25 @@
         <v>4.0</v>
       </c>
       <c r="G142" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="H142" t="n">
         <v>2.77</v>
       </c>
       <c r="I142" t="n">
-        <v>3.33</v>
+        <v>2.83</v>
       </c>
       <c r="J142" t="n">
-        <v>0.56</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="K142" t="n">
         <v>0.6925</v>
       </c>
       <c r="L142" t="n">
-        <v>0.8325</v>
+        <v>0.7075</v>
       </c>
       <c r="M142" t="n">
-        <v>800.0</v>
+        <v>665.0</v>
       </c>
       <c r="N142" t="n">
         <v>0.0</v>
@@ -6881,10 +6881,10 @@
         <v>21.0</v>
       </c>
       <c r="C143" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E143" t="n">
         <v>0.0</v>
@@ -6893,25 +6893,25 @@
         <v>4.0</v>
       </c>
       <c r="G143" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="H143" t="n">
         <v>2.76</v>
       </c>
       <c r="I143" t="n">
-        <v>3.33</v>
+        <v>2.9</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.14000000000000012</v>
       </c>
       <c r="K143" t="n">
         <v>0.69</v>
       </c>
       <c r="L143" t="n">
-        <v>0.8325</v>
+        <v>0.725</v>
       </c>
       <c r="M143" t="n">
-        <v>800.0</v>
+        <v>665.0</v>
       </c>
       <c r="N143" t="n">
         <v>0.0</v>
@@ -6928,7 +6928,7 @@
         <v>22.0</v>
       </c>
       <c r="C144" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D144" t="n">
         <v>0.0</v>
@@ -6937,7 +6937,7 @@
         <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G144" t="n">
         <v>1.0</v>
@@ -6946,19 +6946,19 @@
         <v>2.68</v>
       </c>
       <c r="I144" t="n">
-        <v>3.33</v>
+        <v>2.5</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6499999999999999</v>
+        <v>-0.18000000000000013</v>
       </c>
       <c r="K144" t="n">
-        <v>0.67</v>
+        <v>0.8933333333333334</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8325</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="M144" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="N144" t="n">
         <v>0.0</v>
@@ -6993,16 +6993,16 @@
         <v>2.42</v>
       </c>
       <c r="I145" t="n">
-        <v>2.33</v>
+        <v>2.66</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K145" t="n">
         <v>0.8066666666666665</v>
       </c>
       <c r="L145" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.8866666666666667</v>
       </c>
       <c r="M145" t="n">
         <v>600.0</v>
@@ -7022,7 +7022,7 @@
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
@@ -7031,7 +7031,7 @@
         <v>0.0</v>
       </c>
       <c r="F146" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G146" t="n">
         <v>1.0</v>
@@ -7040,19 +7040,19 @@
         <v>1.08</v>
       </c>
       <c r="I146" t="n">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="J146" t="n">
-        <v>0.41999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="K146" t="n">
-        <v>0.54</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="L146" t="n">
-        <v>0.75</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="M146" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="N146" t="n">
         <v>0.0</v>
@@ -7069,7 +7069,7 @@
         <v>1.0</v>
       </c>
       <c r="C147" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D147" t="n">
         <v>0.0</v>
@@ -7078,7 +7078,7 @@
         <v>0.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" t="n">
         <v>1.0</v>
@@ -7087,19 +7087,19 @@
         <v>0.35</v>
       </c>
       <c r="I147" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="J147" t="n">
-        <v>0.32000000000000006</v>
+        <v>1.15</v>
       </c>
       <c r="K147" t="n">
-        <v>0.35</v>
+        <v>0.175</v>
       </c>
       <c r="L147" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="M147" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="N147" t="n">
         <v>0.0</v>
@@ -7116,7 +7116,7 @@
         <v>2.0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D148" t="n">
         <v>0.0</v>
@@ -7125,28 +7125,28 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H148" t="n">
         <v>0.28</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.28</v>
+        <v>0.39</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="N148" t="n">
         <v>0.0</v>
@@ -7196,7 +7196,7 @@
         <v>0.0</v>
       </c>
       <c r="N149" t="n">
-        <v>-0.28</v>
+        <v>0.0</v>
       </c>
       <c r="O149" t="n">
         <v>0.0</v>
@@ -7246,7 +7246,7 @@
         <v>-0.28</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.28</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -8160,7 +8160,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="n">
-        <v>626.1200000000005</v>
+        <v>658.7800000000003</v>
       </c>
     </row>
     <row r="174">
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="n">
-        <v>22.12000000000001</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="175">
@@ -8176,7 +8176,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="n">
-        <v>16.34</v>
+        <v>13.919999999999996</v>
       </c>
     </row>
     <row r="176">
@@ -8184,7 +8184,7 @@
         <v>27</v>
       </c>
       <c r="B176" t="n">
-        <v>120450.0</v>
+        <v>145980.0</v>
       </c>
     </row>
   </sheetData>
@@ -8255,13 +8255,13 @@
         <v>8.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -8278,13 +8278,13 @@
         <v>8.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -8295,19 +8295,19 @@
         <v>8.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -8318,19 +8318,19 @@
         <v>9.0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -8338,16 +8338,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="D6" t="n">
         <v>8.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -8361,10 +8361,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D7" t="n">
         <v>8.0</v>
@@ -8384,10 +8384,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
         <v>8.0</v>
@@ -8407,22 +8407,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
         <v>8.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -8430,19 +8430,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -8453,10 +8453,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
         <v>8.0</v>
@@ -8473,13 +8473,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n">
         <v>4.0</v>
@@ -8499,10 +8499,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="D13" t="n">
         <v>4.0</v>
@@ -8511,10 +8511,10 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -8522,22 +8522,22 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D14" t="n">
         <v>8.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -8545,22 +8545,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -8568,22 +8568,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D16" t="n">
         <v>8.0</v>
       </c>
-      <c r="C16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.0</v>
-      </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -8591,10 +8591,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="D17" t="n">
         <v>8.0</v>
@@ -8614,22 +8614,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="D18" t="n">
         <v>8.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -8649,10 +8649,10 @@
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -8672,10 +8672,10 @@
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -8683,10 +8683,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C21" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="n">
         <v>8.0</v>
@@ -8738,10 +8738,10 @@
         <v>8.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -8755,16 +8755,16 @@
         <v>21.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -8778,16 +8778,16 @@
         <v>22.0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -8795,25 +8795,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -8821,22 +8821,22 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -8844,22 +8844,22 @@
         <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C28" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="D28" t="n">
         <v>8.0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -8867,19 +8867,19 @@
         <v>17</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -8890,22 +8890,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -8913,16 +8913,16 @@
         <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C31" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="D31" t="n">
         <v>8.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8936,19 +8936,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="n">
         <v>2.0</v>
@@ -8959,19 +8959,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C33" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
@@ -8982,22 +8982,22 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C34" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="D34" t="n">
         <v>8.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -9005,10 +9005,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D35" t="n">
         <v>8.0</v>
@@ -9017,7 +9017,7 @@
         <v>1.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -9028,56 +9028,56 @@
         <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="D38" t="n">
         <v>8.0</v>
@@ -9094,13 +9094,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="D39" t="n">
         <v>4.0</v>
@@ -9112,7 +9112,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -9120,22 +9120,22 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C40" t="n">
         <v>15.0</v>
       </c>
       <c r="D40" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -9143,16 +9143,16 @@
         <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="D41" t="n">
         <v>8.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -9166,22 +9166,22 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="D42" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -9189,10 +9189,10 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="D43" t="n">
         <v>4.0</v>
@@ -9212,10 +9212,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C44" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="D44" t="n">
         <v>8.0</v>
@@ -9235,10 +9235,10 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C45" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="D45" t="n">
         <v>8.0</v>
@@ -9247,10 +9247,10 @@
         <v>2.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -9258,10 +9258,10 @@
         <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C46" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="D46" t="n">
         <v>8.0</v>
@@ -9270,10 +9270,10 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -9281,22 +9281,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C47" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D47" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -9304,19 +9304,19 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C48" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -9324,45 +9324,45 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="C50" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D50" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -9370,25 +9370,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -9396,22 +9396,22 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C52" t="n">
         <v>15.0</v>
       </c>
       <c r="D52" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
       </c>
       <c r="G52" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -9419,16 +9419,16 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C53" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="D53" t="n">
         <v>8.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -9442,22 +9442,22 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C54" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="D54" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -9465,22 +9465,22 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C55" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="D55" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -9488,10 +9488,10 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="C56" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="D56" t="n">
         <v>8.0</v>
@@ -9511,22 +9511,22 @@
         <v>19</v>
       </c>
       <c r="B57" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C57" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="D57" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
         <v>1.0</v>
       </c>
       <c r="G57" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -9534,19 +9534,19 @@
         <v>19</v>
       </c>
       <c r="B58" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="D58" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -9557,13 +9557,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C59" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="D59" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -9577,36 +9577,36 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C60" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D60" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C61" t="n">
         <v>18.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.0</v>
       </c>
       <c r="D61" t="n">
         <v>8.0</v>
@@ -9623,22 +9623,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="C62" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="D62" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -9646,62 +9646,62 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="C63" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C64" t="n">
         <v>22.0</v>
       </c>
-      <c r="C64" t="n">
-        <v>4.0</v>
-      </c>
       <c r="D64" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C65" t="n">
         <v>23.0</v>
       </c>
-      <c r="C65" t="n">
-        <v>3.0</v>
-      </c>
       <c r="D65" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -9718,22 +9718,22 @@
         <v>20</v>
       </c>
       <c r="B66" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="C66" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D66" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="n">
         <v>1.0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -9741,13 +9741,13 @@
         <v>20</v>
       </c>
       <c r="B67" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="D67" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -9764,22 +9764,22 @@
         <v>20</v>
       </c>
       <c r="B68" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C68" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="D68" t="n">
         <v>4.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -9787,10 +9787,10 @@
         <v>20</v>
       </c>
       <c r="B69" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="C69" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="D69" t="n">
         <v>4.0</v>
@@ -9807,16 +9807,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="C70" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="D70" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -9830,16 +9830,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C71" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D71" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -9853,22 +9853,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C72" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="D72" t="n">
         <v>4.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="n">
         <v>0.0</v>
@@ -9876,16 +9876,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C73" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="D73" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -9899,220 +9899,36 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="C74" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="D74" t="n">
         <v>4.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B75" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B76" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B77" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B78" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B80" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B81" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B82" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G82" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A65"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A70:A74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/localOutput.xlsx
+++ b/localOutput.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -254,37 +254,37 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n">
         <v>7.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H2" t="n">
         <v>4.0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5857142857142856</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M2" t="n">
-        <v>590.0</v>
+        <v>770.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -301,37 +301,37 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
         <v>7.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H3" t="n">
         <v>4.0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>4.24</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K3" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M3" t="n">
-        <v>590.0</v>
+        <v>770.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -348,40 +348,40 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
         <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H4" t="n">
         <v>4.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>4.24</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K4" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0</v>
+        <v>770.0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
@@ -395,43 +395,43 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
         <v>7.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H5" t="n">
         <v>4.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>4.24</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K5" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M5" t="n">
-        <v>590.0</v>
+        <v>770.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -448,37 +448,37 @@
         <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>4.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.54</v>
       </c>
       <c r="M6" t="n">
-        <v>590.0</v>
+        <v>570.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,37 +495,37 @@
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>4.0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.54</v>
       </c>
       <c r="M7" t="n">
-        <v>590.0</v>
+        <v>570.0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -542,37 +542,37 @@
         <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.54</v>
       </c>
       <c r="M8" t="n">
-        <v>590.0</v>
+        <v>570.0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.7599999999999997</v>
       </c>
     </row>
     <row r="9">
@@ -583,43 +583,43 @@
         <v>7.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F9" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.49</v>
+        <v>6.45</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4900000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="L9" t="n">
-        <v>0.449</v>
+        <v>0.5375</v>
       </c>
       <c r="M9" t="n">
-        <v>875.0</v>
+        <v>1230.0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.10999999999999988</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -630,10 +630,10 @@
         <v>8.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
         <v>3.0</v>
@@ -642,31 +642,31 @@
         <v>7.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.96</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.040000000000000036</v>
       </c>
       <c r="K10" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="M10" t="n">
-        <v>590.0</v>
+        <v>725.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -677,40 +677,40 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.0</v>
+        <v>3.86</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.5514285714285714</v>
       </c>
       <c r="M11" t="n">
-        <v>610.0</v>
+        <v>725.0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.040000000000000036</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
@@ -724,43 +724,43 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.10000000000000009</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4875</v>
+        <v>0.5514285714285714</v>
       </c>
       <c r="M12" t="n">
-        <v>610.0</v>
+        <v>725.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.040000000000000036</v>
       </c>
     </row>
     <row r="13">
@@ -774,40 +774,40 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>3.76</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9000000000000002</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="M13" t="n">
-        <v>810.0</v>
+        <v>725.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>-0.14000000000000012</v>
       </c>
     </row>
     <row r="14">
@@ -818,40 +818,40 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.63</v>
+        <v>4.36</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5144444444444445</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M14" t="n">
-        <v>810.0</v>
+        <v>860.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>-0.020000000000000018</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
@@ -865,37 +865,37 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
         <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="J15" t="n">
-        <v>0.23000000000000043</v>
+        <v>0.36000000000000026</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
-        <v>0.52875</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M15" t="n">
-        <v>790.0</v>
+        <v>860.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -912,37 +912,37 @@
         <v>14.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.95</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9500000000000002</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="L16" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="M16" t="n">
-        <v>990.0</v>
+        <v>1300.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -962,34 +962,34 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
         <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>4.0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23000000000000043</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6042857142857143</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="M17" t="n">
-        <v>905.0</v>
+        <v>840.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1009,10 +1009,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" t="n">
         <v>7.0</v>
@@ -1024,19 +1024,19 @@
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.84</v>
+        <v>4.39</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08999999999999986</v>
+        <v>-0.36000000000000026</v>
       </c>
       <c r="K18" t="n">
         <v>0.6785714285714286</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6914285714285714</v>
+        <v>0.6271428571428571</v>
       </c>
       <c r="M18" t="n">
-        <v>905.0</v>
+        <v>860.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1056,10 +1056,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -1071,22 +1071,22 @@
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="J19" t="n">
-        <v>0.14000000000000057</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="K19" t="n">
         <v>0.6142857142857142</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6342857142857143</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M19" t="n">
-        <v>905.0</v>
+        <v>860.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
@@ -1103,10 +1103,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
         <v>7.0</v>
@@ -1118,25 +1118,25 @@
         <v>4.44</v>
       </c>
       <c r="I20" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.16000000000000014</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="K20" t="n">
         <v>0.6342857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6114285714285714</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M20" t="n">
-        <v>905.0</v>
+        <v>860.0</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>-0.2999999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -1147,40 +1147,40 @@
         <v>19.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H21" t="n">
         <v>3.92</v>
       </c>
       <c r="I21" t="n">
-        <v>3.61</v>
+        <v>4.34</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.31000000000000005</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.62</v>
       </c>
       <c r="M21" t="n">
-        <v>705.0</v>
+        <v>860.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.16000000000000014</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -1197,34 +1197,34 @@
         <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n">
         <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>4.12</v>
       </c>
       <c r="I22" t="n">
-        <v>4.61</v>
+        <v>4.24</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5885714285714286</v>
+        <v>0.6866666666666668</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6585714285714286</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>905.0</v>
+        <v>840.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1241,37 +1241,37 @@
         <v>21.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
         <v>4.11</v>
       </c>
       <c r="I23" t="n">
-        <v>4.28</v>
+        <v>5.35</v>
       </c>
       <c r="J23" t="n">
-        <v>0.16999999999999993</v>
+        <v>1.2399999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5871428571428572</v>
+        <v>0.51375</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6114285714285714</v>
+        <v>0.66875</v>
       </c>
       <c r="M23" t="n">
-        <v>905.0</v>
+        <v>1060.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -1288,7 +1288,7 @@
         <v>22.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
@@ -1297,28 +1297,28 @@
         <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.99</v>
       </c>
       <c r="I24" t="n">
-        <v>4.45</v>
+        <v>3.87</v>
       </c>
       <c r="J24" t="n">
-        <v>0.46</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.665</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6357142857142858</v>
+        <v>0.645</v>
       </c>
       <c r="M24" t="n">
-        <v>905.0</v>
+        <v>705.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1335,7 +1335,7 @@
         <v>23.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
         <v>2.0</v>
@@ -1344,31 +1344,31 @@
         <v>2.0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>3.61</v>
       </c>
       <c r="I25" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5157142857142857</v>
+        <v>0.6016666666666667</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4828571428571429</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0</v>
+        <v>570.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
@@ -1388,34 +1388,34 @@
         <v>2.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H26" t="n">
         <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>3.53</v>
+        <v>4.24</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3200000000000003</v>
+        <v>0.3900000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5883333333333333</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M26" t="n">
-        <v>750.0</v>
+        <v>770.0</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.23</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
@@ -1435,34 +1435,34 @@
         <v>2.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.23</v>
+        <v>4.14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.33000000000000007</v>
+        <v>1.2399999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>0.48333333333333334</v>
+        <v>0.41428571428571426</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5383333333333333</v>
+        <v>0.5914285714285714</v>
       </c>
       <c r="M27" t="n">
-        <v>750.0</v>
+        <v>770.0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.22000000000000022</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -1479,10 +1479,10 @@
         <v>3.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F28" t="n">
         <v>6.0</v>
@@ -1494,19 +1494,19 @@
         <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>3.21</v>
+        <v>3.64</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8700000000000001</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="K28" t="n">
         <v>0.3899999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.535</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="M28" t="n">
-        <v>750.0</v>
+        <v>705.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -1526,10 +1526,10 @@
         <v>3.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" t="n">
         <v>5.0</v>
@@ -1541,19 +1541,19 @@
         <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.83</v>
+        <v>3.22</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.8800000000000003</v>
       </c>
       <c r="K29" t="n">
         <v>0.46799999999999997</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.644</v>
       </c>
       <c r="M29" t="n">
-        <v>685.0</v>
+        <v>640.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -1570,37 +1570,37 @@
         <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>1.66</v>
+        <v>1.1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.039999999999999813</v>
+        <v>-0.52</v>
       </c>
       <c r="K30" t="n">
         <v>0.81</v>
       </c>
       <c r="L30" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="M30" t="n">
-        <v>400.0</v>
+        <v>220.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -1617,7 +1617,7 @@
         <v>5.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
@@ -1626,31 +1626,31 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" t="n">
         <v>0.85</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.65</v>
+        <v>-0.85</v>
       </c>
       <c r="K31" t="n">
-        <v>0.425</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>-0.52</v>
       </c>
       <c r="O31" t="n">
         <v>0.0</v>
@@ -1664,7 +1664,7 @@
         <v>6.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -1673,34 +1673,34 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" t="n">
         <v>2.51</v>
       </c>
       <c r="I32" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.6799999999999997</v>
+        <v>-2.51</v>
       </c>
       <c r="K32" t="n">
-        <v>2.51</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>-0.8500000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="33">
@@ -1714,40 +1714,40 @@
         <v>3.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H33" t="n">
         <v>4.13</v>
       </c>
       <c r="I33" t="n">
-        <v>4.02</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.11000000000000032</v>
+        <v>0.37000000000000016</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6883333333333332</v>
+        <v>0.59</v>
       </c>
       <c r="L33" t="n">
-        <v>0.67</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M33" t="n">
-        <v>705.0</v>
+        <v>770.0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.6799999999999997</v>
+        <v>-2.51</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>-0.47999999999999987</v>
       </c>
     </row>
     <row r="34">
@@ -1758,43 +1758,43 @@
         <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n">
         <v>2.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.13</v>
+        <v>4.24</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
-        <v>0.51625</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M34" t="n">
-        <v>610.0</v>
+        <v>770.0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.11000000000000032</v>
+        <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.5499999999999998</v>
+        <v>-2.2699999999999996</v>
       </c>
     </row>
     <row r="35">
@@ -1805,37 +1805,37 @@
         <v>9.0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D35" t="n">
         <v>2.0</v>
       </c>
       <c r="E35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H35" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>4.24</v>
       </c>
       <c r="J35" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4875</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M35" t="n">
-        <v>610.0</v>
+        <v>770.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -1852,37 +1852,37 @@
         <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D36" t="n">
         <v>2.0</v>
       </c>
       <c r="E36" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H36" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>4.14</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.1399999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4875</v>
+        <v>0.5914285714285714</v>
       </c>
       <c r="M36" t="n">
-        <v>610.0</v>
+        <v>770.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -1899,10 +1899,10 @@
         <v>11.0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E37" t="n">
         <v>4.0</v>
@@ -1911,25 +1911,25 @@
         <v>9.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H37" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.68</v>
+        <v>5.04</v>
       </c>
       <c r="J37" t="n">
-        <v>1.6799999999999997</v>
+        <v>2.04</v>
       </c>
       <c r="K37" t="n">
         <v>0.33333333333333326</v>
       </c>
       <c r="L37" t="n">
-        <v>0.52</v>
+        <v>0.56</v>
       </c>
       <c r="M37" t="n">
-        <v>810.0</v>
+        <v>945.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -1949,10 +1949,10 @@
         <v>4.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" t="n">
         <v>9.0</v>
@@ -1964,19 +1964,19 @@
         <v>5.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.36</v>
+        <v>4.98</v>
       </c>
       <c r="J38" t="n">
-        <v>0.36000000000000026</v>
+        <v>-0.019999999999999574</v>
       </c>
       <c r="K38" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5955555555555556</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>990.0</v>
+        <v>945.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -1993,37 +1993,37 @@
         <v>13.0</v>
       </c>
       <c r="C39" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F39" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>5.06</v>
       </c>
       <c r="I39" t="n">
-        <v>5.06</v>
+        <v>7.13</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.42166666666666663</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.5941666666666666</v>
       </c>
       <c r="M39" t="n">
-        <v>990.0</v>
+        <v>1365.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -2040,37 +2040,37 @@
         <v>14.0</v>
       </c>
       <c r="C40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E40" t="n">
         <v>5.0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>6.99</v>
       </c>
       <c r="I40" t="n">
-        <v>6.87</v>
+        <v>6.96</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.1200000000000001</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5376923076923077</v>
+        <v>0.5825</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5284615384615384</v>
+        <v>0.58</v>
       </c>
       <c r="M40" t="n">
-        <v>1295.0</v>
+        <v>1365.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -2087,40 +2087,40 @@
         <v>15.0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H41" t="n">
         <v>6.39</v>
       </c>
       <c r="I41" t="n">
-        <v>5.83</v>
+        <v>6.26</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.5599999999999996</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>0.639</v>
+        <v>0.5809090909090909</v>
       </c>
       <c r="L41" t="n">
-        <v>0.583</v>
+        <v>0.5690909090909091</v>
       </c>
       <c r="M41" t="n">
-        <v>1010.0</v>
+        <v>1165.0</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.1200000000000001</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="O41" t="n">
         <v>0.0</v>
@@ -2134,40 +2134,40 @@
         <v>16.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F42" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H42" t="n">
         <v>5.33</v>
       </c>
       <c r="I42" t="n">
-        <v>5.56</v>
+        <v>6.1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.22999999999999954</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="K42" t="n">
-        <v>0.533</v>
+        <v>0.48454545454545456</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="M42" t="n">
-        <v>1010.0</v>
+        <v>1165.0</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.4500000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O42" t="n">
         <v>0.0</v>
@@ -2181,37 +2181,37 @@
         <v>17.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H43" t="n">
         <v>4.83</v>
       </c>
       <c r="I43" t="n">
-        <v>5.56</v>
+        <v>6.1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7299999999999995</v>
+        <v>1.2699999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>0.483</v>
+        <v>0.4390909090909091</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="M43" t="n">
-        <v>1010.0</v>
+        <v>1165.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -2228,37 +2228,37 @@
         <v>18.0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="H44" t="n">
         <v>4.99</v>
       </c>
       <c r="I44" t="n">
-        <v>5.3</v>
+        <v>7.07</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3099999999999996</v>
+        <v>2.08</v>
       </c>
       <c r="K44" t="n">
-        <v>0.499</v>
+        <v>0.3838461538461539</v>
       </c>
       <c r="L44" t="n">
-        <v>0.53</v>
+        <v>0.5438461538461539</v>
       </c>
       <c r="M44" t="n">
-        <v>1010.0</v>
+        <v>1385.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -2278,34 +2278,34 @@
         <v>4.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.95</v>
+        <v>4.24</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5499999999999998</v>
+        <v>-0.16000000000000014</v>
       </c>
       <c r="K45" t="n">
-        <v>0.48888888888888893</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="L45" t="n">
-        <v>0.55</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="M45" t="n">
-        <v>990.0</v>
+        <v>840.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -2322,37 +2322,37 @@
         <v>20.0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>4.63</v>
       </c>
       <c r="I46" t="n">
-        <v>4.76</v>
+        <v>6.52</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1299999999999999</v>
+        <v>1.8899999999999997</v>
       </c>
       <c r="K46" t="n">
-        <v>0.57875</v>
+        <v>0.46299999999999997</v>
       </c>
       <c r="L46" t="n">
-        <v>0.595</v>
+        <v>0.6519999999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>970.0</v>
+        <v>1280.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -2369,37 +2369,37 @@
         <v>21.0</v>
       </c>
       <c r="C47" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F47" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H47" t="n">
         <v>4.61</v>
       </c>
       <c r="I47" t="n">
-        <v>5.18</v>
+        <v>4.36</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5699999999999994</v>
+        <v>-0.25</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5122222222222222</v>
+        <v>0.6585714285714286</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5755555555555555</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M47" t="n">
-        <v>1170.0</v>
+        <v>860.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -2416,40 +2416,40 @@
         <v>22.0</v>
       </c>
       <c r="C48" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H48" t="n">
         <v>4.48</v>
       </c>
       <c r="I48" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7466666666666667</v>
+        <v>0.64</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7133333333333334</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M48" t="n">
-        <v>1065.0</v>
+        <v>860.0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0</v>
+        <v>-0.25</v>
       </c>
       <c r="O48" t="n">
         <v>0.0</v>
@@ -2463,43 +2463,43 @@
         <v>23.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H49" t="n">
         <v>4.05</v>
       </c>
       <c r="I49" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="K49" t="n">
-        <v>0.675</v>
+        <v>0.5785714285714285</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6733333333333333</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="M49" t="n">
-        <v>885.0</v>
+        <v>725.0</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="50">
@@ -2510,40 +2510,40 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="H50" t="n">
         <v>4.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.54</v>
+        <v>4.46</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6357142857142858</v>
+        <v>0.55625</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6485714285714286</v>
+        <v>0.5575</v>
       </c>
       <c r="M50" t="n">
-        <v>905.0</v>
+        <v>790.0</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="O50" t="n">
         <v>-0.11000000000000032</v>
@@ -2557,37 +2557,37 @@
         <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.44</v>
+        <v>4.34</v>
       </c>
       <c r="J51" t="n">
-        <v>1.0400000000000005</v>
+        <v>0.94</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.425</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6342857142857143</v>
+        <v>0.5425</v>
       </c>
       <c r="M51" t="n">
-        <v>905.0</v>
+        <v>790.0</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -2604,37 +2604,37 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
       </c>
       <c r="F52" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>2.8</v>
       </c>
       <c r="I52" t="n">
-        <v>4.18</v>
+        <v>3.14</v>
       </c>
       <c r="J52" t="n">
-        <v>1.38</v>
+        <v>0.3400000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5971428571428571</v>
+        <v>0.5233333333333333</v>
       </c>
       <c r="M52" t="n">
-        <v>905.0</v>
+        <v>570.0</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -2651,37 +2651,37 @@
         <v>3.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F53" t="n">
         <v>5.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08000000000000007</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>0.55</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="M53" t="n">
-        <v>685.0</v>
+        <v>505.0</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -2698,7 +2698,7 @@
         <v>4.0</v>
       </c>
       <c r="C54" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" t="n">
         <v>0.0</v>
@@ -2707,31 +2707,31 @@
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H54" t="n">
         <v>1.9</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="K54" t="n">
-        <v>0.95</v>
+        <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="M54" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="O54" t="n">
         <v>0.0</v>
@@ -2745,7 +2745,7 @@
         <v>5.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" t="n">
         <v>0.0</v>
@@ -2754,34 +2754,34 @@
         <v>0.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H55" t="n">
         <v>1.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.3299999999999999</v>
+        <v>-1.0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M55" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0</v>
+        <v>-0.1499999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2825,10 +2825,10 @@
         <v>0.0</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.3299999999999999</v>
+        <v>-1.0</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="57">
@@ -2842,10 +2842,10 @@
         <v>3.0</v>
       </c>
       <c r="D57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E57" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F57" t="n">
         <v>9.0</v>
@@ -2857,25 +2857,25 @@
         <v>4.84</v>
       </c>
       <c r="I57" t="n">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.41000000000000014</v>
       </c>
       <c r="K57" t="n">
         <v>0.5377777777777778</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M57" t="n">
-        <v>810.0</v>
+        <v>855.0</v>
       </c>
       <c r="N57" t="n">
-        <v>-2.4099999999999997</v>
+        <v>-2.94</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0</v>
+        <v>-0.5899999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2889,10 +2889,10 @@
         <v>3.0</v>
       </c>
       <c r="D58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E58" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F58" t="n">
         <v>9.0</v>
@@ -2904,25 +2904,25 @@
         <v>5.08</v>
       </c>
       <c r="I58" t="n">
-        <v>4.73</v>
+        <v>4.86</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.34999999999999964</v>
+        <v>-0.21999999999999975</v>
       </c>
       <c r="K58" t="n">
         <v>0.5644444444444444</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.54</v>
       </c>
       <c r="M58" t="n">
-        <v>810.0</v>
+        <v>855.0</v>
       </c>
       <c r="N58" t="n">
         <v>0.0</v>
       </c>
       <c r="O58" t="n">
-        <v>-2.4099999999999997</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="59">
@@ -2936,10 +2936,10 @@
         <v>4.0</v>
       </c>
       <c r="D59" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E59" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F59" t="n">
         <v>10.0</v>
@@ -2951,19 +2951,19 @@
         <v>4.98</v>
       </c>
       <c r="I59" t="n">
-        <v>5.73</v>
+        <v>5.86</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="K59" t="n">
         <v>0.49800000000000005</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5730000000000001</v>
+        <v>0.5860000000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>1010.0</v>
+        <v>1055.0</v>
       </c>
       <c r="N59" t="n">
         <v>0.0</v>
@@ -2986,31 +2986,31 @@
         <v>3.0</v>
       </c>
       <c r="E60" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F60" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H60" t="n">
         <v>6.51</v>
       </c>
       <c r="I60" t="n">
-        <v>6.31</v>
+        <v>6.01</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.20000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5425</v>
+        <v>0.5918181818181818</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5258333333333333</v>
+        <v>0.5463636363636364</v>
       </c>
       <c r="M60" t="n">
-        <v>1095.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N60" t="n">
         <v>0.0</v>
@@ -3033,34 +3033,34 @@
         <v>3.0</v>
       </c>
       <c r="E61" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F61" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H61" t="n">
         <v>6.0</v>
       </c>
       <c r="I61" t="n">
-        <v>6.18</v>
+        <v>5.98</v>
       </c>
       <c r="J61" t="n">
-        <v>0.17999999999999972</v>
+        <v>-0.019999999999999574</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L61" t="n">
-        <v>0.515</v>
+        <v>0.5436363636363637</v>
       </c>
       <c r="M61" t="n">
-        <v>1095.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.020000000000000462</v>
+        <v>-0.5</v>
       </c>
       <c r="O61" t="n">
         <v>0.0</v>
@@ -3080,37 +3080,37 @@
         <v>3.0</v>
       </c>
       <c r="E62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F62" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H62" t="n">
         <v>5.64</v>
       </c>
       <c r="I62" t="n">
-        <v>6.18</v>
+        <v>5.98</v>
       </c>
       <c r="J62" t="n">
-        <v>0.54</v>
+        <v>0.3400000000000007</v>
       </c>
       <c r="K62" t="n">
-        <v>0.47</v>
+        <v>0.5127272727272727</v>
       </c>
       <c r="L62" t="n">
-        <v>0.515</v>
+        <v>0.5436363636363637</v>
       </c>
       <c r="M62" t="n">
-        <v>1095.0</v>
+        <v>1075.0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0</v>
+        <v>-0.019999999999999574</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0</v>
+        <v>-0.15999999999999925</v>
       </c>
     </row>
     <row r="63">
@@ -3121,37 +3121,37 @@
         <v>13.0</v>
       </c>
       <c r="C63" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D63" t="n">
         <v>3.0</v>
       </c>
       <c r="E63" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F63" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>5.92</v>
       </c>
       <c r="I63" t="n">
-        <v>7.06</v>
+        <v>8.26</v>
       </c>
       <c r="J63" t="n">
-        <v>1.1399999999999997</v>
+        <v>2.34</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4553846153846154</v>
+        <v>0.39466666666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>0.543076923076923</v>
+        <v>0.5506666666666666</v>
       </c>
       <c r="M63" t="n">
-        <v>1295.0</v>
+        <v>1515.0</v>
       </c>
       <c r="N63" t="n">
         <v>0.0</v>
@@ -3168,37 +3168,37 @@
         <v>14.0</v>
       </c>
       <c r="C64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E64" t="n">
         <v>7.0</v>
       </c>
-      <c r="D64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6.0</v>
-      </c>
       <c r="F64" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H64" t="n">
         <v>8.18</v>
       </c>
       <c r="I64" t="n">
-        <v>8.82</v>
+        <v>10.04</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6400000000000006</v>
+        <v>1.8599999999999994</v>
       </c>
       <c r="K64" t="n">
-        <v>0.51125</v>
+        <v>0.45444444444444443</v>
       </c>
       <c r="L64" t="n">
-        <v>0.55125</v>
+        <v>0.5577777777777777</v>
       </c>
       <c r="M64" t="n">
-        <v>1715.0</v>
+        <v>1935.0</v>
       </c>
       <c r="N64" t="n">
         <v>0.0</v>
@@ -3215,37 +3215,37 @@
         <v>15.0</v>
       </c>
       <c r="C65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E65" t="n">
         <v>5.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.0</v>
       </c>
       <c r="F65" t="n">
         <v>12.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>7.47</v>
       </c>
       <c r="I65" t="n">
-        <v>6.94</v>
+        <v>7.23</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.5299999999999994</v>
+        <v>-0.23999999999999932</v>
       </c>
       <c r="K65" t="n">
         <v>0.6224999999999999</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5783333333333334</v>
+        <v>0.6025</v>
       </c>
       <c r="M65" t="n">
-        <v>1275.0</v>
+        <v>1365.0</v>
       </c>
       <c r="N65" t="n">
         <v>0.0</v>
@@ -3262,40 +3262,40 @@
         <v>16.0</v>
       </c>
       <c r="C66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E66" t="n">
         <v>5.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.0</v>
       </c>
       <c r="F66" t="n">
         <v>12.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>6.24</v>
       </c>
       <c r="I66" t="n">
-        <v>6.35</v>
+        <v>7.1</v>
       </c>
       <c r="J66" t="n">
-        <v>0.10999999999999943</v>
+        <v>0.8599999999999994</v>
       </c>
       <c r="K66" t="n">
         <v>0.52</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5291666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="M66" t="n">
-        <v>1275.0</v>
+        <v>1365.0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.41999999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="O66" t="n">
         <v>0.0</v>
@@ -3309,43 +3309,43 @@
         <v>17.0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D67" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E67" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F67" t="n">
         <v>11.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H67" t="n">
         <v>5.66</v>
       </c>
       <c r="I67" t="n">
-        <v>5.68</v>
+        <v>6.1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.019999999999999574</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="K67" t="n">
         <v>0.5145454545454545</v>
       </c>
       <c r="L67" t="n">
-        <v>0.5163636363636364</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="M67" t="n">
-        <v>1075.0</v>
+        <v>1165.0</v>
       </c>
       <c r="N67" t="n">
         <v>0.0</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -3356,37 +3356,37 @@
         <v>18.0</v>
       </c>
       <c r="C68" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D68" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F68" t="n">
         <v>11.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H68" t="n">
         <v>5.84</v>
       </c>
       <c r="I68" t="n">
-        <v>5.66</v>
+        <v>5.98</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.17999999999999972</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="K68" t="n">
         <v>0.5309090909090909</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5145454545454545</v>
+        <v>0.5436363636363637</v>
       </c>
       <c r="M68" t="n">
-        <v>1075.0</v>
+        <v>1165.0</v>
       </c>
       <c r="N68" t="n">
         <v>0.0</v>
@@ -3403,37 +3403,37 @@
         <v>19.0</v>
       </c>
       <c r="C69" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D69" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
         <v>4.0</v>
       </c>
       <c r="F69" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H69" t="n">
         <v>5.15</v>
       </c>
       <c r="I69" t="n">
-        <v>5.56</v>
+        <v>5.48</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4099999999999993</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>0.515</v>
+        <v>0.5722222222222223</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.6088888888888889</v>
       </c>
       <c r="M69" t="n">
-        <v>1010.0</v>
+        <v>1080.0</v>
       </c>
       <c r="N69" t="n">
         <v>0.0</v>
@@ -3450,37 +3450,37 @@
         <v>20.0</v>
       </c>
       <c r="C70" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
         <v>5.0</v>
       </c>
-      <c r="D70" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F70" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>5.42</v>
       </c>
       <c r="I70" t="n">
-        <v>6.4</v>
+        <v>7.59</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9800000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="K70" t="n">
-        <v>0.49272727272727274</v>
+        <v>0.45166666666666666</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5818181818181819</v>
+        <v>0.6325</v>
       </c>
       <c r="M70" t="n">
-        <v>1210.0</v>
+        <v>1500.0</v>
       </c>
       <c r="N70" t="n">
         <v>0.0</v>
@@ -3500,34 +3500,34 @@
         <v>5.0</v>
       </c>
       <c r="D71" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E71" t="n">
         <v>4.0</v>
       </c>
       <c r="F71" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H71" t="n">
         <v>5.41</v>
       </c>
       <c r="I71" t="n">
-        <v>6.02</v>
+        <v>5.47</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.05999999999999961</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4918181818181818</v>
+        <v>0.6011111111111112</v>
       </c>
       <c r="L71" t="n">
-        <v>0.5472727272727272</v>
+        <v>0.6077777777777778</v>
       </c>
       <c r="M71" t="n">
-        <v>1210.0</v>
+        <v>1080.0</v>
       </c>
       <c r="N71" t="n">
         <v>0.0</v>
@@ -3550,31 +3550,31 @@
         <v>2.0</v>
       </c>
       <c r="E72" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F72" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
       </c>
       <c r="I72" t="n">
-        <v>4.98</v>
+        <v>5.44</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.2699999999999996</v>
+        <v>0.1900000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65625</v>
       </c>
       <c r="L72" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.68</v>
       </c>
       <c r="M72" t="n">
-        <v>990.0</v>
+        <v>970.0</v>
       </c>
       <c r="N72" t="n">
         <v>0.0</v>
@@ -3594,10 +3594,10 @@
         <v>3.0</v>
       </c>
       <c r="D73" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F73" t="n">
         <v>8.0</v>
@@ -3609,22 +3609,22 @@
         <v>4.75</v>
       </c>
       <c r="I73" t="n">
-        <v>4.46</v>
+        <v>4.84</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.29000000000000004</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="K73" t="n">
         <v>0.59375</v>
       </c>
       <c r="L73" t="n">
-        <v>0.5575</v>
+        <v>0.605</v>
       </c>
       <c r="M73" t="n">
-        <v>790.0</v>
+        <v>835.0</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.2699999999999996</v>
+        <v>0.0</v>
       </c>
       <c r="O73" t="n">
         <v>0.0</v>
@@ -3641,10 +3641,10 @@
         <v>3.0</v>
       </c>
       <c r="D74" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F74" t="n">
         <v>8.0</v>
@@ -3656,25 +3656,25 @@
         <v>4.26</v>
       </c>
       <c r="I74" t="n">
-        <v>4.23</v>
+        <v>4.74</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.02999999999999936</v>
+        <v>0.4800000000000004</v>
       </c>
       <c r="K74" t="n">
         <v>0.5325</v>
       </c>
       <c r="L74" t="n">
-        <v>0.52875</v>
+        <v>0.5925</v>
       </c>
       <c r="M74" t="n">
-        <v>790.0</v>
+        <v>835.0</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.29000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.2699999999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -3688,10 +3688,10 @@
         <v>3.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F75" t="n">
         <v>8.0</v>
@@ -3703,19 +3703,19 @@
         <v>2.97</v>
       </c>
       <c r="I75" t="n">
-        <v>4.11</v>
+        <v>4.64</v>
       </c>
       <c r="J75" t="n">
-        <v>1.1400000000000001</v>
+        <v>1.6699999999999995</v>
       </c>
       <c r="K75" t="n">
         <v>0.37125</v>
       </c>
       <c r="L75" t="n">
-        <v>0.51375</v>
+        <v>0.58</v>
       </c>
       <c r="M75" t="n">
-        <v>790.0</v>
+        <v>835.0</v>
       </c>
       <c r="N75" t="n">
         <v>0.0</v>
@@ -3732,10 +3732,10 @@
         <v>2.0</v>
       </c>
       <c r="C76" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D76" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E76" t="n">
         <v>2.0</v>
@@ -3744,25 +3744,25 @@
         <v>6.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9900000000000003</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="K76" t="n">
         <v>0.4</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="M76" t="n">
-        <v>705.0</v>
+        <v>570.0</v>
       </c>
       <c r="N76" t="n">
         <v>0.0</v>
@@ -3779,37 +3779,37 @@
         <v>3.0</v>
       </c>
       <c r="C77" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>2.7</v>
       </c>
       <c r="I77" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9</v>
+        <v>0.675</v>
       </c>
       <c r="L77" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="M77" t="n">
-        <v>600.0</v>
+        <v>485.0</v>
       </c>
       <c r="N77" t="n">
         <v>0.0</v>
@@ -3826,7 +3826,7 @@
         <v>4.0</v>
       </c>
       <c r="C78" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D78" t="n">
         <v>0.0</v>
@@ -3835,31 +3835,31 @@
         <v>0.0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H78" t="n">
         <v>1.67</v>
       </c>
       <c r="I78" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-1.67</v>
       </c>
       <c r="K78" t="n">
-        <v>0.835</v>
+        <v>0.0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="M78" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O78" t="n">
         <v>0.0</v>
@@ -3873,7 +3873,7 @@
         <v>5.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
         <v>0.0</v>
@@ -3882,34 +3882,34 @@
         <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
         <v>0.87</v>
       </c>
       <c r="I79" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.87</v>
       </c>
       <c r="K79" t="n">
-        <v>0.87</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M79" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-1.67</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.37000000000000016</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="80">
@@ -3953,10 +3953,10 @@
         <v>0.0</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.8700000000000001</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.16999999999999993</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="81">
@@ -3967,43 +3967,43 @@
         <v>7.0</v>
       </c>
       <c r="C81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D81" t="n">
         <v>2.0</v>
       </c>
       <c r="E81" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F81" t="n">
         <v>8.0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="H81" t="n">
         <v>4.24</v>
       </c>
       <c r="I81" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J81" t="n">
-        <v>0.46</v>
+        <v>0.41000000000000014</v>
       </c>
       <c r="K81" t="n">
         <v>0.53</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5875</v>
+        <v>0.58125</v>
       </c>
       <c r="M81" t="n">
-        <v>610.0</v>
+        <v>790.0</v>
       </c>
       <c r="N81" t="n">
-        <v>-2.3099999999999996</v>
+        <v>-2.57</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0</v>
+        <v>-0.45999999999999985</v>
       </c>
     </row>
     <row r="82">
@@ -4020,37 +4020,37 @@
         <v>2.0</v>
       </c>
       <c r="E82" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F82" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H82" t="n">
         <v>4.44</v>
       </c>
       <c r="I82" t="n">
-        <v>4.9</v>
+        <v>4.36</v>
       </c>
       <c r="J82" t="n">
-        <v>0.46</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="K82" t="n">
-        <v>0.4933333333333334</v>
+        <v>0.555</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.545</v>
       </c>
       <c r="M82" t="n">
-        <v>810.0</v>
+        <v>790.0</v>
       </c>
       <c r="N82" t="n">
         <v>0.0</v>
       </c>
       <c r="O82" t="n">
-        <v>-1.8499999999999996</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="83">
@@ -4067,34 +4067,34 @@
         <v>2.0</v>
       </c>
       <c r="E83" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F83" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H83" t="n">
         <v>4.36</v>
       </c>
       <c r="I83" t="n">
-        <v>4.73</v>
+        <v>4.36</v>
       </c>
       <c r="J83" t="n">
-        <v>0.37000000000000016</v>
+        <v>0.0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.48444444444444446</v>
+        <v>0.545</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.545</v>
       </c>
       <c r="M83" t="n">
-        <v>810.0</v>
+        <v>790.0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="O83" t="n">
         <v>0.0</v>
@@ -4108,43 +4108,43 @@
         <v>10.0</v>
       </c>
       <c r="C84" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D84" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E84" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F84" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H84" t="n">
         <v>5.69</v>
       </c>
       <c r="I84" t="n">
-        <v>5.48</v>
+        <v>5.36</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.20999999999999996</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5172727272727273</v>
+        <v>0.6322222222222222</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4981818181818182</v>
+        <v>0.5955555555555556</v>
       </c>
       <c r="M84" t="n">
-        <v>895.0</v>
+        <v>990.0</v>
       </c>
       <c r="N84" t="n">
         <v>0.0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0</v>
+        <v>-0.08000000000000007</v>
       </c>
     </row>
     <row r="85">
@@ -4161,34 +4161,34 @@
         <v>4.0</v>
       </c>
       <c r="E85" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F85" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>7.0</v>
       </c>
       <c r="I85" t="n">
-        <v>6.5</v>
+        <v>6.71</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.5</v>
+        <v>-0.29000000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5</v>
+        <v>0.5591666666666667</v>
       </c>
       <c r="M85" t="n">
-        <v>1160.0</v>
+        <v>1140.0</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.20999999999999996</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="O85" t="n">
         <v>0.0</v>
@@ -4208,31 +4208,31 @@
         <v>4.0</v>
       </c>
       <c r="E86" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F86" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>4.93</v>
       </c>
       <c r="I86" t="n">
-        <v>6.3</v>
+        <v>6.48</v>
       </c>
       <c r="J86" t="n">
-        <v>1.37</v>
+        <v>1.5500000000000005</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3792307692307692</v>
+        <v>0.4108333333333334</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4846153846153846</v>
+        <v>0.54</v>
       </c>
       <c r="M86" t="n">
-        <v>1160.0</v>
+        <v>1140.0</v>
       </c>
       <c r="N86" t="n">
         <v>0.0</v>
@@ -4249,7 +4249,7 @@
         <v>13.0</v>
       </c>
       <c r="C87" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D87" t="n">
         <v>4.0</v>
@@ -4258,28 +4258,28 @@
         <v>5.0</v>
       </c>
       <c r="F87" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>5.19</v>
       </c>
       <c r="I87" t="n">
-        <v>6.18</v>
+        <v>8.63</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9899999999999993</v>
+        <v>3.4400000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3992307692307693</v>
+        <v>0.34600000000000003</v>
       </c>
       <c r="L87" t="n">
-        <v>0.47538461538461535</v>
+        <v>0.5753333333333334</v>
       </c>
       <c r="M87" t="n">
-        <v>1160.0</v>
+        <v>1560.0</v>
       </c>
       <c r="N87" t="n">
         <v>0.0</v>
@@ -4296,7 +4296,7 @@
         <v>14.0</v>
       </c>
       <c r="C88" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D88" t="n">
         <v>4.0</v>
@@ -4305,28 +4305,28 @@
         <v>6.0</v>
       </c>
       <c r="F88" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="H88" t="n">
         <v>7.16</v>
       </c>
       <c r="I88" t="n">
-        <v>8.25</v>
+        <v>9.27</v>
       </c>
       <c r="J88" t="n">
-        <v>1.0899999999999999</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4475</v>
+        <v>0.42117647058823526</v>
       </c>
       <c r="L88" t="n">
-        <v>0.515625</v>
+        <v>0.5452941176470588</v>
       </c>
       <c r="M88" t="n">
-        <v>1580.0</v>
+        <v>1780.0</v>
       </c>
       <c r="N88" t="n">
         <v>0.0</v>
@@ -4346,10 +4346,10 @@
         <v>5.0</v>
       </c>
       <c r="D89" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F89" t="n">
         <v>10.0</v>
@@ -4361,19 +4361,19 @@
         <v>6.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6.03</v>
+        <v>6.14</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.5099999999999998</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="K89" t="n">
         <v>0.654</v>
       </c>
       <c r="L89" t="n">
-        <v>0.603</v>
+        <v>0.614</v>
       </c>
       <c r="M89" t="n">
-        <v>1190.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N89" t="n">
         <v>0.0</v>
@@ -4390,40 +4390,40 @@
         <v>16.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D90" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F90" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>5.46</v>
       </c>
       <c r="I90" t="n">
-        <v>5.06</v>
+        <v>5.98</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.5200000000000005</v>
       </c>
       <c r="K90" t="n">
-        <v>0.6066666666666667</v>
+        <v>0.546</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M90" t="n">
-        <v>990.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.5099999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="O90" t="n">
         <v>0.0</v>
@@ -4437,43 +4437,43 @@
         <v>17.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F91" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>4.96</v>
       </c>
       <c r="I91" t="n">
-        <v>5.06</v>
+        <v>5.98</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09999999999999964</v>
+        <v>1.0200000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5511111111111111</v>
+        <v>0.496</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5622222222222222</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M91" t="n">
-        <v>990.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.41000000000000014</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -4487,10 +4487,10 @@
         <v>4.0</v>
       </c>
       <c r="D92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E92" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F92" t="n">
         <v>9.0</v>
@@ -4502,25 +4502,25 @@
         <v>5.1</v>
       </c>
       <c r="I92" t="n">
-        <v>4.9</v>
+        <v>4.86</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.1999999999999993</v>
+        <v>-0.23999999999999932</v>
       </c>
       <c r="K92" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.54</v>
       </c>
       <c r="M92" t="n">
-        <v>990.0</v>
+        <v>945.0</v>
       </c>
       <c r="N92" t="n">
         <v>0.0</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.40000000000000036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -4531,40 +4531,40 @@
         <v>19.0</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D93" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
         <v>3.0</v>
       </c>
       <c r="F93" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.375</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H93" t="n">
         <v>4.51</v>
       </c>
       <c r="I93" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.27999999999999936</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="K93" t="n">
-        <v>0.56375</v>
+        <v>0.6442857142857144</v>
       </c>
       <c r="L93" t="n">
-        <v>0.52875</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M93" t="n">
-        <v>790.0</v>
+        <v>860.0</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.1999999999999993</v>
+        <v>-0.23999999999999932</v>
       </c>
       <c r="O93" t="n">
         <v>0.0</v>
@@ -4578,37 +4578,37 @@
         <v>20.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F94" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H94" t="n">
         <v>4.74</v>
       </c>
       <c r="I94" t="n">
-        <v>5.23</v>
+        <v>6.64</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4900000000000002</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5266666666666667</v>
+        <v>0.4309090909090909</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5811111111111111</v>
+        <v>0.6036363636363636</v>
       </c>
       <c r="M94" t="n">
-        <v>990.0</v>
+        <v>1300.0</v>
       </c>
       <c r="N94" t="n">
         <v>0.0</v>
@@ -4625,16 +4625,16 @@
         <v>21.0</v>
       </c>
       <c r="C95" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D95" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F95" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G95" t="n">
         <v>0.5</v>
@@ -4643,19 +4643,19 @@
         <v>4.73</v>
       </c>
       <c r="I95" t="n">
-        <v>5.52</v>
+        <v>4.46</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7899999999999991</v>
+        <v>-0.27000000000000046</v>
       </c>
       <c r="K95" t="n">
-        <v>0.47300000000000003</v>
+        <v>0.59125</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5519999999999999</v>
+        <v>0.5575</v>
       </c>
       <c r="M95" t="n">
-        <v>1190.0</v>
+        <v>880.0</v>
       </c>
       <c r="N95" t="n">
         <v>0.0</v>
@@ -4672,40 +4672,40 @@
         <v>22.0</v>
       </c>
       <c r="C96" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D96" t="n">
         <v>2.0</v>
       </c>
       <c r="E96" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F96" t="n">
         <v>8.0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H96" t="n">
         <v>4.59</v>
       </c>
       <c r="I96" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K96" t="n">
         <v>0.57375</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5725</v>
+        <v>0.5675</v>
       </c>
       <c r="M96" t="n">
-        <v>970.0</v>
+        <v>790.0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0</v>
+        <v>-0.27000000000000046</v>
       </c>
       <c r="O96" t="n">
         <v>0.0</v>
@@ -4737,25 +4737,25 @@
         <v>4.15</v>
       </c>
       <c r="I97" t="n">
-        <v>3.86</v>
+        <v>4.24</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.2900000000000005</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="K97" t="n">
         <v>0.5928571428571429</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5514285714285714</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M97" t="n">
         <v>770.0</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0</v>
+        <v>-0.1800000000000006</v>
       </c>
     </row>
     <row r="98">
@@ -4784,25 +4784,25 @@
         <v>4.05</v>
       </c>
       <c r="I98" t="n">
-        <v>3.73</v>
+        <v>4.24</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.31999999999999984</v>
+        <v>0.1900000000000004</v>
       </c>
       <c r="K98" t="n">
         <v>0.5785714285714285</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5328571428571428</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M98" t="n">
         <v>770.0</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.2900000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.009999999999999787</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -4831,16 +4831,16 @@
         <v>2.93</v>
       </c>
       <c r="I99" t="n">
-        <v>3.61</v>
+        <v>4.04</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6799999999999997</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="K99" t="n">
         <v>0.4185714285714286</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5157142857142857</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="M99" t="n">
         <v>770.0</v>
@@ -4863,10 +4863,10 @@
         <v>3.0</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F100" t="n">
         <v>5.0</v>
@@ -4878,19 +4878,19 @@
         <v>2.37</v>
       </c>
       <c r="I100" t="n">
-        <v>2.99</v>
+        <v>3.24</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="K100" t="n">
         <v>0.47400000000000003</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5980000000000001</v>
+        <v>0.648</v>
       </c>
       <c r="M100" t="n">
-        <v>685.0</v>
+        <v>640.0</v>
       </c>
       <c r="N100" t="n">
         <v>0.0</v>
@@ -4907,37 +4907,37 @@
         <v>3.0</v>
       </c>
       <c r="C101" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D101" t="n">
         <v>0.0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F101" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>2.37</v>
       </c>
       <c r="I101" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="K101" t="n">
-        <v>0.79</v>
+        <v>0.5925</v>
       </c>
       <c r="L101" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="M101" t="n">
-        <v>600.0</v>
+        <v>440.0</v>
       </c>
       <c r="N101" t="n">
         <v>0.0</v>
@@ -4954,7 +4954,7 @@
         <v>4.0</v>
       </c>
       <c r="C102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
         <v>0.0</v>
@@ -4963,31 +4963,31 @@
         <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
         <v>1.64</v>
       </c>
       <c r="I102" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-1.64</v>
       </c>
       <c r="K102" t="n">
-        <v>0.82</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="M102" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="O102" t="n">
         <v>0.0</v>
@@ -5001,7 +5001,7 @@
         <v>5.0</v>
       </c>
       <c r="C103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D103" t="n">
         <v>0.0</v>
@@ -5010,34 +5010,34 @@
         <v>0.0</v>
       </c>
       <c r="F103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H103" t="n">
         <v>0.86</v>
       </c>
       <c r="I103" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.18999999999999992</v>
+        <v>-0.86</v>
       </c>
       <c r="K103" t="n">
-        <v>0.86</v>
+        <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M103" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-1.64</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.040000000000000036</v>
+        <v>-0.16999999999999993</v>
       </c>
     </row>
     <row r="104">
@@ -5081,10 +5081,10 @@
         <v>0.0</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.18999999999999992</v>
+        <v>-0.8600000000000001</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.1399999999999999</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="105">
@@ -5095,43 +5095,43 @@
         <v>7.0</v>
       </c>
       <c r="C105" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D105" t="n">
         <v>2.0</v>
       </c>
       <c r="E105" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F105" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H105" t="n">
         <v>4.18</v>
       </c>
       <c r="I105" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5200000000000005</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5225</v>
+        <v>0.5971428571428571</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5875</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M105" t="n">
-        <v>610.0</v>
+        <v>770.0</v>
       </c>
       <c r="N105" t="n">
-        <v>-2.2099999999999995</v>
+        <v>-2.54</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0</v>
+        <v>-0.5399999999999997</v>
       </c>
     </row>
     <row r="106">
@@ -5148,37 +5148,37 @@
         <v>2.0</v>
       </c>
       <c r="E106" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F106" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H106" t="n">
         <v>4.39</v>
       </c>
       <c r="I106" t="n">
-        <v>4.9</v>
+        <v>4.24</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5100000000000007</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4877777777777778</v>
+        <v>0.6271428571428571</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5444444444444445</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M106" t="n">
-        <v>810.0</v>
+        <v>770.0</v>
       </c>
       <c r="N106" t="n">
         <v>0.0</v>
       </c>
       <c r="O106" t="n">
-        <v>-1.6999999999999988</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="107">
@@ -5195,34 +5195,34 @@
         <v>2.0</v>
       </c>
       <c r="E107" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F107" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H107" t="n">
         <v>4.31</v>
       </c>
       <c r="I107" t="n">
-        <v>4.73</v>
+        <v>4.24</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4200000000000009</v>
+        <v>-0.0699999999999994</v>
       </c>
       <c r="K107" t="n">
-        <v>0.47888888888888886</v>
+        <v>0.6157142857142857</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M107" t="n">
-        <v>810.0</v>
+        <v>770.0</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="O107" t="n">
         <v>0.0</v>
@@ -5236,43 +5236,43 @@
         <v>10.0</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D108" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E108" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F108" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>5.62</v>
       </c>
       <c r="I108" t="n">
-        <v>5.48</v>
+        <v>5.24</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.13999999999999968</v>
+        <v>-0.37999999999999984</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5109090909090909</v>
+        <v>0.7025</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4981818181818182</v>
+        <v>0.655</v>
       </c>
       <c r="M108" t="n">
-        <v>895.0</v>
+        <v>970.0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0</v>
+        <v>-0.0699999999999994</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0</v>
+        <v>-0.14999999999999947</v>
       </c>
     </row>
     <row r="109">
@@ -5283,43 +5283,43 @@
         <v>11.0</v>
       </c>
       <c r="C109" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D109" t="n">
         <v>4.0</v>
       </c>
       <c r="E109" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F109" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="H109" t="n">
         <v>8.0</v>
       </c>
       <c r="I109" t="n">
-        <v>7.7</v>
+        <v>7.74</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.2999999999999998</v>
+        <v>-0.2599999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5133333333333333</v>
+        <v>0.5953846153846154</v>
       </c>
       <c r="M109" t="n">
-        <v>1200.0</v>
+        <v>1340.0</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.13999999999999968</v>
+        <v>-0.37999999999999984</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0</v>
+        <v>-0.0699999999999994</v>
       </c>
     </row>
     <row r="110">
@@ -5330,37 +5330,37 @@
         <v>12.0</v>
       </c>
       <c r="C110" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D110" t="n">
         <v>4.0</v>
       </c>
       <c r="E110" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F110" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="H110" t="n">
         <v>5.0</v>
       </c>
       <c r="I110" t="n">
-        <v>7.3</v>
+        <v>7.48</v>
       </c>
       <c r="J110" t="n">
-        <v>2.3</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>0.33333333333333326</v>
+        <v>0.3846153846153847</v>
       </c>
       <c r="L110" t="n">
-        <v>0.48666666666666664</v>
+        <v>0.5753846153846154</v>
       </c>
       <c r="M110" t="n">
-        <v>1200.0</v>
+        <v>1340.0</v>
       </c>
       <c r="N110" t="n">
         <v>0.0</v>
@@ -5377,37 +5377,37 @@
         <v>13.0</v>
       </c>
       <c r="C111" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D111" t="n">
         <v>4.0</v>
       </c>
       <c r="E111" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F111" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.4375</v>
       </c>
       <c r="H111" t="n">
         <v>5.12</v>
       </c>
       <c r="I111" t="n">
-        <v>7.18</v>
+        <v>9.63</v>
       </c>
       <c r="J111" t="n">
-        <v>2.0599999999999996</v>
+        <v>4.510000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3413333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4786666666666666</v>
+        <v>0.601875</v>
       </c>
       <c r="M111" t="n">
-        <v>1200.0</v>
+        <v>1760.0</v>
       </c>
       <c r="N111" t="n">
         <v>0.0</v>
@@ -5424,37 +5424,37 @@
         <v>14.0</v>
       </c>
       <c r="C112" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D112" t="n">
         <v>4.0</v>
       </c>
       <c r="E112" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F112" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.29411764705882354</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H112" t="n">
         <v>7.07</v>
       </c>
       <c r="I112" t="n">
-        <v>8.05</v>
+        <v>10.27</v>
       </c>
       <c r="J112" t="n">
-        <v>0.9800000000000004</v>
+        <v>3.1999999999999993</v>
       </c>
       <c r="K112" t="n">
-        <v>0.4158823529411764</v>
+        <v>0.3927777777777778</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4735294117647059</v>
+        <v>0.5705555555555555</v>
       </c>
       <c r="M112" t="n">
-        <v>1420.0</v>
+        <v>1980.0</v>
       </c>
       <c r="N112" t="n">
         <v>0.0</v>
@@ -5471,37 +5471,37 @@
         <v>15.0</v>
       </c>
       <c r="C113" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E113" t="n">
         <v>4.0</v>
       </c>
       <c r="F113" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>6.47</v>
       </c>
       <c r="I113" t="n">
-        <v>5.95</v>
+        <v>6.14</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.5199999999999996</v>
+        <v>-0.33000000000000007</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5881818181818181</v>
+        <v>0.647</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5409090909090909</v>
+        <v>0.614</v>
       </c>
       <c r="M113" t="n">
-        <v>1075.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N113" t="n">
         <v>0.0</v>
@@ -5518,40 +5518,40 @@
         <v>16.0</v>
       </c>
       <c r="C114" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D114" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E114" t="n">
         <v>4.0</v>
       </c>
       <c r="F114" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>5.4</v>
       </c>
       <c r="I114" t="n">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>0.49090909090909096</v>
+        <v>0.54</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5318181818181817</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M114" t="n">
-        <v>1075.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N114" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.0</v>
       </c>
       <c r="O114" t="n">
         <v>0.0</v>
@@ -5565,37 +5565,37 @@
         <v>17.0</v>
       </c>
       <c r="C115" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D115" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E115" t="n">
         <v>4.0</v>
       </c>
       <c r="F115" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>4.89</v>
       </c>
       <c r="I115" t="n">
-        <v>5.68</v>
+        <v>5.98</v>
       </c>
       <c r="J115" t="n">
-        <v>0.79</v>
+        <v>1.0900000000000007</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4445454545454545</v>
+        <v>0.489</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5163636363636364</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="M115" t="n">
-        <v>1075.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N115" t="n">
         <v>0.0</v>
@@ -5612,37 +5612,37 @@
         <v>18.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D116" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E116" t="n">
         <v>4.0</v>
       </c>
       <c r="F116" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H116" t="n">
         <v>5.04</v>
       </c>
       <c r="I116" t="n">
-        <v>6.5</v>
+        <v>4.86</v>
       </c>
       <c r="J116" t="n">
-        <v>1.46</v>
+        <v>-0.17999999999999972</v>
       </c>
       <c r="K116" t="n">
-        <v>0.42</v>
+        <v>0.56</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.54</v>
       </c>
       <c r="M116" t="n">
-        <v>1275.0</v>
+        <v>945.0</v>
       </c>
       <c r="N116" t="n">
         <v>0.0</v>
@@ -5662,37 +5662,37 @@
         <v>4.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F117" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H117" t="n">
         <v>4.45</v>
       </c>
       <c r="I117" t="n">
-        <v>5.4</v>
+        <v>4.36</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9500000000000002</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="K117" t="n">
-        <v>0.445</v>
+        <v>0.6357142857142858</v>
       </c>
       <c r="L117" t="n">
-        <v>0.54</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="M117" t="n">
-        <v>1010.0</v>
+        <v>860.0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0</v>
+        <v>-0.17999999999999972</v>
       </c>
       <c r="O117" t="n">
         <v>0.0</v>
@@ -5706,10 +5706,10 @@
         <v>20.0</v>
       </c>
       <c r="C118" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E118" t="n">
         <v>4.0</v>
@@ -5718,25 +5718,25 @@
         <v>9.0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H118" t="n">
         <v>4.68</v>
       </c>
       <c r="I118" t="n">
-        <v>4.73</v>
+        <v>5.49</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05000000000000071</v>
+        <v>0.8100000000000006</v>
       </c>
       <c r="K118" t="n">
         <v>0.52</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5255555555555556</v>
+        <v>0.61</v>
       </c>
       <c r="M118" t="n">
-        <v>810.0</v>
+        <v>1080.0</v>
       </c>
       <c r="N118" t="n">
         <v>0.0</v>
@@ -5756,34 +5756,34 @@
         <v>4.0</v>
       </c>
       <c r="D119" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E119" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F119" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>4.67</v>
       </c>
       <c r="I119" t="n">
-        <v>5.35</v>
+        <v>4.94</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.27000000000000046</v>
       </c>
       <c r="K119" t="n">
-        <v>0.46699999999999997</v>
+        <v>0.58375</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5349999999999999</v>
+        <v>0.6175</v>
       </c>
       <c r="M119" t="n">
-        <v>1010.0</v>
+        <v>925.0</v>
       </c>
       <c r="N119" t="n">
         <v>0.0</v>
@@ -5800,37 +5800,37 @@
         <v>22.0</v>
       </c>
       <c r="C120" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D120" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F120" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H120" t="n">
         <v>4.53</v>
       </c>
       <c r="I120" t="n">
-        <v>4.58</v>
+        <v>4.72</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5033333333333334</v>
+        <v>0.6471428571428571</v>
       </c>
       <c r="L120" t="n">
-        <v>0.508888888888889</v>
+        <v>0.6742857142857143</v>
       </c>
       <c r="M120" t="n">
-        <v>810.0</v>
+        <v>905.0</v>
       </c>
       <c r="N120" t="n">
         <v>0.0</v>
@@ -5847,37 +5847,37 @@
         <v>23.0</v>
       </c>
       <c r="C121" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D121" t="n">
         <v>1.0</v>
       </c>
       <c r="E121" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F121" t="n">
         <v>6.0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H121" t="n">
         <v>4.09</v>
       </c>
       <c r="I121" t="n">
-        <v>3.78</v>
+        <v>4.62</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.31000000000000005</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="K121" t="n">
         <v>0.6816666666666665</v>
       </c>
       <c r="L121" t="n">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="M121" t="n">
-        <v>705.0</v>
+        <v>885.0</v>
       </c>
       <c r="N121" t="n">
         <v>0.0</v>
@@ -5894,37 +5894,37 @@
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D122" t="n">
         <v>1.0</v>
       </c>
       <c r="E122" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F122" t="n">
         <v>6.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H122" t="n">
         <v>2.9</v>
       </c>
       <c r="I122" t="n">
-        <v>3.61</v>
+        <v>4.62</v>
       </c>
       <c r="J122" t="n">
-        <v>0.71</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="K122" t="n">
         <v>0.48333333333333334</v>
       </c>
       <c r="L122" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.77</v>
       </c>
       <c r="M122" t="n">
-        <v>705.0</v>
+        <v>885.0</v>
       </c>
       <c r="N122" t="n">
         <v>0.0</v>
@@ -5947,31 +5947,31 @@
         <v>1.0</v>
       </c>
       <c r="E123" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F123" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>1.74</v>
       </c>
       <c r="I123" t="n">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="J123" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="K123" t="n">
-        <v>0.29</v>
+        <v>0.348</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7239999999999999</v>
       </c>
       <c r="M123" t="n">
-        <v>705.0</v>
+        <v>685.0</v>
       </c>
       <c r="N123" t="n">
         <v>0.0</v>
@@ -6006,16 +6006,16 @@
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="J124" t="n">
-        <v>0.7100000000000002</v>
+        <v>1.11</v>
       </c>
       <c r="K124" t="n">
         <v>0.3525</v>
       </c>
       <c r="L124" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="M124" t="n">
         <v>485.0</v>
@@ -6038,34 +6038,34 @@
         <v>1.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
       </c>
       <c r="F125" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>1.41</v>
       </c>
       <c r="I125" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.07999999999999985</v>
+        <v>-0.30999999999999983</v>
       </c>
       <c r="K125" t="n">
-        <v>0.47</v>
+        <v>0.705</v>
       </c>
       <c r="L125" t="n">
-        <v>0.44333333333333336</v>
+        <v>0.55</v>
       </c>
       <c r="M125" t="n">
-        <v>285.0</v>
+        <v>220.0</v>
       </c>
       <c r="N125" t="n">
         <v>0.0</v>
@@ -6082,7 +6082,7 @@
         <v>4.0</v>
       </c>
       <c r="C126" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D126" t="n">
         <v>0.0</v>
@@ -6091,31 +6091,31 @@
         <v>0.0</v>
       </c>
       <c r="F126" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G126" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H126" t="n">
         <v>0.98</v>
       </c>
       <c r="I126" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.30999999999999994</v>
+        <v>-0.98</v>
       </c>
       <c r="K126" t="n">
-        <v>0.98</v>
+        <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="M126" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N126" t="n">
-        <v>-0.07999999999999985</v>
+        <v>-0.30999999999999983</v>
       </c>
       <c r="O126" t="n">
         <v>0.0</v>
@@ -6162,10 +6162,10 @@
         <v>0.0</v>
       </c>
       <c r="N127" t="n">
-        <v>-0.30999999999999994</v>
+        <v>-0.98</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.07999999999999985</v>
+        <v>-0.30999999999999983</v>
       </c>
     </row>
     <row r="128">
@@ -6212,7 +6212,7 @@
         <v>-0.51</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.30999999999999994</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="129">
@@ -6223,43 +6223,43 @@
         <v>7.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D129" t="n">
         <v>1.0</v>
       </c>
       <c r="E129" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F129" t="n">
         <v>4.0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>2.47</v>
       </c>
       <c r="I129" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="K129" t="n">
         <v>0.6175</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5875</v>
+        <v>0.6875</v>
       </c>
       <c r="M129" t="n">
-        <v>305.0</v>
+        <v>485.0</v>
       </c>
       <c r="N129" t="n">
-        <v>-1.4999999999999998</v>
+        <v>-1.5</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.51</v>
+        <v>-0.2300000000000002</v>
       </c>
     </row>
     <row r="130">
@@ -6276,37 +6276,37 @@
         <v>1.0</v>
       </c>
       <c r="E130" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F130" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>2.59</v>
       </c>
       <c r="I130" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="J130" t="n">
-        <v>0.36000000000000026</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="K130" t="n">
-        <v>0.518</v>
+        <v>0.6475</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="M130" t="n">
-        <v>505.0</v>
+        <v>485.0</v>
       </c>
       <c r="N130" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="O130" t="n">
-        <v>-1.1399999999999997</v>
+        <v>-1.4699999999999998</v>
       </c>
     </row>
     <row r="131">
@@ -6323,31 +6323,31 @@
         <v>1.0</v>
       </c>
       <c r="E131" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F131" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>2.54</v>
       </c>
       <c r="I131" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2399999999999998</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>0.508</v>
+        <v>0.635</v>
       </c>
       <c r="L131" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="M131" t="n">
-        <v>505.0</v>
+        <v>485.0</v>
       </c>
       <c r="N131" t="n">
         <v>0.0</v>
@@ -6370,31 +6370,31 @@
         <v>2.0</v>
       </c>
       <c r="E132" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F132" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>3.32</v>
       </c>
       <c r="I132" t="n">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="J132" t="n">
-        <v>0.20999999999999996</v>
+        <v>0.050000000000000266</v>
       </c>
       <c r="K132" t="n">
-        <v>0.47428571428571425</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5042857142857142</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="M132" t="n">
-        <v>590.0</v>
+        <v>570.0</v>
       </c>
       <c r="N132" t="n">
         <v>0.0</v>
@@ -6417,31 +6417,31 @@
         <v>2.0</v>
       </c>
       <c r="E133" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F133" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H133" t="n">
         <v>3.78</v>
       </c>
       <c r="I133" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6200000000000006</v>
+        <v>0.4600000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>0.4725</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="L133" t="n">
-        <v>0.55</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M133" t="n">
-        <v>790.0</v>
+        <v>770.0</v>
       </c>
       <c r="N133" t="n">
         <v>0.0</v>
@@ -6464,31 +6464,31 @@
         <v>2.0</v>
       </c>
       <c r="E134" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F134" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H134" t="n">
         <v>2.88</v>
       </c>
       <c r="I134" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="J134" t="n">
-        <v>1.3500000000000005</v>
+        <v>1.3600000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>0.36</v>
+        <v>0.41142857142857137</v>
       </c>
       <c r="L134" t="n">
-        <v>0.52875</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M134" t="n">
-        <v>790.0</v>
+        <v>770.0</v>
       </c>
       <c r="N134" t="n">
         <v>0.0</v>
@@ -6523,16 +6523,16 @@
         <v>3.03</v>
       </c>
       <c r="I135" t="n">
-        <v>5.11</v>
+        <v>5.27</v>
       </c>
       <c r="J135" t="n">
-        <v>2.0800000000000005</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K135" t="n">
         <v>0.33666666666666667</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5677777777777778</v>
+        <v>0.5855555555555555</v>
       </c>
       <c r="M135" t="n">
         <v>990.0</v>
@@ -6558,31 +6558,31 @@
         <v>1.0</v>
       </c>
       <c r="E136" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F136" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H136" t="n">
         <v>4.18</v>
       </c>
       <c r="I136" t="n">
-        <v>4.9</v>
+        <v>5.77</v>
       </c>
       <c r="J136" t="n">
-        <v>0.7200000000000005</v>
+        <v>1.59</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5225</v>
+        <v>0.46444444444444444</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6125</v>
+        <v>0.6411111111111112</v>
       </c>
       <c r="M136" t="n">
-        <v>1105.0</v>
+        <v>1125.0</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -6599,37 +6599,37 @@
         <v>15.0</v>
       </c>
       <c r="C137" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F137" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H137" t="n">
         <v>3.81</v>
       </c>
       <c r="I137" t="n">
-        <v>3.48</v>
+        <v>4.44</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.33000000000000007</v>
+        <v>0.6300000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>0.762</v>
+        <v>0.5442857142857143</v>
       </c>
       <c r="L137" t="n">
-        <v>0.696</v>
+        <v>0.6342857142857143</v>
       </c>
       <c r="M137" t="n">
-        <v>865.0</v>
+        <v>770.0</v>
       </c>
       <c r="N137" t="n">
         <v>0.0</v>
@@ -6652,34 +6652,34 @@
         <v>2.0</v>
       </c>
       <c r="E138" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F138" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H138" t="n">
         <v>3.19</v>
       </c>
       <c r="I138" t="n">
-        <v>3.36</v>
+        <v>4.24</v>
       </c>
       <c r="J138" t="n">
-        <v>0.16999999999999993</v>
+        <v>1.0500000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>0.5316666666666666</v>
+        <v>0.4557142857142857</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M138" t="n">
-        <v>750.0</v>
+        <v>770.0</v>
       </c>
       <c r="N138" t="n">
-        <v>-0.16000000000000014</v>
+        <v>0.0</v>
       </c>
       <c r="O138" t="n">
         <v>0.0</v>
@@ -6699,31 +6699,31 @@
         <v>2.0</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F139" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H139" t="n">
         <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>3.23</v>
+        <v>4.24</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3500000000000001</v>
+        <v>1.3600000000000003</v>
       </c>
       <c r="K139" t="n">
-        <v>0.48</v>
+        <v>0.41142857142857137</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5383333333333333</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="M139" t="n">
-        <v>750.0</v>
+        <v>770.0</v>
       </c>
       <c r="N139" t="n">
         <v>0.0</v>
@@ -6746,31 +6746,31 @@
         <v>2.0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F140" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H140" t="n">
         <v>2.98</v>
       </c>
       <c r="I140" t="n">
-        <v>3.21</v>
+        <v>4.14</v>
       </c>
       <c r="J140" t="n">
-        <v>0.23</v>
+        <v>1.1599999999999997</v>
       </c>
       <c r="K140" t="n">
-        <v>0.49666666666666665</v>
+        <v>0.4257142857142857</v>
       </c>
       <c r="L140" t="n">
-        <v>0.535</v>
+        <v>0.5914285714285714</v>
       </c>
       <c r="M140" t="n">
-        <v>750.0</v>
+        <v>770.0</v>
       </c>
       <c r="N140" t="n">
         <v>0.0</v>
@@ -6787,37 +6787,37 @@
         <v>19.0</v>
       </c>
       <c r="C141" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D141" t="n">
         <v>1.0</v>
       </c>
       <c r="E141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F141" t="n">
         <v>5.0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
         <v>2.63</v>
       </c>
       <c r="I141" t="n">
-        <v>2.99</v>
+        <v>2.74</v>
       </c>
       <c r="J141" t="n">
-        <v>0.36000000000000026</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="K141" t="n">
         <v>0.526</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5980000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="M141" t="n">
-        <v>685.0</v>
+        <v>505.0</v>
       </c>
       <c r="N141" t="n">
         <v>0.0</v>
@@ -6834,37 +6834,37 @@
         <v>20.0</v>
       </c>
       <c r="C142" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F142" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G142" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>2.77</v>
       </c>
       <c r="I142" t="n">
-        <v>3.33</v>
+        <v>2.62</v>
       </c>
       <c r="J142" t="n">
-        <v>0.56</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>0.6925</v>
+        <v>0.554</v>
       </c>
       <c r="L142" t="n">
-        <v>0.8325</v>
+        <v>0.524</v>
       </c>
       <c r="M142" t="n">
-        <v>800.0</v>
+        <v>505.0</v>
       </c>
       <c r="N142" t="n">
         <v>0.0</v>
@@ -6881,40 +6881,40 @@
         <v>21.0</v>
       </c>
       <c r="C143" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F143" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G143" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>2.76</v>
       </c>
       <c r="I143" t="n">
-        <v>3.33</v>
+        <v>2.85</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.0900000000000003</v>
       </c>
       <c r="K143" t="n">
-        <v>0.69</v>
+        <v>0.5519999999999999</v>
       </c>
       <c r="L143" t="n">
-        <v>0.8325</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="M143" t="n">
-        <v>800.0</v>
+        <v>505.0</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0</v>
+        <v>-0.05999999999999961</v>
       </c>
       <c r="O143" t="n">
         <v>0.0</v>
@@ -6928,43 +6928,43 @@
         <v>22.0</v>
       </c>
       <c r="C144" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F144" t="n">
         <v>4.0</v>
       </c>
       <c r="G144" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>2.68</v>
       </c>
       <c r="I144" t="n">
-        <v>3.33</v>
+        <v>2.62</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6499999999999999</v>
+        <v>-0.06000000000000005</v>
       </c>
       <c r="K144" t="n">
         <v>0.67</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8325</v>
+        <v>0.655</v>
       </c>
       <c r="M144" t="n">
-        <v>800.0</v>
+        <v>485.0</v>
       </c>
       <c r="N144" t="n">
         <v>0.0</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0</v>
+        <v>-0.05999999999999961</v>
       </c>
     </row>
     <row r="145">
@@ -6975,37 +6975,37 @@
         <v>23.0</v>
       </c>
       <c r="C145" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F145" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G145" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>2.42</v>
       </c>
       <c r="I145" t="n">
-        <v>2.33</v>
+        <v>2.62</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="K145" t="n">
-        <v>0.8066666666666665</v>
+        <v>0.605</v>
       </c>
       <c r="L145" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.655</v>
       </c>
       <c r="M145" t="n">
-        <v>600.0</v>
+        <v>485.0</v>
       </c>
       <c r="N145" t="n">
         <v>0.0</v>
@@ -7025,34 +7025,34 @@
         <v>2.0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F146" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G146" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>1.08</v>
       </c>
       <c r="I146" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J146" t="n">
-        <v>0.41999999999999993</v>
+        <v>1.42</v>
       </c>
       <c r="K146" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="L146" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="M146" t="n">
-        <v>400.0</v>
+        <v>485.0</v>
       </c>
       <c r="N146" t="n">
         <v>0.0</v>
@@ -7087,16 +7087,16 @@
         <v>0.35</v>
       </c>
       <c r="I147" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.32000000000000006</v>
+        <v>0.65</v>
       </c>
       <c r="K147" t="n">
         <v>0.35</v>
       </c>
       <c r="L147" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M147" t="n">
         <v>200.0</v>
@@ -7416,16 +7416,16 @@
         <v>0.53</v>
       </c>
       <c r="I154" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.29999999999999993</v>
+        <v>0.47</v>
       </c>
       <c r="K154" t="n">
         <v>0.53</v>
       </c>
       <c r="L154" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M154" t="n">
         <v>200.0</v>
@@ -7463,16 +7463,16 @@
         <v>0.52</v>
       </c>
       <c r="I155" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.30999999999999994</v>
+        <v>0.48</v>
       </c>
       <c r="K155" t="n">
         <v>0.52</v>
       </c>
       <c r="L155" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M155" t="n">
         <v>200.0</v>
@@ -7510,16 +7510,16 @@
         <v>0.68</v>
       </c>
       <c r="I156" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.010000000000000009</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="K156" t="n">
         <v>0.68</v>
       </c>
       <c r="L156" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M156" t="n">
         <v>200.0</v>
@@ -7604,16 +7604,16 @@
         <v>0.58</v>
       </c>
       <c r="I158" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.25</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="K158" t="n">
         <v>0.58</v>
       </c>
       <c r="L158" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M158" t="n">
         <v>200.0</v>
@@ -7651,16 +7651,16 @@
         <v>0.62</v>
       </c>
       <c r="I159" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.20999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="K159" t="n">
         <v>0.62</v>
       </c>
       <c r="L159" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M159" t="n">
         <v>200.0</v>
@@ -7680,7 +7680,7 @@
         <v>14.0</v>
       </c>
       <c r="C160" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D160" t="n">
         <v>0.0</v>
@@ -7689,7 +7689,7 @@
         <v>0.0</v>
       </c>
       <c r="F160" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>1.0</v>
@@ -7698,19 +7698,19 @@
         <v>0.85</v>
       </c>
       <c r="I160" t="n">
-        <v>1.67</v>
+        <v>1.0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.82</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="L160" t="n">
-        <v>0.835</v>
+        <v>1.0</v>
       </c>
       <c r="M160" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="N160" t="n">
         <v>0.0</v>
@@ -7745,16 +7745,16 @@
         <v>0.77</v>
       </c>
       <c r="I161" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05999999999999995</v>
+        <v>0.23</v>
       </c>
       <c r="K161" t="n">
         <v>0.77</v>
       </c>
       <c r="L161" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M161" t="n">
         <v>200.0</v>
@@ -7792,16 +7792,16 @@
         <v>0.65</v>
       </c>
       <c r="I162" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.17999999999999994</v>
+        <v>0.35</v>
       </c>
       <c r="K162" t="n">
         <v>0.65</v>
       </c>
       <c r="L162" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M162" t="n">
         <v>200.0</v>
@@ -7839,16 +7839,16 @@
         <v>0.59</v>
       </c>
       <c r="I163" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.41</v>
       </c>
       <c r="K163" t="n">
         <v>0.59</v>
       </c>
       <c r="L163" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M163" t="n">
         <v>200.0</v>
@@ -7933,16 +7933,16 @@
         <v>0.53</v>
       </c>
       <c r="I165" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.29999999999999993</v>
+        <v>0.47</v>
       </c>
       <c r="K165" t="n">
         <v>0.53</v>
       </c>
       <c r="L165" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M165" t="n">
         <v>200.0</v>
@@ -7980,16 +7980,16 @@
         <v>0.56</v>
       </c>
       <c r="I166" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2699999999999999</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="K166" t="n">
         <v>0.56</v>
       </c>
       <c r="L166" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="M166" t="n">
         <v>200.0</v>
@@ -8027,16 +8027,16 @@
         <v>0.56</v>
       </c>
       <c r="I167" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.10999999999999999</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="K167" t="n">
         <v>0.56</v>
       </c>
       <c r="L167" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M167" t="n">
         <v>200.0</v>
@@ -8121,16 +8121,16 @@
         <v>0.5</v>
       </c>
       <c r="I169" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="J169" t="n">
-        <v>0.17000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="K169" t="n">
         <v>0.5</v>
       </c>
       <c r="L169" t="n">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="M169" t="n">
         <v>200.0</v>
@@ -8160,7 +8160,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="n">
-        <v>626.1200000000005</v>
+        <v>651.1100000000005</v>
       </c>
     </row>
     <row r="174">
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="n">
-        <v>22.12000000000001</v>
+        <v>29.64999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -8176,7 +8176,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="n">
-        <v>16.34</v>
+        <v>24.689999999999994</v>
       </c>
     </row>
     <row r="176">
@@ -8184,7 +8184,7 @@
         <v>27</v>
       </c>
       <c r="B176" t="n">
-        <v>120450.0</v>
+        <v>121910.0</v>
       </c>
     </row>
   </sheetData>
@@ -8249,19 +8249,19 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -8269,22 +8269,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -8292,22 +8292,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="D4" t="n">
         <v>8.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -8315,10 +8315,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
         <v>4.0</v>
@@ -8327,10 +8327,10 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -8338,10 +8338,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" t="n">
         <v>8.0</v>
@@ -8370,13 +8370,13 @@
         <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -8410,19 +8410,19 @@
         <v>16.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -8453,10 +8453,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" t="n">
         <v>8.0</v>
@@ -8468,7 +8468,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -8476,10 +8476,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
         <v>4.0</v>
@@ -8496,22 +8496,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
@@ -8519,22 +8519,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -8545,22 +8545,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -8568,22 +8568,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D16" t="n">
         <v>4.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -8591,22 +8591,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="D17" t="n">
         <v>8.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -8614,22 +8614,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="D18" t="n">
         <v>8.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -8637,22 +8637,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="D19" t="n">
         <v>8.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -8672,10 +8672,10 @@
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -8706,10 +8706,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" t="n">
         <v>8.0</v>
@@ -8721,7 +8721,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -8738,13 +8738,13 @@
         <v>8.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -8752,19 +8752,19 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -8772,22 +8772,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -8795,25 +8795,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -8821,22 +8821,22 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -8844,22 +8844,22 @@
         <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C28" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="D28" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -8867,22 +8867,22 @@
         <v>17</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="C29" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="D29" t="n">
         <v>8.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -8890,22 +8890,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -8913,22 +8913,22 @@
         <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C31" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -8936,22 +8936,22 @@
         <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D32" t="n">
         <v>8.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -8959,22 +8959,22 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C33" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -8982,22 +8982,22 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C34" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -9005,19 +9005,19 @@
         <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -9028,19 +9028,19 @@
         <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -9051,10 +9051,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D37" t="n">
         <v>4.0</v>
@@ -9066,53 +9066,53 @@
         <v>1.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="D38" t="n">
         <v>8.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -9120,22 +9120,22 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C40" t="n">
         <v>15.0</v>
       </c>
       <c r="D40" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -9143,22 +9143,22 @@
         <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="D41" t="n">
         <v>8.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -9166,19 +9166,19 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="D42" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
         <v>1.0</v>
@@ -9189,10 +9189,10 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="D43" t="n">
         <v>4.0</v>
@@ -9204,7 +9204,7 @@
         <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -9212,10 +9212,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C44" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="D44" t="n">
         <v>8.0</v>
@@ -9227,7 +9227,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -9235,10 +9235,10 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C45" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="D45" t="n">
         <v>8.0</v>
@@ -9247,7 +9247,7 @@
         <v>2.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
         <v>2.0</v>
@@ -9258,22 +9258,22 @@
         <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="D46" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -9281,13 +9281,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D47" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -9301,91 +9301,91 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C48" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="D48" t="n">
         <v>8.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C50" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="D50" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
@@ -9396,22 +9396,22 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C52" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D52" t="n">
         <v>8.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F52" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -9419,22 +9419,22 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="C53" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="D53" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -9442,19 +9442,19 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C54" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="D54" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
@@ -9465,22 +9465,22 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="C55" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="D55" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -9488,13 +9488,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="D56" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -9511,22 +9511,22 @@
         <v>19</v>
       </c>
       <c r="B57" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C57" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="D57" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
         <v>1.0</v>
       </c>
       <c r="G57" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -9534,19 +9534,19 @@
         <v>19</v>
       </c>
       <c r="B58" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C58" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" t="n">
         <v>4.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -9557,82 +9557,82 @@
         <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C59" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="D59" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C60" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D60" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C61" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="D61" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="C62" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="D62" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -9646,19 +9646,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="C63" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -9669,22 +9669,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C64" t="n">
         <v>22.0</v>
       </c>
-      <c r="C64" t="n">
-        <v>4.0</v>
-      </c>
       <c r="D64" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
         <v>1.0</v>
@@ -9692,13 +9692,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="C65" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="D65" t="n">
         <v>4.0</v>
@@ -9707,7 +9707,7 @@
         <v>1.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -9718,22 +9718,22 @@
         <v>20</v>
       </c>
       <c r="B66" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C66" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="D66" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="n">
         <v>1.0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -9741,22 +9741,22 @@
         <v>20</v>
       </c>
       <c r="B67" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="D67" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -9764,33 +9764,33 @@
         <v>20</v>
       </c>
       <c r="B68" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C68" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="D68" t="n">
         <v>4.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C69" t="n">
         <v>11.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>15.0</v>
       </c>
       <c r="D69" t="n">
         <v>4.0</v>
@@ -9807,16 +9807,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C70" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="D70" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -9830,16 +9830,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C71" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D71" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -9853,22 +9853,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C72" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="D72" t="n">
         <v>4.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="n">
         <v>0.0</v>
@@ -9876,16 +9876,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C73" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="D73" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -9894,225 +9894,18 @@
         <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B74" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B75" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B76" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B77" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B78" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B80" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B81" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B82" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G82" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A65"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A69:A73"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
